--- a/excel/generateDayLinks.xlsx
+++ b/excel/generateDayLinks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl\Ubuntu-18.04\home\karisch\programming\projects\horseData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\karisch\projects\horseData\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EAE383-7F9B-4958-878D-3751E8BCDBB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A84368-63DE-4E4E-9882-F72AAE8872E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27707CA5-E18E-4601-88CB-DF04115F391D}"/>
   </bookViews>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676633BA-22C4-4443-B279-E335ADF9F563}">
   <dimension ref="B1:I375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -560,7 +560,7 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f>DATE(C2,1,1)</f>
-        <v>42370</v>
+        <v>43831</v>
       </c>
       <c r="C10">
         <f>MONTH(B10)</f>
@@ -572,17 +572,17 @@
       </c>
       <c r="E10">
         <f>YEAR(B10)</f>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F10" s="6" t="str">
         <f>$I$3&amp;$I$4&amp;C10&amp;$I$5&amp;D10&amp;$I$6&amp;E10&amp;$I$7</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=1&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f>B10+1</f>
-        <v>42371</v>
+        <v>43832</v>
       </c>
       <c r="C11">
         <f t="shared" ref="C11:C74" si="0">MONTH(B11)</f>
@@ -594,17 +594,17 @@
       </c>
       <c r="E11">
         <f t="shared" ref="E11:E74" si="2">YEAR(B11)</f>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F11" s="6" t="str">
         <f t="shared" ref="F11:F74" si="3">$I$3&amp;$I$4&amp;C11&amp;$I$5&amp;D11&amp;$I$6&amp;E11&amp;$I$7</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=2&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ref="B12:B75" si="4">B11+1</f>
-        <v>42372</v>
+        <v>43833</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -616,17 +616,18 @@
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F12" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=3&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
-      </c>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+      </c>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" si="4"/>
-        <v>42373</v>
+        <v>43834</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -638,17 +639,17 @@
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F13" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=4&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" si="4"/>
-        <v>42374</v>
+        <v>43835</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -660,17 +661,17 @@
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F14" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=5&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" si="4"/>
-        <v>42375</v>
+        <v>43836</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -682,17 +683,17 @@
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F15" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=6&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" si="4"/>
-        <v>42376</v>
+        <v>43837</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -704,17 +705,17 @@
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F16" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=7&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" si="4"/>
-        <v>42377</v>
+        <v>43838</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -726,17 +727,17 @@
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F17" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=8&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" si="4"/>
-        <v>42378</v>
+        <v>43839</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -748,17 +749,17 @@
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F18" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=9&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" si="4"/>
-        <v>42379</v>
+        <v>43840</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -770,17 +771,17 @@
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F19" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=10&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" si="4"/>
-        <v>42380</v>
+        <v>43841</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -792,17 +793,17 @@
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F20" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=11&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" si="4"/>
-        <v>42381</v>
+        <v>43842</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -814,17 +815,17 @@
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F21" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=12&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" si="4"/>
-        <v>42382</v>
+        <v>43843</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -836,17 +837,17 @@
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F22" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=13&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" si="4"/>
-        <v>42383</v>
+        <v>43844</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -858,17 +859,17 @@
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F23" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=14&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" si="4"/>
-        <v>42384</v>
+        <v>43845</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -880,17 +881,17 @@
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F24" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=15&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" si="4"/>
-        <v>42385</v>
+        <v>43846</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -902,17 +903,17 @@
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F25" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=16&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f t="shared" si="4"/>
-        <v>42386</v>
+        <v>43847</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -924,17 +925,17 @@
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F26" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=17&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f t="shared" si="4"/>
-        <v>42387</v>
+        <v>43848</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -946,17 +947,17 @@
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F27" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=18&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f t="shared" si="4"/>
-        <v>42388</v>
+        <v>43849</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -968,17 +969,17 @@
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F28" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=19&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f t="shared" si="4"/>
-        <v>42389</v>
+        <v>43850</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -990,17 +991,17 @@
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F29" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=20&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" si="4"/>
-        <v>42390</v>
+        <v>43851</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -1012,17 +1013,17 @@
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F30" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=21&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" si="4"/>
-        <v>42391</v>
+        <v>43852</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -1034,17 +1035,17 @@
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F31" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=22&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f t="shared" si="4"/>
-        <v>42392</v>
+        <v>43853</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -1056,17 +1057,17 @@
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F32" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=23&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f t="shared" si="4"/>
-        <v>42393</v>
+        <v>43854</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -1078,17 +1079,17 @@
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F33" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=24&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f t="shared" si="4"/>
-        <v>42394</v>
+        <v>43855</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -1100,17 +1101,17 @@
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F34" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=25&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f t="shared" si="4"/>
-        <v>42395</v>
+        <v>43856</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -1122,17 +1123,17 @@
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F35" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=26&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f t="shared" si="4"/>
-        <v>42396</v>
+        <v>43857</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -1144,17 +1145,17 @@
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F36" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=27&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f t="shared" si="4"/>
-        <v>42397</v>
+        <v>43858</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
@@ -1166,17 +1167,17 @@
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F37" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=28&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <f t="shared" si="4"/>
-        <v>42398</v>
+        <v>43859</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
@@ -1188,17 +1189,17 @@
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F38" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=29&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <f t="shared" si="4"/>
-        <v>42399</v>
+        <v>43860</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
@@ -1210,17 +1211,17 @@
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F39" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=30&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <f t="shared" si="4"/>
-        <v>42400</v>
+        <v>43861</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
@@ -1232,17 +1233,17 @@
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F40" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=31&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=31&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <f t="shared" si="4"/>
-        <v>42401</v>
+        <v>43862</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
@@ -1254,17 +1255,17 @@
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F41" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=1&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <f t="shared" si="4"/>
-        <v>42402</v>
+        <v>43863</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
@@ -1276,17 +1277,17 @@
       </c>
       <c r="E42">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F42" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=2&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <f t="shared" si="4"/>
-        <v>42403</v>
+        <v>43864</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
@@ -1298,17 +1299,17 @@
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F43" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=3&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <f t="shared" si="4"/>
-        <v>42404</v>
+        <v>43865</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
@@ -1320,17 +1321,17 @@
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F44" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=4&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <f t="shared" si="4"/>
-        <v>42405</v>
+        <v>43866</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
@@ -1342,17 +1343,17 @@
       </c>
       <c r="E45">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F45" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=5&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <f t="shared" si="4"/>
-        <v>42406</v>
+        <v>43867</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
@@ -1364,17 +1365,17 @@
       </c>
       <c r="E46">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F46" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=6&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <f t="shared" si="4"/>
-        <v>42407</v>
+        <v>43868</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
@@ -1386,17 +1387,17 @@
       </c>
       <c r="E47">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F47" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=7&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <f t="shared" si="4"/>
-        <v>42408</v>
+        <v>43869</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
@@ -1408,17 +1409,17 @@
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F48" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=8&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <f t="shared" si="4"/>
-        <v>42409</v>
+        <v>43870</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
@@ -1430,17 +1431,17 @@
       </c>
       <c r="E49">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F49" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=9&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <f t="shared" si="4"/>
-        <v>42410</v>
+        <v>43871</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
@@ -1452,17 +1453,17 @@
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F50" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=10&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <f t="shared" si="4"/>
-        <v>42411</v>
+        <v>43872</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -1474,17 +1475,17 @@
       </c>
       <c r="E51">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F51" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=11&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <f t="shared" si="4"/>
-        <v>42412</v>
+        <v>43873</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
@@ -1496,17 +1497,17 @@
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F52" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=12&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <f t="shared" si="4"/>
-        <v>42413</v>
+        <v>43874</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
@@ -1518,17 +1519,17 @@
       </c>
       <c r="E53">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F53" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=13&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <f t="shared" si="4"/>
-        <v>42414</v>
+        <v>43875</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
@@ -1540,17 +1541,17 @@
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F54" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=14&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <f t="shared" si="4"/>
-        <v>42415</v>
+        <v>43876</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
@@ -1562,17 +1563,17 @@
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F55" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=15&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <f t="shared" si="4"/>
-        <v>42416</v>
+        <v>43877</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
@@ -1584,17 +1585,17 @@
       </c>
       <c r="E56">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F56" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=16&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <f t="shared" si="4"/>
-        <v>42417</v>
+        <v>43878</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
@@ -1606,17 +1607,17 @@
       </c>
       <c r="E57">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F57" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=17&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <f t="shared" si="4"/>
-        <v>42418</v>
+        <v>43879</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
@@ -1628,17 +1629,17 @@
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F58" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=18&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <f t="shared" si="4"/>
-        <v>42419</v>
+        <v>43880</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
@@ -1650,17 +1651,17 @@
       </c>
       <c r="E59">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F59" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=19&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <f t="shared" si="4"/>
-        <v>42420</v>
+        <v>43881</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
@@ -1672,17 +1673,17 @@
       </c>
       <c r="E60">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F60" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=20&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <f t="shared" si="4"/>
-        <v>42421</v>
+        <v>43882</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
@@ -1694,17 +1695,17 @@
       </c>
       <c r="E61">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F61" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=21&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <f t="shared" si="4"/>
-        <v>42422</v>
+        <v>43883</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
@@ -1716,17 +1717,17 @@
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F62" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=22&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <f t="shared" si="4"/>
-        <v>42423</v>
+        <v>43884</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
@@ -1738,17 +1739,17 @@
       </c>
       <c r="E63">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F63" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=23&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <f t="shared" si="4"/>
-        <v>42424</v>
+        <v>43885</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
@@ -1760,17 +1761,17 @@
       </c>
       <c r="E64">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F64" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=24&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <f t="shared" si="4"/>
-        <v>42425</v>
+        <v>43886</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
@@ -1782,17 +1783,17 @@
       </c>
       <c r="E65">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F65" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=25&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <f t="shared" si="4"/>
-        <v>42426</v>
+        <v>43887</v>
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
@@ -1804,17 +1805,17 @@
       </c>
       <c r="E66">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F66" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=26&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <f t="shared" si="4"/>
-        <v>42427</v>
+        <v>43888</v>
       </c>
       <c r="C67">
         <f t="shared" si="0"/>
@@ -1826,17 +1827,17 @@
       </c>
       <c r="E67">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F67" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=27&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <f t="shared" si="4"/>
-        <v>42428</v>
+        <v>43889</v>
       </c>
       <c r="C68">
         <f t="shared" si="0"/>
@@ -1848,17 +1849,17 @@
       </c>
       <c r="E68">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F68" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=28&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <f t="shared" si="4"/>
-        <v>42429</v>
+        <v>43890</v>
       </c>
       <c r="C69">
         <f t="shared" si="0"/>
@@ -1870,17 +1871,17 @@
       </c>
       <c r="E69">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F69" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=29&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <f t="shared" si="4"/>
-        <v>42430</v>
+        <v>43891</v>
       </c>
       <c r="C70">
         <f t="shared" si="0"/>
@@ -1892,17 +1893,17 @@
       </c>
       <c r="E70">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F70" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=1&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <f t="shared" si="4"/>
-        <v>42431</v>
+        <v>43892</v>
       </c>
       <c r="C71">
         <f t="shared" si="0"/>
@@ -1914,17 +1915,17 @@
       </c>
       <c r="E71">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F71" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=2&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <f t="shared" si="4"/>
-        <v>42432</v>
+        <v>43893</v>
       </c>
       <c r="C72">
         <f t="shared" si="0"/>
@@ -1936,17 +1937,17 @@
       </c>
       <c r="E72">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F72" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=3&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <f t="shared" si="4"/>
-        <v>42433</v>
+        <v>43894</v>
       </c>
       <c r="C73">
         <f t="shared" si="0"/>
@@ -1958,17 +1959,17 @@
       </c>
       <c r="E73">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F73" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=4&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <f t="shared" si="4"/>
-        <v>42434</v>
+        <v>43895</v>
       </c>
       <c r="C74">
         <f t="shared" si="0"/>
@@ -1980,17 +1981,17 @@
       </c>
       <c r="E74">
         <f t="shared" si="2"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F74" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=5&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <f t="shared" si="4"/>
-        <v>42435</v>
+        <v>43896</v>
       </c>
       <c r="C75">
         <f t="shared" ref="C75:C138" si="5">MONTH(B75)</f>
@@ -2002,17 +2003,17 @@
       </c>
       <c r="E75">
         <f t="shared" ref="E75:E138" si="7">YEAR(B75)</f>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F75" s="6" t="str">
         <f t="shared" ref="F75:F138" si="8">$I$3&amp;$I$4&amp;C75&amp;$I$5&amp;D75&amp;$I$6&amp;E75&amp;$I$7</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=6&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <f t="shared" ref="B76:B139" si="9">B75+1</f>
-        <v>42436</v>
+        <v>43897</v>
       </c>
       <c r="C76">
         <f t="shared" si="5"/>
@@ -2024,17 +2025,17 @@
       </c>
       <c r="E76">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F76" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=7&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <f t="shared" si="9"/>
-        <v>42437</v>
+        <v>43898</v>
       </c>
       <c r="C77">
         <f t="shared" si="5"/>
@@ -2046,17 +2047,17 @@
       </c>
       <c r="E77">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F77" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=8&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <f t="shared" si="9"/>
-        <v>42438</v>
+        <v>43899</v>
       </c>
       <c r="C78">
         <f t="shared" si="5"/>
@@ -2068,17 +2069,17 @@
       </c>
       <c r="E78">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F78" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=9&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <f t="shared" si="9"/>
-        <v>42439</v>
+        <v>43900</v>
       </c>
       <c r="C79">
         <f t="shared" si="5"/>
@@ -2090,17 +2091,17 @@
       </c>
       <c r="E79">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F79" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=10&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <f t="shared" si="9"/>
-        <v>42440</v>
+        <v>43901</v>
       </c>
       <c r="C80">
         <f t="shared" si="5"/>
@@ -2112,17 +2113,17 @@
       </c>
       <c r="E80">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F80" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=11&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <f t="shared" si="9"/>
-        <v>42441</v>
+        <v>43902</v>
       </c>
       <c r="C81">
         <f t="shared" si="5"/>
@@ -2134,17 +2135,17 @@
       </c>
       <c r="E81">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F81" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=12&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <f t="shared" si="9"/>
-        <v>42442</v>
+        <v>43903</v>
       </c>
       <c r="C82">
         <f t="shared" si="5"/>
@@ -2156,17 +2157,17 @@
       </c>
       <c r="E82">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F82" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=13&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <f t="shared" si="9"/>
-        <v>42443</v>
+        <v>43904</v>
       </c>
       <c r="C83">
         <f t="shared" si="5"/>
@@ -2178,17 +2179,17 @@
       </c>
       <c r="E83">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F83" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=14&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <f t="shared" si="9"/>
-        <v>42444</v>
+        <v>43905</v>
       </c>
       <c r="C84">
         <f t="shared" si="5"/>
@@ -2200,17 +2201,17 @@
       </c>
       <c r="E84">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F84" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=15&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <f t="shared" si="9"/>
-        <v>42445</v>
+        <v>43906</v>
       </c>
       <c r="C85">
         <f t="shared" si="5"/>
@@ -2222,17 +2223,17 @@
       </c>
       <c r="E85">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F85" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=16&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <f t="shared" si="9"/>
-        <v>42446</v>
+        <v>43907</v>
       </c>
       <c r="C86">
         <f t="shared" si="5"/>
@@ -2244,17 +2245,17 @@
       </c>
       <c r="E86">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F86" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=17&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <f t="shared" si="9"/>
-        <v>42447</v>
+        <v>43908</v>
       </c>
       <c r="C87">
         <f t="shared" si="5"/>
@@ -2266,17 +2267,17 @@
       </c>
       <c r="E87">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F87" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=18&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <f t="shared" si="9"/>
-        <v>42448</v>
+        <v>43909</v>
       </c>
       <c r="C88">
         <f t="shared" si="5"/>
@@ -2288,17 +2289,17 @@
       </c>
       <c r="E88">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F88" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=19&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <f t="shared" si="9"/>
-        <v>42449</v>
+        <v>43910</v>
       </c>
       <c r="C89">
         <f t="shared" si="5"/>
@@ -2310,17 +2311,17 @@
       </c>
       <c r="E89">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F89" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=20&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <f t="shared" si="9"/>
-        <v>42450</v>
+        <v>43911</v>
       </c>
       <c r="C90">
         <f t="shared" si="5"/>
@@ -2332,17 +2333,17 @@
       </c>
       <c r="E90">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F90" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=21&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <f t="shared" si="9"/>
-        <v>42451</v>
+        <v>43912</v>
       </c>
       <c r="C91">
         <f t="shared" si="5"/>
@@ -2354,17 +2355,17 @@
       </c>
       <c r="E91">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F91" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=22&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <f t="shared" si="9"/>
-        <v>42452</v>
+        <v>43913</v>
       </c>
       <c r="C92">
         <f t="shared" si="5"/>
@@ -2376,17 +2377,17 @@
       </c>
       <c r="E92">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F92" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=23&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <f t="shared" si="9"/>
-        <v>42453</v>
+        <v>43914</v>
       </c>
       <c r="C93">
         <f t="shared" si="5"/>
@@ -2398,17 +2399,17 @@
       </c>
       <c r="E93">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F93" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=24&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <f t="shared" si="9"/>
-        <v>42454</v>
+        <v>43915</v>
       </c>
       <c r="C94">
         <f t="shared" si="5"/>
@@ -2420,17 +2421,17 @@
       </c>
       <c r="E94">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F94" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=25&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <f t="shared" si="9"/>
-        <v>42455</v>
+        <v>43916</v>
       </c>
       <c r="C95">
         <f t="shared" si="5"/>
@@ -2442,17 +2443,17 @@
       </c>
       <c r="E95">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F95" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=26&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <f t="shared" si="9"/>
-        <v>42456</v>
+        <v>43917</v>
       </c>
       <c r="C96">
         <f t="shared" si="5"/>
@@ -2464,17 +2465,17 @@
       </c>
       <c r="E96">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F96" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=27&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <f t="shared" si="9"/>
-        <v>42457</v>
+        <v>43918</v>
       </c>
       <c r="C97">
         <f t="shared" si="5"/>
@@ -2486,17 +2487,17 @@
       </c>
       <c r="E97">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F97" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=28&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <f t="shared" si="9"/>
-        <v>42458</v>
+        <v>43919</v>
       </c>
       <c r="C98">
         <f t="shared" si="5"/>
@@ -2508,17 +2509,17 @@
       </c>
       <c r="E98">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F98" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=29&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <f t="shared" si="9"/>
-        <v>42459</v>
+        <v>43920</v>
       </c>
       <c r="C99">
         <f t="shared" si="5"/>
@@ -2530,17 +2531,17 @@
       </c>
       <c r="E99">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F99" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=30&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <f t="shared" si="9"/>
-        <v>42460</v>
+        <v>43921</v>
       </c>
       <c r="C100">
         <f t="shared" si="5"/>
@@ -2552,17 +2553,17 @@
       </c>
       <c r="E100">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F100" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=31&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=31&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <f t="shared" si="9"/>
-        <v>42461</v>
+        <v>43922</v>
       </c>
       <c r="C101">
         <f t="shared" si="5"/>
@@ -2574,17 +2575,17 @@
       </c>
       <c r="E101">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F101" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=1&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <f t="shared" si="9"/>
-        <v>42462</v>
+        <v>43923</v>
       </c>
       <c r="C102">
         <f t="shared" si="5"/>
@@ -2596,17 +2597,17 @@
       </c>
       <c r="E102">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F102" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=2&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <f t="shared" si="9"/>
-        <v>42463</v>
+        <v>43924</v>
       </c>
       <c r="C103">
         <f t="shared" si="5"/>
@@ -2618,17 +2619,17 @@
       </c>
       <c r="E103">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F103" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=3&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <f t="shared" si="9"/>
-        <v>42464</v>
+        <v>43925</v>
       </c>
       <c r="C104">
         <f t="shared" si="5"/>
@@ -2640,17 +2641,17 @@
       </c>
       <c r="E104">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F104" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=4&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <f t="shared" si="9"/>
-        <v>42465</v>
+        <v>43926</v>
       </c>
       <c r="C105">
         <f t="shared" si="5"/>
@@ -2662,17 +2663,17 @@
       </c>
       <c r="E105">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F105" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=5&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <f t="shared" si="9"/>
-        <v>42466</v>
+        <v>43927</v>
       </c>
       <c r="C106">
         <f t="shared" si="5"/>
@@ -2684,17 +2685,17 @@
       </c>
       <c r="E106">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F106" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=6&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <f t="shared" si="9"/>
-        <v>42467</v>
+        <v>43928</v>
       </c>
       <c r="C107">
         <f t="shared" si="5"/>
@@ -2706,17 +2707,17 @@
       </c>
       <c r="E107">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F107" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=7&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <f t="shared" si="9"/>
-        <v>42468</v>
+        <v>43929</v>
       </c>
       <c r="C108">
         <f t="shared" si="5"/>
@@ -2728,17 +2729,17 @@
       </c>
       <c r="E108">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F108" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=8&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <f t="shared" si="9"/>
-        <v>42469</v>
+        <v>43930</v>
       </c>
       <c r="C109">
         <f t="shared" si="5"/>
@@ -2750,17 +2751,17 @@
       </c>
       <c r="E109">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F109" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=9&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <f t="shared" si="9"/>
-        <v>42470</v>
+        <v>43931</v>
       </c>
       <c r="C110">
         <f t="shared" si="5"/>
@@ -2772,17 +2773,17 @@
       </c>
       <c r="E110">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F110" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=10&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <f t="shared" si="9"/>
-        <v>42471</v>
+        <v>43932</v>
       </c>
       <c r="C111">
         <f t="shared" si="5"/>
@@ -2794,17 +2795,17 @@
       </c>
       <c r="E111">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F111" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=11&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <f t="shared" si="9"/>
-        <v>42472</v>
+        <v>43933</v>
       </c>
       <c r="C112">
         <f t="shared" si="5"/>
@@ -2816,17 +2817,17 @@
       </c>
       <c r="E112">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F112" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=12&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <f t="shared" si="9"/>
-        <v>42473</v>
+        <v>43934</v>
       </c>
       <c r="C113">
         <f t="shared" si="5"/>
@@ -2838,17 +2839,17 @@
       </c>
       <c r="E113">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F113" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=13&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <f t="shared" si="9"/>
-        <v>42474</v>
+        <v>43935</v>
       </c>
       <c r="C114">
         <f t="shared" si="5"/>
@@ -2860,17 +2861,17 @@
       </c>
       <c r="E114">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F114" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=14&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <f t="shared" si="9"/>
-        <v>42475</v>
+        <v>43936</v>
       </c>
       <c r="C115">
         <f t="shared" si="5"/>
@@ -2882,17 +2883,17 @@
       </c>
       <c r="E115">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F115" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=15&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <f t="shared" si="9"/>
-        <v>42476</v>
+        <v>43937</v>
       </c>
       <c r="C116">
         <f t="shared" si="5"/>
@@ -2904,17 +2905,17 @@
       </c>
       <c r="E116">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F116" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=16&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <f t="shared" si="9"/>
-        <v>42477</v>
+        <v>43938</v>
       </c>
       <c r="C117">
         <f t="shared" si="5"/>
@@ -2926,17 +2927,17 @@
       </c>
       <c r="E117">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F117" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=17&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <f t="shared" si="9"/>
-        <v>42478</v>
+        <v>43939</v>
       </c>
       <c r="C118">
         <f t="shared" si="5"/>
@@ -2948,17 +2949,17 @@
       </c>
       <c r="E118">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F118" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=18&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <f t="shared" si="9"/>
-        <v>42479</v>
+        <v>43940</v>
       </c>
       <c r="C119">
         <f t="shared" si="5"/>
@@ -2970,17 +2971,17 @@
       </c>
       <c r="E119">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F119" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=19&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <f t="shared" si="9"/>
-        <v>42480</v>
+        <v>43941</v>
       </c>
       <c r="C120">
         <f t="shared" si="5"/>
@@ -2992,17 +2993,17 @@
       </c>
       <c r="E120">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F120" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=20&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <f t="shared" si="9"/>
-        <v>42481</v>
+        <v>43942</v>
       </c>
       <c r="C121">
         <f t="shared" si="5"/>
@@ -3014,17 +3015,17 @@
       </c>
       <c r="E121">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F121" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=21&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <f t="shared" si="9"/>
-        <v>42482</v>
+        <v>43943</v>
       </c>
       <c r="C122">
         <f t="shared" si="5"/>
@@ -3036,17 +3037,17 @@
       </c>
       <c r="E122">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F122" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=22&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <f t="shared" si="9"/>
-        <v>42483</v>
+        <v>43944</v>
       </c>
       <c r="C123">
         <f t="shared" si="5"/>
@@ -3058,17 +3059,17 @@
       </c>
       <c r="E123">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F123" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=23&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <f t="shared" si="9"/>
-        <v>42484</v>
+        <v>43945</v>
       </c>
       <c r="C124">
         <f t="shared" si="5"/>
@@ -3080,17 +3081,17 @@
       </c>
       <c r="E124">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F124" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=24&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <f t="shared" si="9"/>
-        <v>42485</v>
+        <v>43946</v>
       </c>
       <c r="C125">
         <f t="shared" si="5"/>
@@ -3102,17 +3103,17 @@
       </c>
       <c r="E125">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F125" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=25&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <f t="shared" si="9"/>
-        <v>42486</v>
+        <v>43947</v>
       </c>
       <c r="C126">
         <f t="shared" si="5"/>
@@ -3124,17 +3125,17 @@
       </c>
       <c r="E126">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F126" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=26&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <f t="shared" si="9"/>
-        <v>42487</v>
+        <v>43948</v>
       </c>
       <c r="C127">
         <f t="shared" si="5"/>
@@ -3146,17 +3147,17 @@
       </c>
       <c r="E127">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F127" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=27&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <f t="shared" si="9"/>
-        <v>42488</v>
+        <v>43949</v>
       </c>
       <c r="C128">
         <f t="shared" si="5"/>
@@ -3168,17 +3169,17 @@
       </c>
       <c r="E128">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F128" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=28&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <f t="shared" si="9"/>
-        <v>42489</v>
+        <v>43950</v>
       </c>
       <c r="C129">
         <f t="shared" si="5"/>
@@ -3190,17 +3191,17 @@
       </c>
       <c r="E129">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F129" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=29&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <f t="shared" si="9"/>
-        <v>42490</v>
+        <v>43951</v>
       </c>
       <c r="C130">
         <f t="shared" si="5"/>
@@ -3212,17 +3213,17 @@
       </c>
       <c r="E130">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F130" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=30&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <f t="shared" si="9"/>
-        <v>42491</v>
+        <v>43952</v>
       </c>
       <c r="C131">
         <f t="shared" si="5"/>
@@ -3234,17 +3235,17 @@
       </c>
       <c r="E131">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F131" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=1&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <f t="shared" si="9"/>
-        <v>42492</v>
+        <v>43953</v>
       </c>
       <c r="C132">
         <f t="shared" si="5"/>
@@ -3256,17 +3257,17 @@
       </c>
       <c r="E132">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F132" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=2&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <f t="shared" si="9"/>
-        <v>42493</v>
+        <v>43954</v>
       </c>
       <c r="C133">
         <f t="shared" si="5"/>
@@ -3278,17 +3279,17 @@
       </c>
       <c r="E133">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F133" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=3&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <f t="shared" si="9"/>
-        <v>42494</v>
+        <v>43955</v>
       </c>
       <c r="C134">
         <f t="shared" si="5"/>
@@ -3300,17 +3301,17 @@
       </c>
       <c r="E134">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F134" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=4&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <f t="shared" si="9"/>
-        <v>42495</v>
+        <v>43956</v>
       </c>
       <c r="C135">
         <f t="shared" si="5"/>
@@ -3322,17 +3323,17 @@
       </c>
       <c r="E135">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F135" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=5&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <f t="shared" si="9"/>
-        <v>42496</v>
+        <v>43957</v>
       </c>
       <c r="C136">
         <f t="shared" si="5"/>
@@ -3344,17 +3345,17 @@
       </c>
       <c r="E136">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F136" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=6&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <f t="shared" si="9"/>
-        <v>42497</v>
+        <v>43958</v>
       </c>
       <c r="C137">
         <f t="shared" si="5"/>
@@ -3366,17 +3367,17 @@
       </c>
       <c r="E137">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F137" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=7&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <f t="shared" si="9"/>
-        <v>42498</v>
+        <v>43959</v>
       </c>
       <c r="C138">
         <f t="shared" si="5"/>
@@ -3388,17 +3389,17 @@
       </c>
       <c r="E138">
         <f t="shared" si="7"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F138" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=8&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
         <f t="shared" si="9"/>
-        <v>42499</v>
+        <v>43960</v>
       </c>
       <c r="C139">
         <f t="shared" ref="C139:C202" si="10">MONTH(B139)</f>
@@ -3410,17 +3411,17 @@
       </c>
       <c r="E139">
         <f t="shared" ref="E139:E202" si="12">YEAR(B139)</f>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F139" s="6" t="str">
         <f t="shared" ref="F139:F202" si="13">$I$3&amp;$I$4&amp;C139&amp;$I$5&amp;D139&amp;$I$6&amp;E139&amp;$I$7</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=9&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <f t="shared" ref="B140:B203" si="14">B139+1</f>
-        <v>42500</v>
+        <v>43961</v>
       </c>
       <c r="C140">
         <f t="shared" si="10"/>
@@ -3432,17 +3433,17 @@
       </c>
       <c r="E140">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F140" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=10&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <f t="shared" si="14"/>
-        <v>42501</v>
+        <v>43962</v>
       </c>
       <c r="C141">
         <f t="shared" si="10"/>
@@ -3454,17 +3455,17 @@
       </c>
       <c r="E141">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F141" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=11&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <f t="shared" si="14"/>
-        <v>42502</v>
+        <v>43963</v>
       </c>
       <c r="C142">
         <f t="shared" si="10"/>
@@ -3476,17 +3477,17 @@
       </c>
       <c r="E142">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F142" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=12&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <f t="shared" si="14"/>
-        <v>42503</v>
+        <v>43964</v>
       </c>
       <c r="C143">
         <f t="shared" si="10"/>
@@ -3498,17 +3499,17 @@
       </c>
       <c r="E143">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F143" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=13&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <f t="shared" si="14"/>
-        <v>42504</v>
+        <v>43965</v>
       </c>
       <c r="C144">
         <f t="shared" si="10"/>
@@ -3520,17 +3521,17 @@
       </c>
       <c r="E144">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F144" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=14&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <f t="shared" si="14"/>
-        <v>42505</v>
+        <v>43966</v>
       </c>
       <c r="C145">
         <f t="shared" si="10"/>
@@ -3542,17 +3543,17 @@
       </c>
       <c r="E145">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F145" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=15&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <f t="shared" si="14"/>
-        <v>42506</v>
+        <v>43967</v>
       </c>
       <c r="C146">
         <f t="shared" si="10"/>
@@ -3564,17 +3565,17 @@
       </c>
       <c r="E146">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F146" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=16&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <f t="shared" si="14"/>
-        <v>42507</v>
+        <v>43968</v>
       </c>
       <c r="C147">
         <f t="shared" si="10"/>
@@ -3586,17 +3587,17 @@
       </c>
       <c r="E147">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F147" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=17&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <f t="shared" si="14"/>
-        <v>42508</v>
+        <v>43969</v>
       </c>
       <c r="C148">
         <f t="shared" si="10"/>
@@ -3608,17 +3609,17 @@
       </c>
       <c r="E148">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F148" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=18&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <f t="shared" si="14"/>
-        <v>42509</v>
+        <v>43970</v>
       </c>
       <c r="C149">
         <f t="shared" si="10"/>
@@ -3630,17 +3631,17 @@
       </c>
       <c r="E149">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F149" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=19&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <f t="shared" si="14"/>
-        <v>42510</v>
+        <v>43971</v>
       </c>
       <c r="C150">
         <f t="shared" si="10"/>
@@ -3652,17 +3653,17 @@
       </c>
       <c r="E150">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F150" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=20&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <f t="shared" si="14"/>
-        <v>42511</v>
+        <v>43972</v>
       </c>
       <c r="C151">
         <f t="shared" si="10"/>
@@ -3674,17 +3675,17 @@
       </c>
       <c r="E151">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F151" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=21&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <f t="shared" si="14"/>
-        <v>42512</v>
+        <v>43973</v>
       </c>
       <c r="C152">
         <f t="shared" si="10"/>
@@ -3696,17 +3697,17 @@
       </c>
       <c r="E152">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F152" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=22&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <f t="shared" si="14"/>
-        <v>42513</v>
+        <v>43974</v>
       </c>
       <c r="C153">
         <f t="shared" si="10"/>
@@ -3718,17 +3719,17 @@
       </c>
       <c r="E153">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F153" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=23&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <f t="shared" si="14"/>
-        <v>42514</v>
+        <v>43975</v>
       </c>
       <c r="C154">
         <f t="shared" si="10"/>
@@ -3740,17 +3741,17 @@
       </c>
       <c r="E154">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F154" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=24&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <f t="shared" si="14"/>
-        <v>42515</v>
+        <v>43976</v>
       </c>
       <c r="C155">
         <f t="shared" si="10"/>
@@ -3762,17 +3763,17 @@
       </c>
       <c r="E155">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F155" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=25&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <f t="shared" si="14"/>
-        <v>42516</v>
+        <v>43977</v>
       </c>
       <c r="C156">
         <f t="shared" si="10"/>
@@ -3784,17 +3785,17 @@
       </c>
       <c r="E156">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F156" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=26&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <f t="shared" si="14"/>
-        <v>42517</v>
+        <v>43978</v>
       </c>
       <c r="C157">
         <f t="shared" si="10"/>
@@ -3806,17 +3807,17 @@
       </c>
       <c r="E157">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F157" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=27&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <f t="shared" si="14"/>
-        <v>42518</v>
+        <v>43979</v>
       </c>
       <c r="C158">
         <f t="shared" si="10"/>
@@ -3828,17 +3829,17 @@
       </c>
       <c r="E158">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F158" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=28&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <f t="shared" si="14"/>
-        <v>42519</v>
+        <v>43980</v>
       </c>
       <c r="C159">
         <f t="shared" si="10"/>
@@ -3850,17 +3851,17 @@
       </c>
       <c r="E159">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F159" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=29&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <f t="shared" si="14"/>
-        <v>42520</v>
+        <v>43981</v>
       </c>
       <c r="C160">
         <f t="shared" si="10"/>
@@ -3872,17 +3873,17 @@
       </c>
       <c r="E160">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F160" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=30&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <f t="shared" si="14"/>
-        <v>42521</v>
+        <v>43982</v>
       </c>
       <c r="C161">
         <f t="shared" si="10"/>
@@ -3894,17 +3895,17 @@
       </c>
       <c r="E161">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F161" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=31&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=31&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <f t="shared" si="14"/>
-        <v>42522</v>
+        <v>43983</v>
       </c>
       <c r="C162">
         <f t="shared" si="10"/>
@@ -3916,17 +3917,17 @@
       </c>
       <c r="E162">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F162" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=1&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <f t="shared" si="14"/>
-        <v>42523</v>
+        <v>43984</v>
       </c>
       <c r="C163">
         <f t="shared" si="10"/>
@@ -3938,17 +3939,17 @@
       </c>
       <c r="E163">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F163" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=2&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="1">
         <f t="shared" si="14"/>
-        <v>42524</v>
+        <v>43985</v>
       </c>
       <c r="C164">
         <f t="shared" si="10"/>
@@ -3960,17 +3961,17 @@
       </c>
       <c r="E164">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F164" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=3&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <f t="shared" si="14"/>
-        <v>42525</v>
+        <v>43986</v>
       </c>
       <c r="C165">
         <f t="shared" si="10"/>
@@ -3982,17 +3983,17 @@
       </c>
       <c r="E165">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F165" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=4&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <f t="shared" si="14"/>
-        <v>42526</v>
+        <v>43987</v>
       </c>
       <c r="C166">
         <f t="shared" si="10"/>
@@ -4004,17 +4005,17 @@
       </c>
       <c r="E166">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F166" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=5&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <f t="shared" si="14"/>
-        <v>42527</v>
+        <v>43988</v>
       </c>
       <c r="C167">
         <f t="shared" si="10"/>
@@ -4026,17 +4027,17 @@
       </c>
       <c r="E167">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F167" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=6&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <f t="shared" si="14"/>
-        <v>42528</v>
+        <v>43989</v>
       </c>
       <c r="C168">
         <f t="shared" si="10"/>
@@ -4048,17 +4049,17 @@
       </c>
       <c r="E168">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F168" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=7&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <f t="shared" si="14"/>
-        <v>42529</v>
+        <v>43990</v>
       </c>
       <c r="C169">
         <f t="shared" si="10"/>
@@ -4070,17 +4071,17 @@
       </c>
       <c r="E169">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F169" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=8&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <f t="shared" si="14"/>
-        <v>42530</v>
+        <v>43991</v>
       </c>
       <c r="C170">
         <f t="shared" si="10"/>
@@ -4092,17 +4093,17 @@
       </c>
       <c r="E170">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F170" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=9&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <f t="shared" si="14"/>
-        <v>42531</v>
+        <v>43992</v>
       </c>
       <c r="C171">
         <f t="shared" si="10"/>
@@ -4114,17 +4115,17 @@
       </c>
       <c r="E171">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F171" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=10&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <f t="shared" si="14"/>
-        <v>42532</v>
+        <v>43993</v>
       </c>
       <c r="C172">
         <f t="shared" si="10"/>
@@ -4136,17 +4137,17 @@
       </c>
       <c r="E172">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F172" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=11&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <f t="shared" si="14"/>
-        <v>42533</v>
+        <v>43994</v>
       </c>
       <c r="C173">
         <f t="shared" si="10"/>
@@ -4158,17 +4159,17 @@
       </c>
       <c r="E173">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F173" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=12&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <f t="shared" si="14"/>
-        <v>42534</v>
+        <v>43995</v>
       </c>
       <c r="C174">
         <f t="shared" si="10"/>
@@ -4180,17 +4181,17 @@
       </c>
       <c r="E174">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F174" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=13&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <f t="shared" si="14"/>
-        <v>42535</v>
+        <v>43996</v>
       </c>
       <c r="C175">
         <f t="shared" si="10"/>
@@ -4202,17 +4203,17 @@
       </c>
       <c r="E175">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F175" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=14&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <f t="shared" si="14"/>
-        <v>42536</v>
+        <v>43997</v>
       </c>
       <c r="C176">
         <f t="shared" si="10"/>
@@ -4224,17 +4225,17 @@
       </c>
       <c r="E176">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F176" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=15&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <f t="shared" si="14"/>
-        <v>42537</v>
+        <v>43998</v>
       </c>
       <c r="C177">
         <f t="shared" si="10"/>
@@ -4246,17 +4247,17 @@
       </c>
       <c r="E177">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F177" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=16&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <f t="shared" si="14"/>
-        <v>42538</v>
+        <v>43999</v>
       </c>
       <c r="C178">
         <f t="shared" si="10"/>
@@ -4268,17 +4269,17 @@
       </c>
       <c r="E178">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F178" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=17&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <f t="shared" si="14"/>
-        <v>42539</v>
+        <v>44000</v>
       </c>
       <c r="C179">
         <f t="shared" si="10"/>
@@ -4290,17 +4291,17 @@
       </c>
       <c r="E179">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F179" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=18&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <f t="shared" si="14"/>
-        <v>42540</v>
+        <v>44001</v>
       </c>
       <c r="C180">
         <f t="shared" si="10"/>
@@ -4312,17 +4313,17 @@
       </c>
       <c r="E180">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F180" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=19&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <f t="shared" si="14"/>
-        <v>42541</v>
+        <v>44002</v>
       </c>
       <c r="C181">
         <f t="shared" si="10"/>
@@ -4334,17 +4335,17 @@
       </c>
       <c r="E181">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F181" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=20&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <f t="shared" si="14"/>
-        <v>42542</v>
+        <v>44003</v>
       </c>
       <c r="C182">
         <f t="shared" si="10"/>
@@ -4356,17 +4357,17 @@
       </c>
       <c r="E182">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F182" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=21&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <f t="shared" si="14"/>
-        <v>42543</v>
+        <v>44004</v>
       </c>
       <c r="C183">
         <f t="shared" si="10"/>
@@ -4378,17 +4379,17 @@
       </c>
       <c r="E183">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F183" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=22&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <f t="shared" si="14"/>
-        <v>42544</v>
+        <v>44005</v>
       </c>
       <c r="C184">
         <f t="shared" si="10"/>
@@ -4400,17 +4401,17 @@
       </c>
       <c r="E184">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F184" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=23&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <f t="shared" si="14"/>
-        <v>42545</v>
+        <v>44006</v>
       </c>
       <c r="C185">
         <f t="shared" si="10"/>
@@ -4422,17 +4423,17 @@
       </c>
       <c r="E185">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F185" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=24&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <f t="shared" si="14"/>
-        <v>42546</v>
+        <v>44007</v>
       </c>
       <c r="C186">
         <f t="shared" si="10"/>
@@ -4444,17 +4445,17 @@
       </c>
       <c r="E186">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F186" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=25&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <f t="shared" si="14"/>
-        <v>42547</v>
+        <v>44008</v>
       </c>
       <c r="C187">
         <f t="shared" si="10"/>
@@ -4466,17 +4467,17 @@
       </c>
       <c r="E187">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F187" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=26&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <f t="shared" si="14"/>
-        <v>42548</v>
+        <v>44009</v>
       </c>
       <c r="C188">
         <f t="shared" si="10"/>
@@ -4488,17 +4489,17 @@
       </c>
       <c r="E188">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F188" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=27&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <f t="shared" si="14"/>
-        <v>42549</v>
+        <v>44010</v>
       </c>
       <c r="C189">
         <f t="shared" si="10"/>
@@ -4510,17 +4511,17 @@
       </c>
       <c r="E189">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F189" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=28&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <f t="shared" si="14"/>
-        <v>42550</v>
+        <v>44011</v>
       </c>
       <c r="C190">
         <f t="shared" si="10"/>
@@ -4532,17 +4533,17 @@
       </c>
       <c r="E190">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F190" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=29&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <f t="shared" si="14"/>
-        <v>42551</v>
+        <v>44012</v>
       </c>
       <c r="C191">
         <f t="shared" si="10"/>
@@ -4554,17 +4555,17 @@
       </c>
       <c r="E191">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F191" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=30&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <f t="shared" si="14"/>
-        <v>42552</v>
+        <v>44013</v>
       </c>
       <c r="C192">
         <f t="shared" si="10"/>
@@ -4576,17 +4577,17 @@
       </c>
       <c r="E192">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F192" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=1&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <f t="shared" si="14"/>
-        <v>42553</v>
+        <v>44014</v>
       </c>
       <c r="C193">
         <f t="shared" si="10"/>
@@ -4598,17 +4599,17 @@
       </c>
       <c r="E193">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F193" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=2&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <f t="shared" si="14"/>
-        <v>42554</v>
+        <v>44015</v>
       </c>
       <c r="C194">
         <f t="shared" si="10"/>
@@ -4620,17 +4621,17 @@
       </c>
       <c r="E194">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F194" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=3&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <f t="shared" si="14"/>
-        <v>42555</v>
+        <v>44016</v>
       </c>
       <c r="C195">
         <f t="shared" si="10"/>
@@ -4642,17 +4643,17 @@
       </c>
       <c r="E195">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F195" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=4&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <f t="shared" si="14"/>
-        <v>42556</v>
+        <v>44017</v>
       </c>
       <c r="C196">
         <f t="shared" si="10"/>
@@ -4664,17 +4665,17 @@
       </c>
       <c r="E196">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F196" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=5&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <f t="shared" si="14"/>
-        <v>42557</v>
+        <v>44018</v>
       </c>
       <c r="C197">
         <f t="shared" si="10"/>
@@ -4686,17 +4687,17 @@
       </c>
       <c r="E197">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F197" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=6&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <f t="shared" si="14"/>
-        <v>42558</v>
+        <v>44019</v>
       </c>
       <c r="C198">
         <f t="shared" si="10"/>
@@ -4708,17 +4709,17 @@
       </c>
       <c r="E198">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F198" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=7&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <f t="shared" si="14"/>
-        <v>42559</v>
+        <v>44020</v>
       </c>
       <c r="C199">
         <f t="shared" si="10"/>
@@ -4730,17 +4731,17 @@
       </c>
       <c r="E199">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F199" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=8&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <f t="shared" si="14"/>
-        <v>42560</v>
+        <v>44021</v>
       </c>
       <c r="C200">
         <f t="shared" si="10"/>
@@ -4752,17 +4753,17 @@
       </c>
       <c r="E200">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F200" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=9&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <f t="shared" si="14"/>
-        <v>42561</v>
+        <v>44022</v>
       </c>
       <c r="C201">
         <f t="shared" si="10"/>
@@ -4774,17 +4775,17 @@
       </c>
       <c r="E201">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F201" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=10&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <f t="shared" si="14"/>
-        <v>42562</v>
+        <v>44023</v>
       </c>
       <c r="C202">
         <f t="shared" si="10"/>
@@ -4796,17 +4797,17 @@
       </c>
       <c r="E202">
         <f t="shared" si="12"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F202" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=11&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <f t="shared" si="14"/>
-        <v>42563</v>
+        <v>44024</v>
       </c>
       <c r="C203">
         <f t="shared" ref="C203:C266" si="15">MONTH(B203)</f>
@@ -4818,17 +4819,17 @@
       </c>
       <c r="E203">
         <f t="shared" ref="E203:E266" si="17">YEAR(B203)</f>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F203" s="6" t="str">
         <f t="shared" ref="F203:F266" si="18">$I$3&amp;$I$4&amp;C203&amp;$I$5&amp;D203&amp;$I$6&amp;E203&amp;$I$7</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=12&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <f t="shared" ref="B204:B267" si="19">B203+1</f>
-        <v>42564</v>
+        <v>44025</v>
       </c>
       <c r="C204">
         <f t="shared" si="15"/>
@@ -4840,17 +4841,17 @@
       </c>
       <c r="E204">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F204" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=13&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <f t="shared" si="19"/>
-        <v>42565</v>
+        <v>44026</v>
       </c>
       <c r="C205">
         <f t="shared" si="15"/>
@@ -4862,17 +4863,17 @@
       </c>
       <c r="E205">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F205" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=14&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <f t="shared" si="19"/>
-        <v>42566</v>
+        <v>44027</v>
       </c>
       <c r="C206">
         <f t="shared" si="15"/>
@@ -4884,17 +4885,17 @@
       </c>
       <c r="E206">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F206" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=15&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <f t="shared" si="19"/>
-        <v>42567</v>
+        <v>44028</v>
       </c>
       <c r="C207">
         <f t="shared" si="15"/>
@@ -4906,17 +4907,17 @@
       </c>
       <c r="E207">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F207" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=16&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <f t="shared" si="19"/>
-        <v>42568</v>
+        <v>44029</v>
       </c>
       <c r="C208">
         <f t="shared" si="15"/>
@@ -4928,17 +4929,17 @@
       </c>
       <c r="E208">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F208" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=17&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <f t="shared" si="19"/>
-        <v>42569</v>
+        <v>44030</v>
       </c>
       <c r="C209">
         <f t="shared" si="15"/>
@@ -4950,17 +4951,17 @@
       </c>
       <c r="E209">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F209" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=18&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <f t="shared" si="19"/>
-        <v>42570</v>
+        <v>44031</v>
       </c>
       <c r="C210">
         <f t="shared" si="15"/>
@@ -4972,17 +4973,17 @@
       </c>
       <c r="E210">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F210" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=19&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <f t="shared" si="19"/>
-        <v>42571</v>
+        <v>44032</v>
       </c>
       <c r="C211">
         <f t="shared" si="15"/>
@@ -4994,17 +4995,17 @@
       </c>
       <c r="E211">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F211" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=20&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <f t="shared" si="19"/>
-        <v>42572</v>
+        <v>44033</v>
       </c>
       <c r="C212">
         <f t="shared" si="15"/>
@@ -5016,17 +5017,17 @@
       </c>
       <c r="E212">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F212" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=21&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <f t="shared" si="19"/>
-        <v>42573</v>
+        <v>44034</v>
       </c>
       <c r="C213">
         <f t="shared" si="15"/>
@@ -5038,17 +5039,17 @@
       </c>
       <c r="E213">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F213" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=22&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <f t="shared" si="19"/>
-        <v>42574</v>
+        <v>44035</v>
       </c>
       <c r="C214">
         <f t="shared" si="15"/>
@@ -5060,17 +5061,17 @@
       </c>
       <c r="E214">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F214" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=23&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <f t="shared" si="19"/>
-        <v>42575</v>
+        <v>44036</v>
       </c>
       <c r="C215">
         <f t="shared" si="15"/>
@@ -5082,17 +5083,17 @@
       </c>
       <c r="E215">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F215" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=24&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <f t="shared" si="19"/>
-        <v>42576</v>
+        <v>44037</v>
       </c>
       <c r="C216">
         <f t="shared" si="15"/>
@@ -5104,17 +5105,17 @@
       </c>
       <c r="E216">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F216" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=25&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <f t="shared" si="19"/>
-        <v>42577</v>
+        <v>44038</v>
       </c>
       <c r="C217">
         <f t="shared" si="15"/>
@@ -5126,17 +5127,17 @@
       </c>
       <c r="E217">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F217" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=26&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <f t="shared" si="19"/>
-        <v>42578</v>
+        <v>44039</v>
       </c>
       <c r="C218">
         <f t="shared" si="15"/>
@@ -5148,17 +5149,17 @@
       </c>
       <c r="E218">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F218" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=27&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <f t="shared" si="19"/>
-        <v>42579</v>
+        <v>44040</v>
       </c>
       <c r="C219">
         <f t="shared" si="15"/>
@@ -5170,17 +5171,17 @@
       </c>
       <c r="E219">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F219" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=28&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <f t="shared" si="19"/>
-        <v>42580</v>
+        <v>44041</v>
       </c>
       <c r="C220">
         <f t="shared" si="15"/>
@@ -5192,17 +5193,17 @@
       </c>
       <c r="E220">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F220" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=29&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <f t="shared" si="19"/>
-        <v>42581</v>
+        <v>44042</v>
       </c>
       <c r="C221">
         <f t="shared" si="15"/>
@@ -5214,17 +5215,17 @@
       </c>
       <c r="E221">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F221" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=30&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <f t="shared" si="19"/>
-        <v>42582</v>
+        <v>44043</v>
       </c>
       <c r="C222">
         <f t="shared" si="15"/>
@@ -5236,17 +5237,17 @@
       </c>
       <c r="E222">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F222" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=31&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=31&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <f t="shared" si="19"/>
-        <v>42583</v>
+        <v>44044</v>
       </c>
       <c r="C223">
         <f t="shared" si="15"/>
@@ -5258,17 +5259,17 @@
       </c>
       <c r="E223">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F223" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=1&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <f t="shared" si="19"/>
-        <v>42584</v>
+        <v>44045</v>
       </c>
       <c r="C224">
         <f t="shared" si="15"/>
@@ -5280,17 +5281,17 @@
       </c>
       <c r="E224">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F224" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=2&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <f t="shared" si="19"/>
-        <v>42585</v>
+        <v>44046</v>
       </c>
       <c r="C225">
         <f t="shared" si="15"/>
@@ -5302,17 +5303,17 @@
       </c>
       <c r="E225">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F225" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=3&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <f t="shared" si="19"/>
-        <v>42586</v>
+        <v>44047</v>
       </c>
       <c r="C226">
         <f t="shared" si="15"/>
@@ -5324,17 +5325,17 @@
       </c>
       <c r="E226">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F226" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=4&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <f t="shared" si="19"/>
-        <v>42587</v>
+        <v>44048</v>
       </c>
       <c r="C227">
         <f t="shared" si="15"/>
@@ -5346,17 +5347,17 @@
       </c>
       <c r="E227">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F227" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=5&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <f t="shared" si="19"/>
-        <v>42588</v>
+        <v>44049</v>
       </c>
       <c r="C228">
         <f t="shared" si="15"/>
@@ -5368,17 +5369,17 @@
       </c>
       <c r="E228">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F228" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=6&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <f t="shared" si="19"/>
-        <v>42589</v>
+        <v>44050</v>
       </c>
       <c r="C229">
         <f t="shared" si="15"/>
@@ -5390,17 +5391,17 @@
       </c>
       <c r="E229">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F229" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=7&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <f t="shared" si="19"/>
-        <v>42590</v>
+        <v>44051</v>
       </c>
       <c r="C230">
         <f t="shared" si="15"/>
@@ -5412,17 +5413,17 @@
       </c>
       <c r="E230">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F230" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=8&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <f t="shared" si="19"/>
-        <v>42591</v>
+        <v>44052</v>
       </c>
       <c r="C231">
         <f t="shared" si="15"/>
@@ -5434,17 +5435,17 @@
       </c>
       <c r="E231">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F231" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=9&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <f t="shared" si="19"/>
-        <v>42592</v>
+        <v>44053</v>
       </c>
       <c r="C232">
         <f t="shared" si="15"/>
@@ -5456,17 +5457,17 @@
       </c>
       <c r="E232">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F232" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=10&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <f t="shared" si="19"/>
-        <v>42593</v>
+        <v>44054</v>
       </c>
       <c r="C233">
         <f t="shared" si="15"/>
@@ -5478,17 +5479,17 @@
       </c>
       <c r="E233">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F233" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=11&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <f t="shared" si="19"/>
-        <v>42594</v>
+        <v>44055</v>
       </c>
       <c r="C234">
         <f t="shared" si="15"/>
@@ -5500,17 +5501,17 @@
       </c>
       <c r="E234">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F234" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=12&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <f t="shared" si="19"/>
-        <v>42595</v>
+        <v>44056</v>
       </c>
       <c r="C235">
         <f t="shared" si="15"/>
@@ -5522,17 +5523,17 @@
       </c>
       <c r="E235">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F235" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=13&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <f t="shared" si="19"/>
-        <v>42596</v>
+        <v>44057</v>
       </c>
       <c r="C236">
         <f t="shared" si="15"/>
@@ -5544,17 +5545,17 @@
       </c>
       <c r="E236">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F236" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=14&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <f t="shared" si="19"/>
-        <v>42597</v>
+        <v>44058</v>
       </c>
       <c r="C237">
         <f t="shared" si="15"/>
@@ -5566,17 +5567,17 @@
       </c>
       <c r="E237">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F237" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=15&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <f t="shared" si="19"/>
-        <v>42598</v>
+        <v>44059</v>
       </c>
       <c r="C238">
         <f t="shared" si="15"/>
@@ -5588,17 +5589,17 @@
       </c>
       <c r="E238">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F238" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=16&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <f t="shared" si="19"/>
-        <v>42599</v>
+        <v>44060</v>
       </c>
       <c r="C239">
         <f t="shared" si="15"/>
@@ -5610,17 +5611,17 @@
       </c>
       <c r="E239">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F239" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=17&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <f t="shared" si="19"/>
-        <v>42600</v>
+        <v>44061</v>
       </c>
       <c r="C240">
         <f t="shared" si="15"/>
@@ -5632,17 +5633,17 @@
       </c>
       <c r="E240">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F240" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=18&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <f t="shared" si="19"/>
-        <v>42601</v>
+        <v>44062</v>
       </c>
       <c r="C241">
         <f t="shared" si="15"/>
@@ -5654,17 +5655,17 @@
       </c>
       <c r="E241">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F241" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=19&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <f t="shared" si="19"/>
-        <v>42602</v>
+        <v>44063</v>
       </c>
       <c r="C242">
         <f t="shared" si="15"/>
@@ -5676,17 +5677,17 @@
       </c>
       <c r="E242">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F242" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=20&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <f t="shared" si="19"/>
-        <v>42603</v>
+        <v>44064</v>
       </c>
       <c r="C243">
         <f t="shared" si="15"/>
@@ -5698,17 +5699,17 @@
       </c>
       <c r="E243">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F243" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=21&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <f t="shared" si="19"/>
-        <v>42604</v>
+        <v>44065</v>
       </c>
       <c r="C244">
         <f t="shared" si="15"/>
@@ -5720,17 +5721,17 @@
       </c>
       <c r="E244">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F244" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=22&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <f t="shared" si="19"/>
-        <v>42605</v>
+        <v>44066</v>
       </c>
       <c r="C245">
         <f t="shared" si="15"/>
@@ -5742,17 +5743,17 @@
       </c>
       <c r="E245">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F245" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=23&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <f t="shared" si="19"/>
-        <v>42606</v>
+        <v>44067</v>
       </c>
       <c r="C246">
         <f t="shared" si="15"/>
@@ -5764,17 +5765,17 @@
       </c>
       <c r="E246">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F246" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=24&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <f t="shared" si="19"/>
-        <v>42607</v>
+        <v>44068</v>
       </c>
       <c r="C247">
         <f t="shared" si="15"/>
@@ -5786,17 +5787,17 @@
       </c>
       <c r="E247">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F247" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=25&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <f t="shared" si="19"/>
-        <v>42608</v>
+        <v>44069</v>
       </c>
       <c r="C248">
         <f t="shared" si="15"/>
@@ -5808,17 +5809,17 @@
       </c>
       <c r="E248">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F248" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=26&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <f t="shared" si="19"/>
-        <v>42609</v>
+        <v>44070</v>
       </c>
       <c r="C249">
         <f t="shared" si="15"/>
@@ -5830,17 +5831,17 @@
       </c>
       <c r="E249">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F249" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=27&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <f t="shared" si="19"/>
-        <v>42610</v>
+        <v>44071</v>
       </c>
       <c r="C250">
         <f t="shared" si="15"/>
@@ -5852,17 +5853,17 @@
       </c>
       <c r="E250">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F250" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=28&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <f t="shared" si="19"/>
-        <v>42611</v>
+        <v>44072</v>
       </c>
       <c r="C251">
         <f t="shared" si="15"/>
@@ -5874,17 +5875,17 @@
       </c>
       <c r="E251">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F251" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=29&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <f t="shared" si="19"/>
-        <v>42612</v>
+        <v>44073</v>
       </c>
       <c r="C252">
         <f t="shared" si="15"/>
@@ -5896,17 +5897,17 @@
       </c>
       <c r="E252">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F252" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=30&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <f t="shared" si="19"/>
-        <v>42613</v>
+        <v>44074</v>
       </c>
       <c r="C253">
         <f t="shared" si="15"/>
@@ -5918,17 +5919,17 @@
       </c>
       <c r="E253">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F253" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=31&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=31&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <f t="shared" si="19"/>
-        <v>42614</v>
+        <v>44075</v>
       </c>
       <c r="C254">
         <f t="shared" si="15"/>
@@ -5940,17 +5941,17 @@
       </c>
       <c r="E254">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F254" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=1&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <f t="shared" si="19"/>
-        <v>42615</v>
+        <v>44076</v>
       </c>
       <c r="C255">
         <f t="shared" si="15"/>
@@ -5962,17 +5963,17 @@
       </c>
       <c r="E255">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F255" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=2&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <f t="shared" si="19"/>
-        <v>42616</v>
+        <v>44077</v>
       </c>
       <c r="C256">
         <f t="shared" si="15"/>
@@ -5984,17 +5985,17 @@
       </c>
       <c r="E256">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F256" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=3&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B257" s="1">
         <f t="shared" si="19"/>
-        <v>42617</v>
+        <v>44078</v>
       </c>
       <c r="C257">
         <f t="shared" si="15"/>
@@ -6006,17 +6007,17 @@
       </c>
       <c r="E257">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F257" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=4&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B258" s="1">
         <f t="shared" si="19"/>
-        <v>42618</v>
+        <v>44079</v>
       </c>
       <c r="C258">
         <f t="shared" si="15"/>
@@ -6028,17 +6029,17 @@
       </c>
       <c r="E258">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F258" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=5&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B259" s="1">
         <f t="shared" si="19"/>
-        <v>42619</v>
+        <v>44080</v>
       </c>
       <c r="C259">
         <f t="shared" si="15"/>
@@ -6050,17 +6051,17 @@
       </c>
       <c r="E259">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F259" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=6&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B260" s="1">
         <f t="shared" si="19"/>
-        <v>42620</v>
+        <v>44081</v>
       </c>
       <c r="C260">
         <f t="shared" si="15"/>
@@ -6072,17 +6073,17 @@
       </c>
       <c r="E260">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F260" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=7&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B261" s="1">
         <f t="shared" si="19"/>
-        <v>42621</v>
+        <v>44082</v>
       </c>
       <c r="C261">
         <f t="shared" si="15"/>
@@ -6094,17 +6095,17 @@
       </c>
       <c r="E261">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F261" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=8&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B262" s="1">
         <f t="shared" si="19"/>
-        <v>42622</v>
+        <v>44083</v>
       </c>
       <c r="C262">
         <f t="shared" si="15"/>
@@ -6116,17 +6117,17 @@
       </c>
       <c r="E262">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F262" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=9&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B263" s="1">
         <f t="shared" si="19"/>
-        <v>42623</v>
+        <v>44084</v>
       </c>
       <c r="C263">
         <f t="shared" si="15"/>
@@ -6138,17 +6139,17 @@
       </c>
       <c r="E263">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F263" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=10&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B264" s="1">
         <f t="shared" si="19"/>
-        <v>42624</v>
+        <v>44085</v>
       </c>
       <c r="C264">
         <f t="shared" si="15"/>
@@ -6160,17 +6161,17 @@
       </c>
       <c r="E264">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F264" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=11&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B265" s="1">
         <f t="shared" si="19"/>
-        <v>42625</v>
+        <v>44086</v>
       </c>
       <c r="C265">
         <f t="shared" si="15"/>
@@ -6182,17 +6183,17 @@
       </c>
       <c r="E265">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F265" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=12&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B266" s="1">
         <f t="shared" si="19"/>
-        <v>42626</v>
+        <v>44087</v>
       </c>
       <c r="C266">
         <f t="shared" si="15"/>
@@ -6204,17 +6205,17 @@
       </c>
       <c r="E266">
         <f t="shared" si="17"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F266" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=13&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="267" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B267" s="1">
         <f t="shared" si="19"/>
-        <v>42627</v>
+        <v>44088</v>
       </c>
       <c r="C267">
         <f t="shared" ref="C267:C330" si="20">MONTH(B267)</f>
@@ -6226,17 +6227,17 @@
       </c>
       <c r="E267">
         <f t="shared" ref="E267:E330" si="22">YEAR(B267)</f>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F267" s="6" t="str">
         <f t="shared" ref="F267:F330" si="23">$I$3&amp;$I$4&amp;C267&amp;$I$5&amp;D267&amp;$I$6&amp;E267&amp;$I$7</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=14&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="268" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B268" s="1">
         <f t="shared" ref="B268:B331" si="24">B267+1</f>
-        <v>42628</v>
+        <v>44089</v>
       </c>
       <c r="C268">
         <f t="shared" si="20"/>
@@ -6248,17 +6249,17 @@
       </c>
       <c r="E268">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F268" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=15&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="269" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B269" s="1">
         <f t="shared" si="24"/>
-        <v>42629</v>
+        <v>44090</v>
       </c>
       <c r="C269">
         <f t="shared" si="20"/>
@@ -6270,17 +6271,17 @@
       </c>
       <c r="E269">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F269" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=16&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="270" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B270" s="1">
         <f t="shared" si="24"/>
-        <v>42630</v>
+        <v>44091</v>
       </c>
       <c r="C270">
         <f t="shared" si="20"/>
@@ -6292,17 +6293,17 @@
       </c>
       <c r="E270">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F270" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=17&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="271" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B271" s="1">
         <f t="shared" si="24"/>
-        <v>42631</v>
+        <v>44092</v>
       </c>
       <c r="C271">
         <f t="shared" si="20"/>
@@ -6314,17 +6315,17 @@
       </c>
       <c r="E271">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F271" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=18&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B272" s="1">
         <f t="shared" si="24"/>
-        <v>42632</v>
+        <v>44093</v>
       </c>
       <c r="C272">
         <f t="shared" si="20"/>
@@ -6336,17 +6337,17 @@
       </c>
       <c r="E272">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F272" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=19&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B273" s="1">
         <f t="shared" si="24"/>
-        <v>42633</v>
+        <v>44094</v>
       </c>
       <c r="C273">
         <f t="shared" si="20"/>
@@ -6358,17 +6359,17 @@
       </c>
       <c r="E273">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F273" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=20&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B274" s="1">
         <f t="shared" si="24"/>
-        <v>42634</v>
+        <v>44095</v>
       </c>
       <c r="C274">
         <f t="shared" si="20"/>
@@ -6380,17 +6381,17 @@
       </c>
       <c r="E274">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F274" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=21&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B275" s="1">
         <f t="shared" si="24"/>
-        <v>42635</v>
+        <v>44096</v>
       </c>
       <c r="C275">
         <f t="shared" si="20"/>
@@ -6402,17 +6403,17 @@
       </c>
       <c r="E275">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F275" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=22&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B276" s="1">
         <f t="shared" si="24"/>
-        <v>42636</v>
+        <v>44097</v>
       </c>
       <c r="C276">
         <f t="shared" si="20"/>
@@ -6424,17 +6425,17 @@
       </c>
       <c r="E276">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F276" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=23&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B277" s="1">
         <f t="shared" si="24"/>
-        <v>42637</v>
+        <v>44098</v>
       </c>
       <c r="C277">
         <f t="shared" si="20"/>
@@ -6446,17 +6447,17 @@
       </c>
       <c r="E277">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F277" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=24&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="278" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B278" s="1">
         <f t="shared" si="24"/>
-        <v>42638</v>
+        <v>44099</v>
       </c>
       <c r="C278">
         <f t="shared" si="20"/>
@@ -6468,17 +6469,17 @@
       </c>
       <c r="E278">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F278" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=25&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="279" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B279" s="1">
         <f t="shared" si="24"/>
-        <v>42639</v>
+        <v>44100</v>
       </c>
       <c r="C279">
         <f t="shared" si="20"/>
@@ -6490,17 +6491,17 @@
       </c>
       <c r="E279">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F279" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=26&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="280" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B280" s="1">
         <f t="shared" si="24"/>
-        <v>42640</v>
+        <v>44101</v>
       </c>
       <c r="C280">
         <f t="shared" si="20"/>
@@ -6512,17 +6513,17 @@
       </c>
       <c r="E280">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F280" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=27&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B281" s="1">
         <f t="shared" si="24"/>
-        <v>42641</v>
+        <v>44102</v>
       </c>
       <c r="C281">
         <f t="shared" si="20"/>
@@ -6534,17 +6535,17 @@
       </c>
       <c r="E281">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F281" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=28&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B282" s="1">
         <f t="shared" si="24"/>
-        <v>42642</v>
+        <v>44103</v>
       </c>
       <c r="C282">
         <f t="shared" si="20"/>
@@ -6556,17 +6557,17 @@
       </c>
       <c r="E282">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F282" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=29&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B283" s="1">
         <f t="shared" si="24"/>
-        <v>42643</v>
+        <v>44104</v>
       </c>
       <c r="C283">
         <f t="shared" si="20"/>
@@ -6578,17 +6579,17 @@
       </c>
       <c r="E283">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F283" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=30&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B284" s="1">
         <f t="shared" si="24"/>
-        <v>42644</v>
+        <v>44105</v>
       </c>
       <c r="C284">
         <f t="shared" si="20"/>
@@ -6600,17 +6601,17 @@
       </c>
       <c r="E284">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F284" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=1&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B285" s="1">
         <f t="shared" si="24"/>
-        <v>42645</v>
+        <v>44106</v>
       </c>
       <c r="C285">
         <f t="shared" si="20"/>
@@ -6622,17 +6623,17 @@
       </c>
       <c r="E285">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F285" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=2&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B286" s="1">
         <f t="shared" si="24"/>
-        <v>42646</v>
+        <v>44107</v>
       </c>
       <c r="C286">
         <f t="shared" si="20"/>
@@ -6644,17 +6645,17 @@
       </c>
       <c r="E286">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F286" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=3&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B287" s="1">
         <f t="shared" si="24"/>
-        <v>42647</v>
+        <v>44108</v>
       </c>
       <c r="C287">
         <f t="shared" si="20"/>
@@ -6666,17 +6667,17 @@
       </c>
       <c r="E287">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F287" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=4&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="288" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B288" s="1">
         <f t="shared" si="24"/>
-        <v>42648</v>
+        <v>44109</v>
       </c>
       <c r="C288">
         <f t="shared" si="20"/>
@@ -6688,17 +6689,17 @@
       </c>
       <c r="E288">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F288" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=5&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B289" s="1">
         <f t="shared" si="24"/>
-        <v>42649</v>
+        <v>44110</v>
       </c>
       <c r="C289">
         <f t="shared" si="20"/>
@@ -6710,17 +6711,17 @@
       </c>
       <c r="E289">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F289" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=6&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="290" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B290" s="1">
         <f t="shared" si="24"/>
-        <v>42650</v>
+        <v>44111</v>
       </c>
       <c r="C290">
         <f t="shared" si="20"/>
@@ -6732,17 +6733,17 @@
       </c>
       <c r="E290">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F290" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=7&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="291" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B291" s="1">
         <f t="shared" si="24"/>
-        <v>42651</v>
+        <v>44112</v>
       </c>
       <c r="C291">
         <f t="shared" si="20"/>
@@ -6754,17 +6755,17 @@
       </c>
       <c r="E291">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F291" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=8&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B292" s="1">
         <f t="shared" si="24"/>
-        <v>42652</v>
+        <v>44113</v>
       </c>
       <c r="C292">
         <f t="shared" si="20"/>
@@ -6776,17 +6777,17 @@
       </c>
       <c r="E292">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F292" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=9&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B293" s="1">
         <f t="shared" si="24"/>
-        <v>42653</v>
+        <v>44114</v>
       </c>
       <c r="C293">
         <f t="shared" si="20"/>
@@ -6798,17 +6799,17 @@
       </c>
       <c r="E293">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F293" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=10&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B294" s="1">
         <f t="shared" si="24"/>
-        <v>42654</v>
+        <v>44115</v>
       </c>
       <c r="C294">
         <f t="shared" si="20"/>
@@ -6820,17 +6821,17 @@
       </c>
       <c r="E294">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F294" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=11&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B295" s="1">
         <f t="shared" si="24"/>
-        <v>42655</v>
+        <v>44116</v>
       </c>
       <c r="C295">
         <f t="shared" si="20"/>
@@ -6842,17 +6843,17 @@
       </c>
       <c r="E295">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F295" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=12&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B296" s="1">
         <f t="shared" si="24"/>
-        <v>42656</v>
+        <v>44117</v>
       </c>
       <c r="C296">
         <f t="shared" si="20"/>
@@ -6864,17 +6865,17 @@
       </c>
       <c r="E296">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F296" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=13&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B297" s="1">
         <f t="shared" si="24"/>
-        <v>42657</v>
+        <v>44118</v>
       </c>
       <c r="C297">
         <f t="shared" si="20"/>
@@ -6886,17 +6887,17 @@
       </c>
       <c r="E297">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F297" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=14&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="298" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B298" s="1">
         <f t="shared" si="24"/>
-        <v>42658</v>
+        <v>44119</v>
       </c>
       <c r="C298">
         <f t="shared" si="20"/>
@@ -6908,17 +6909,17 @@
       </c>
       <c r="E298">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F298" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=15&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B299" s="1">
         <f t="shared" si="24"/>
-        <v>42659</v>
+        <v>44120</v>
       </c>
       <c r="C299">
         <f t="shared" si="20"/>
@@ -6930,17 +6931,17 @@
       </c>
       <c r="E299">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F299" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=16&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B300" s="1">
         <f t="shared" si="24"/>
-        <v>42660</v>
+        <v>44121</v>
       </c>
       <c r="C300">
         <f t="shared" si="20"/>
@@ -6952,17 +6953,17 @@
       </c>
       <c r="E300">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F300" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=17&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B301" s="1">
         <f t="shared" si="24"/>
-        <v>42661</v>
+        <v>44122</v>
       </c>
       <c r="C301">
         <f t="shared" si="20"/>
@@ -6974,17 +6975,17 @@
       </c>
       <c r="E301">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F301" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=18&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="302" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B302" s="1">
         <f t="shared" si="24"/>
-        <v>42662</v>
+        <v>44123</v>
       </c>
       <c r="C302">
         <f t="shared" si="20"/>
@@ -6996,17 +6997,17 @@
       </c>
       <c r="E302">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F302" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=19&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B303" s="1">
         <f t="shared" si="24"/>
-        <v>42663</v>
+        <v>44124</v>
       </c>
       <c r="C303">
         <f t="shared" si="20"/>
@@ -7018,17 +7019,17 @@
       </c>
       <c r="E303">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F303" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=20&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B304" s="1">
         <f t="shared" si="24"/>
-        <v>42664</v>
+        <v>44125</v>
       </c>
       <c r="C304">
         <f t="shared" si="20"/>
@@ -7040,17 +7041,17 @@
       </c>
       <c r="E304">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F304" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=21&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B305" s="1">
         <f t="shared" si="24"/>
-        <v>42665</v>
+        <v>44126</v>
       </c>
       <c r="C305">
         <f t="shared" si="20"/>
@@ -7062,17 +7063,17 @@
       </c>
       <c r="E305">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F305" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=22&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="306" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B306" s="1">
         <f t="shared" si="24"/>
-        <v>42666</v>
+        <v>44127</v>
       </c>
       <c r="C306">
         <f t="shared" si="20"/>
@@ -7084,17 +7085,17 @@
       </c>
       <c r="E306">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F306" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=23&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="307" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B307" s="1">
         <f t="shared" si="24"/>
-        <v>42667</v>
+        <v>44128</v>
       </c>
       <c r="C307">
         <f t="shared" si="20"/>
@@ -7106,17 +7107,17 @@
       </c>
       <c r="E307">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F307" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=24&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B308" s="1">
         <f t="shared" si="24"/>
-        <v>42668</v>
+        <v>44129</v>
       </c>
       <c r="C308">
         <f t="shared" si="20"/>
@@ -7128,17 +7129,17 @@
       </c>
       <c r="E308">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F308" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=25&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="309" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B309" s="1">
         <f t="shared" si="24"/>
-        <v>42669</v>
+        <v>44130</v>
       </c>
       <c r="C309">
         <f t="shared" si="20"/>
@@ -7150,17 +7151,17 @@
       </c>
       <c r="E309">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F309" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=26&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B310" s="1">
         <f t="shared" si="24"/>
-        <v>42670</v>
+        <v>44131</v>
       </c>
       <c r="C310">
         <f t="shared" si="20"/>
@@ -7172,17 +7173,17 @@
       </c>
       <c r="E310">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F310" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=27&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="311" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B311" s="1">
         <f t="shared" si="24"/>
-        <v>42671</v>
+        <v>44132</v>
       </c>
       <c r="C311">
         <f t="shared" si="20"/>
@@ -7194,17 +7195,17 @@
       </c>
       <c r="E311">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F311" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=28&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="312" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B312" s="1">
         <f t="shared" si="24"/>
-        <v>42672</v>
+        <v>44133</v>
       </c>
       <c r="C312">
         <f t="shared" si="20"/>
@@ -7216,17 +7217,17 @@
       </c>
       <c r="E312">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F312" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=29&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="313" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B313" s="1">
         <f t="shared" si="24"/>
-        <v>42673</v>
+        <v>44134</v>
       </c>
       <c r="C313">
         <f t="shared" si="20"/>
@@ -7238,17 +7239,17 @@
       </c>
       <c r="E313">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F313" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=30&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="314" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B314" s="1">
         <f t="shared" si="24"/>
-        <v>42674</v>
+        <v>44135</v>
       </c>
       <c r="C314">
         <f t="shared" si="20"/>
@@ -7260,17 +7261,17 @@
       </c>
       <c r="E314">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F314" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=31&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=31&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="315" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B315" s="1">
         <f t="shared" si="24"/>
-        <v>42675</v>
+        <v>44136</v>
       </c>
       <c r="C315">
         <f t="shared" si="20"/>
@@ -7282,17 +7283,17 @@
       </c>
       <c r="E315">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F315" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=1&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="316" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B316" s="1">
         <f t="shared" si="24"/>
-        <v>42676</v>
+        <v>44137</v>
       </c>
       <c r="C316">
         <f t="shared" si="20"/>
@@ -7304,17 +7305,17 @@
       </c>
       <c r="E316">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F316" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=2&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B317" s="1">
         <f t="shared" si="24"/>
-        <v>42677</v>
+        <v>44138</v>
       </c>
       <c r="C317">
         <f t="shared" si="20"/>
@@ -7326,17 +7327,17 @@
       </c>
       <c r="E317">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F317" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=3&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="318" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B318" s="1">
         <f t="shared" si="24"/>
-        <v>42678</v>
+        <v>44139</v>
       </c>
       <c r="C318">
         <f t="shared" si="20"/>
@@ -7348,17 +7349,17 @@
       </c>
       <c r="E318">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F318" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=4&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="319" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B319" s="1">
         <f t="shared" si="24"/>
-        <v>42679</v>
+        <v>44140</v>
       </c>
       <c r="C319">
         <f t="shared" si="20"/>
@@ -7370,17 +7371,17 @@
       </c>
       <c r="E319">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F319" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=5&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="320" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B320" s="1">
         <f t="shared" si="24"/>
-        <v>42680</v>
+        <v>44141</v>
       </c>
       <c r="C320">
         <f t="shared" si="20"/>
@@ -7392,17 +7393,17 @@
       </c>
       <c r="E320">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F320" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=6&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="321" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B321" s="1">
         <f t="shared" si="24"/>
-        <v>42681</v>
+        <v>44142</v>
       </c>
       <c r="C321">
         <f t="shared" si="20"/>
@@ -7414,17 +7415,17 @@
       </c>
       <c r="E321">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F321" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=7&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="322" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B322" s="1">
         <f t="shared" si="24"/>
-        <v>42682</v>
+        <v>44143</v>
       </c>
       <c r="C322">
         <f t="shared" si="20"/>
@@ -7436,17 +7437,17 @@
       </c>
       <c r="E322">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F322" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=8&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="323" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B323" s="1">
         <f t="shared" si="24"/>
-        <v>42683</v>
+        <v>44144</v>
       </c>
       <c r="C323">
         <f t="shared" si="20"/>
@@ -7458,17 +7459,17 @@
       </c>
       <c r="E323">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F323" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=9&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="324" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B324" s="1">
         <f t="shared" si="24"/>
-        <v>42684</v>
+        <v>44145</v>
       </c>
       <c r="C324">
         <f t="shared" si="20"/>
@@ -7480,17 +7481,17 @@
       </c>
       <c r="E324">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F324" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=10&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="325" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B325" s="1">
         <f t="shared" si="24"/>
-        <v>42685</v>
+        <v>44146</v>
       </c>
       <c r="C325">
         <f t="shared" si="20"/>
@@ -7502,17 +7503,17 @@
       </c>
       <c r="E325">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F325" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=11&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="326" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B326" s="1">
         <f t="shared" si="24"/>
-        <v>42686</v>
+        <v>44147</v>
       </c>
       <c r="C326">
         <f t="shared" si="20"/>
@@ -7524,17 +7525,17 @@
       </c>
       <c r="E326">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F326" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=12&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="327" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B327" s="1">
         <f t="shared" si="24"/>
-        <v>42687</v>
+        <v>44148</v>
       </c>
       <c r="C327">
         <f t="shared" si="20"/>
@@ -7546,17 +7547,17 @@
       </c>
       <c r="E327">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F327" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=13&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="328" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B328" s="1">
         <f t="shared" si="24"/>
-        <v>42688</v>
+        <v>44149</v>
       </c>
       <c r="C328">
         <f t="shared" si="20"/>
@@ -7568,17 +7569,17 @@
       </c>
       <c r="E328">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F328" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=14&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="329" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B329" s="1">
         <f t="shared" si="24"/>
-        <v>42689</v>
+        <v>44150</v>
       </c>
       <c r="C329">
         <f t="shared" si="20"/>
@@ -7590,17 +7591,17 @@
       </c>
       <c r="E329">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F329" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=15&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="330" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B330" s="1">
         <f t="shared" si="24"/>
-        <v>42690</v>
+        <v>44151</v>
       </c>
       <c r="C330">
         <f t="shared" si="20"/>
@@ -7612,17 +7613,17 @@
       </c>
       <c r="E330">
         <f t="shared" si="22"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F330" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=16&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="331" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B331" s="1">
         <f t="shared" si="24"/>
-        <v>42691</v>
+        <v>44152</v>
       </c>
       <c r="C331">
         <f t="shared" ref="C331:C374" si="25">MONTH(B331)</f>
@@ -7634,17 +7635,17 @@
       </c>
       <c r="E331">
         <f t="shared" ref="E331:E374" si="27">YEAR(B331)</f>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F331" s="6" t="str">
         <f t="shared" ref="F331:F374" si="28">$I$3&amp;$I$4&amp;C331&amp;$I$5&amp;D331&amp;$I$6&amp;E331&amp;$I$7</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=17&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="332" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B332" s="1">
         <f t="shared" ref="B332:B374" si="29">B331+1</f>
-        <v>42692</v>
+        <v>44153</v>
       </c>
       <c r="C332">
         <f t="shared" si="25"/>
@@ -7656,17 +7657,17 @@
       </c>
       <c r="E332">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F332" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=18&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="333" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B333" s="1">
         <f t="shared" si="29"/>
-        <v>42693</v>
+        <v>44154</v>
       </c>
       <c r="C333">
         <f t="shared" si="25"/>
@@ -7678,17 +7679,17 @@
       </c>
       <c r="E333">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F333" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=19&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="334" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B334" s="1">
         <f t="shared" si="29"/>
-        <v>42694</v>
+        <v>44155</v>
       </c>
       <c r="C334">
         <f t="shared" si="25"/>
@@ -7700,17 +7701,17 @@
       </c>
       <c r="E334">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F334" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=20&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="335" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B335" s="1">
         <f t="shared" si="29"/>
-        <v>42695</v>
+        <v>44156</v>
       </c>
       <c r="C335">
         <f t="shared" si="25"/>
@@ -7722,17 +7723,17 @@
       </c>
       <c r="E335">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F335" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=21&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="336" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B336" s="1">
         <f t="shared" si="29"/>
-        <v>42696</v>
+        <v>44157</v>
       </c>
       <c r="C336">
         <f t="shared" si="25"/>
@@ -7744,17 +7745,17 @@
       </c>
       <c r="E336">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F336" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=22&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B337" s="1">
         <f t="shared" si="29"/>
-        <v>42697</v>
+        <v>44158</v>
       </c>
       <c r="C337">
         <f t="shared" si="25"/>
@@ -7766,17 +7767,17 @@
       </c>
       <c r="E337">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F337" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=23&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="338" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B338" s="1">
         <f t="shared" si="29"/>
-        <v>42698</v>
+        <v>44159</v>
       </c>
       <c r="C338">
         <f t="shared" si="25"/>
@@ -7788,17 +7789,17 @@
       </c>
       <c r="E338">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F338" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=24&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B339" s="1">
         <f t="shared" si="29"/>
-        <v>42699</v>
+        <v>44160</v>
       </c>
       <c r="C339">
         <f t="shared" si="25"/>
@@ -7810,17 +7811,17 @@
       </c>
       <c r="E339">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F339" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=25&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B340" s="1">
         <f t="shared" si="29"/>
-        <v>42700</v>
+        <v>44161</v>
       </c>
       <c r="C340">
         <f t="shared" si="25"/>
@@ -7832,17 +7833,17 @@
       </c>
       <c r="E340">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F340" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=26&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="341" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B341" s="1">
         <f t="shared" si="29"/>
-        <v>42701</v>
+        <v>44162</v>
       </c>
       <c r="C341">
         <f t="shared" si="25"/>
@@ -7854,17 +7855,17 @@
       </c>
       <c r="E341">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F341" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=27&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="342" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B342" s="1">
         <f t="shared" si="29"/>
-        <v>42702</v>
+        <v>44163</v>
       </c>
       <c r="C342">
         <f t="shared" si="25"/>
@@ -7876,17 +7877,17 @@
       </c>
       <c r="E342">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F342" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=28&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="343" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B343" s="1">
         <f t="shared" si="29"/>
-        <v>42703</v>
+        <v>44164</v>
       </c>
       <c r="C343">
         <f t="shared" si="25"/>
@@ -7898,17 +7899,17 @@
       </c>
       <c r="E343">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F343" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=29&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="344" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B344" s="1">
         <f t="shared" si="29"/>
-        <v>42704</v>
+        <v>44165</v>
       </c>
       <c r="C344">
         <f t="shared" si="25"/>
@@ -7920,17 +7921,17 @@
       </c>
       <c r="E344">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F344" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=30&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B345" s="1">
         <f t="shared" si="29"/>
-        <v>42705</v>
+        <v>44166</v>
       </c>
       <c r="C345">
         <f t="shared" si="25"/>
@@ -7942,17 +7943,17 @@
       </c>
       <c r="E345">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F345" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=1&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B346" s="1">
         <f t="shared" si="29"/>
-        <v>42706</v>
+        <v>44167</v>
       </c>
       <c r="C346">
         <f t="shared" si="25"/>
@@ -7964,17 +7965,17 @@
       </c>
       <c r="E346">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F346" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=2&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B347" s="1">
         <f t="shared" si="29"/>
-        <v>42707</v>
+        <v>44168</v>
       </c>
       <c r="C347">
         <f t="shared" si="25"/>
@@ -7986,17 +7987,17 @@
       </c>
       <c r="E347">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F347" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=3&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B348" s="1">
         <f t="shared" si="29"/>
-        <v>42708</v>
+        <v>44169</v>
       </c>
       <c r="C348">
         <f t="shared" si="25"/>
@@ -8008,17 +8009,17 @@
       </c>
       <c r="E348">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F348" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=4&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B349" s="1">
         <f t="shared" si="29"/>
-        <v>42709</v>
+        <v>44170</v>
       </c>
       <c r="C349">
         <f t="shared" si="25"/>
@@ -8030,17 +8031,17 @@
       </c>
       <c r="E349">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F349" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=5&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="350" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B350" s="1">
         <f t="shared" si="29"/>
-        <v>42710</v>
+        <v>44171</v>
       </c>
       <c r="C350">
         <f t="shared" si="25"/>
@@ -8052,17 +8053,17 @@
       </c>
       <c r="E350">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F350" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=6&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="351" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B351" s="1">
         <f t="shared" si="29"/>
-        <v>42711</v>
+        <v>44172</v>
       </c>
       <c r="C351">
         <f t="shared" si="25"/>
@@ -8074,17 +8075,17 @@
       </c>
       <c r="E351">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F351" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=7&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B352" s="1">
         <f t="shared" si="29"/>
-        <v>42712</v>
+        <v>44173</v>
       </c>
       <c r="C352">
         <f t="shared" si="25"/>
@@ -8096,17 +8097,17 @@
       </c>
       <c r="E352">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F352" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=8&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="353" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B353" s="1">
         <f t="shared" si="29"/>
-        <v>42713</v>
+        <v>44174</v>
       </c>
       <c r="C353">
         <f t="shared" si="25"/>
@@ -8118,17 +8119,17 @@
       </c>
       <c r="E353">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F353" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=9&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B354" s="1">
         <f t="shared" si="29"/>
-        <v>42714</v>
+        <v>44175</v>
       </c>
       <c r="C354">
         <f t="shared" si="25"/>
@@ -8140,17 +8141,17 @@
       </c>
       <c r="E354">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F354" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=10&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="355" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B355" s="1">
         <f t="shared" si="29"/>
-        <v>42715</v>
+        <v>44176</v>
       </c>
       <c r="C355">
         <f t="shared" si="25"/>
@@ -8162,17 +8163,17 @@
       </c>
       <c r="E355">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F355" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=11&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B356" s="1">
         <f t="shared" si="29"/>
-        <v>42716</v>
+        <v>44177</v>
       </c>
       <c r="C356">
         <f t="shared" si="25"/>
@@ -8184,17 +8185,17 @@
       </c>
       <c r="E356">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F356" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=12&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B357" s="1">
         <f t="shared" si="29"/>
-        <v>42717</v>
+        <v>44178</v>
       </c>
       <c r="C357">
         <f t="shared" si="25"/>
@@ -8206,17 +8207,17 @@
       </c>
       <c r="E357">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F357" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=13&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="358" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B358" s="1">
         <f t="shared" si="29"/>
-        <v>42718</v>
+        <v>44179</v>
       </c>
       <c r="C358">
         <f t="shared" si="25"/>
@@ -8228,17 +8229,17 @@
       </c>
       <c r="E358">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F358" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=14&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="359" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B359" s="1">
         <f t="shared" si="29"/>
-        <v>42719</v>
+        <v>44180</v>
       </c>
       <c r="C359">
         <f t="shared" si="25"/>
@@ -8250,17 +8251,17 @@
       </c>
       <c r="E359">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F359" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=15&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="360" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B360" s="1">
         <f t="shared" si="29"/>
-        <v>42720</v>
+        <v>44181</v>
       </c>
       <c r="C360">
         <f t="shared" si="25"/>
@@ -8272,17 +8273,17 @@
       </c>
       <c r="E360">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F360" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=16&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="361" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B361" s="1">
         <f t="shared" si="29"/>
-        <v>42721</v>
+        <v>44182</v>
       </c>
       <c r="C361">
         <f t="shared" si="25"/>
@@ -8294,17 +8295,17 @@
       </c>
       <c r="E361">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F361" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=17&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="362" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B362" s="1">
         <f t="shared" si="29"/>
-        <v>42722</v>
+        <v>44183</v>
       </c>
       <c r="C362">
         <f t="shared" si="25"/>
@@ -8316,17 +8317,17 @@
       </c>
       <c r="E362">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F362" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=18&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="363" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B363" s="1">
         <f t="shared" si="29"/>
-        <v>42723</v>
+        <v>44184</v>
       </c>
       <c r="C363">
         <f t="shared" si="25"/>
@@ -8338,17 +8339,17 @@
       </c>
       <c r="E363">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F363" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=19&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B364" s="1">
         <f t="shared" si="29"/>
-        <v>42724</v>
+        <v>44185</v>
       </c>
       <c r="C364">
         <f t="shared" si="25"/>
@@ -8360,17 +8361,17 @@
       </c>
       <c r="E364">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F364" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=20&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B365" s="1">
         <f t="shared" si="29"/>
-        <v>42725</v>
+        <v>44186</v>
       </c>
       <c r="C365">
         <f t="shared" si="25"/>
@@ -8382,17 +8383,17 @@
       </c>
       <c r="E365">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F365" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=21&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B366" s="1">
         <f t="shared" si="29"/>
-        <v>42726</v>
+        <v>44187</v>
       </c>
       <c r="C366">
         <f t="shared" si="25"/>
@@ -8404,17 +8405,17 @@
       </c>
       <c r="E366">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F366" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=22&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B367" s="1">
         <f t="shared" si="29"/>
-        <v>42727</v>
+        <v>44188</v>
       </c>
       <c r="C367">
         <f t="shared" si="25"/>
@@ -8426,17 +8427,17 @@
       </c>
       <c r="E367">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F367" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=23&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B368" s="1">
         <f t="shared" si="29"/>
-        <v>42728</v>
+        <v>44189</v>
       </c>
       <c r="C368">
         <f t="shared" si="25"/>
@@ -8448,17 +8449,17 @@
       </c>
       <c r="E368">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F368" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=24&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="369" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B369" s="1">
         <f t="shared" si="29"/>
-        <v>42729</v>
+        <v>44190</v>
       </c>
       <c r="C369">
         <f t="shared" si="25"/>
@@ -8470,17 +8471,17 @@
       </c>
       <c r="E369">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F369" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=25&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="370" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B370" s="1">
         <f t="shared" si="29"/>
-        <v>42730</v>
+        <v>44191</v>
       </c>
       <c r="C370">
         <f t="shared" si="25"/>
@@ -8492,17 +8493,17 @@
       </c>
       <c r="E370">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F370" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=26&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="371" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B371" s="1">
         <f t="shared" si="29"/>
-        <v>42731</v>
+        <v>44192</v>
       </c>
       <c r="C371">
         <f t="shared" si="25"/>
@@ -8514,17 +8515,17 @@
       </c>
       <c r="E371">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F371" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=27&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B372" s="1">
         <f t="shared" si="29"/>
-        <v>42732</v>
+        <v>44193</v>
       </c>
       <c r="C372">
         <f t="shared" si="25"/>
@@ -8536,17 +8537,17 @@
       </c>
       <c r="E372">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F372" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=28&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B373" s="1">
         <f t="shared" si="29"/>
-        <v>42733</v>
+        <v>44194</v>
       </c>
       <c r="C373">
         <f t="shared" si="25"/>
@@ -8558,17 +8559,17 @@
       </c>
       <c r="E373">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F373" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=29&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B374" s="1">
         <f t="shared" si="29"/>
-        <v>42734</v>
+        <v>44195</v>
       </c>
       <c r="C374">
         <f t="shared" si="25"/>
@@ -8580,17 +8581,17 @@
       </c>
       <c r="E374">
         <f t="shared" si="27"/>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F374" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=30&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="375" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B375" s="1">
         <f>IF(B374=DATE(C2,12,31),"",B374+1)</f>
-        <v>42735</v>
+        <v>44196</v>
       </c>
       <c r="C375">
         <f>IF(B375="","",MONTH(B375))</f>
@@ -8602,11 +8603,11 @@
       </c>
       <c r="E375">
         <f>IF(B375="","",YEAR(B375))</f>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F375" t="str">
         <f>IF(B375="","",$I$3&amp;$I$4&amp;C375&amp;$I$5&amp;D375&amp;$I$6&amp;E375&amp;$I$7)</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=31&amp;yr=2016&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=31&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
   </sheetData>

--- a/excel/generateDayLinks.xlsx
+++ b/excel/generateDayLinks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\karisch\projects\horseData\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A84368-63DE-4E4E-9882-F72AAE8872E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8791A760-47C4-47F4-9C6B-37B823C3BE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27707CA5-E18E-4601-88CB-DF04115F391D}"/>
   </bookViews>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676633BA-22C4-4443-B279-E335ADF9F563}">
   <dimension ref="B1:I375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -560,7 +560,7 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f>DATE(C2,1,1)</f>
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C10">
         <f>MONTH(B10)</f>
@@ -572,17 +572,17 @@
       </c>
       <c r="E10">
         <f>YEAR(B10)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F10" s="6" t="str">
         <f>$I$3&amp;$I$4&amp;C10&amp;$I$5&amp;D10&amp;$I$6&amp;E10&amp;$I$7</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f>B10+1</f>
-        <v>43832</v>
+        <v>44198</v>
       </c>
       <c r="C11">
         <f t="shared" ref="C11:C74" si="0">MONTH(B11)</f>
@@ -594,17 +594,17 @@
       </c>
       <c r="E11">
         <f t="shared" ref="E11:E74" si="2">YEAR(B11)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F11" s="6" t="str">
         <f t="shared" ref="F11:F74" si="3">$I$3&amp;$I$4&amp;C11&amp;$I$5&amp;D11&amp;$I$6&amp;E11&amp;$I$7</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ref="B12:B75" si="4">B11+1</f>
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -616,18 +616,18 @@
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F12" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" si="4"/>
-        <v>43834</v>
+        <v>44200</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -639,17 +639,17 @@
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F13" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" si="4"/>
-        <v>43835</v>
+        <v>44201</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -661,17 +661,17 @@
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F14" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" si="4"/>
-        <v>43836</v>
+        <v>44202</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -683,17 +683,17 @@
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F15" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" si="4"/>
-        <v>43837</v>
+        <v>44203</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -705,17 +705,17 @@
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F16" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" si="4"/>
-        <v>43838</v>
+        <v>44204</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -727,17 +727,17 @@
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F17" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" si="4"/>
-        <v>43839</v>
+        <v>44205</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -749,17 +749,17 @@
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F18" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" si="4"/>
-        <v>43840</v>
+        <v>44206</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -771,17 +771,17 @@
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F19" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" si="4"/>
-        <v>43841</v>
+        <v>44207</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -793,17 +793,17 @@
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F20" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" si="4"/>
-        <v>43842</v>
+        <v>44208</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -815,17 +815,17 @@
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F21" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" si="4"/>
-        <v>43843</v>
+        <v>44209</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -837,17 +837,17 @@
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F22" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" si="4"/>
-        <v>43844</v>
+        <v>44210</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -859,17 +859,17 @@
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F23" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" si="4"/>
-        <v>43845</v>
+        <v>44211</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -881,17 +881,17 @@
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F24" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" si="4"/>
-        <v>43846</v>
+        <v>44212</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -903,17 +903,17 @@
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F25" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f t="shared" si="4"/>
-        <v>43847</v>
+        <v>44213</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -925,17 +925,17 @@
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F26" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f t="shared" si="4"/>
-        <v>43848</v>
+        <v>44214</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -947,17 +947,17 @@
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F27" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f t="shared" si="4"/>
-        <v>43849</v>
+        <v>44215</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -969,17 +969,17 @@
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F28" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f t="shared" si="4"/>
-        <v>43850</v>
+        <v>44216</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -991,17 +991,17 @@
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F29" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" si="4"/>
-        <v>43851</v>
+        <v>44217</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -1013,17 +1013,17 @@
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F30" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" si="4"/>
-        <v>43852</v>
+        <v>44218</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -1035,17 +1035,17 @@
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F31" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f t="shared" si="4"/>
-        <v>43853</v>
+        <v>44219</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -1057,17 +1057,17 @@
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F32" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f t="shared" si="4"/>
-        <v>43854</v>
+        <v>44220</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -1079,17 +1079,17 @@
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F33" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f t="shared" si="4"/>
-        <v>43855</v>
+        <v>44221</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -1101,17 +1101,17 @@
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F34" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f t="shared" si="4"/>
-        <v>43856</v>
+        <v>44222</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -1123,17 +1123,17 @@
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F35" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f t="shared" si="4"/>
-        <v>43857</v>
+        <v>44223</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -1145,17 +1145,17 @@
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F36" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f t="shared" si="4"/>
-        <v>43858</v>
+        <v>44224</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F37" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <f t="shared" si="4"/>
-        <v>43859</v>
+        <v>44225</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
@@ -1189,17 +1189,17 @@
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F38" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <f t="shared" si="4"/>
-        <v>43860</v>
+        <v>44226</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F39" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <f t="shared" si="4"/>
-        <v>43861</v>
+        <v>44227</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
@@ -1233,17 +1233,17 @@
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F40" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=31&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=31&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <f t="shared" si="4"/>
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
@@ -1255,17 +1255,17 @@
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F41" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <f t="shared" si="4"/>
-        <v>43863</v>
+        <v>44229</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
@@ -1277,17 +1277,17 @@
       </c>
       <c r="E42">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F42" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <f t="shared" si="4"/>
-        <v>43864</v>
+        <v>44230</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
@@ -1299,17 +1299,17 @@
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F43" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <f t="shared" si="4"/>
-        <v>43865</v>
+        <v>44231</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
@@ -1321,17 +1321,17 @@
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F44" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <f t="shared" si="4"/>
-        <v>43866</v>
+        <v>44232</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
@@ -1343,17 +1343,17 @@
       </c>
       <c r="E45">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F45" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <f t="shared" si="4"/>
-        <v>43867</v>
+        <v>44233</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
@@ -1365,17 +1365,17 @@
       </c>
       <c r="E46">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F46" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <f t="shared" si="4"/>
-        <v>43868</v>
+        <v>44234</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
@@ -1387,17 +1387,17 @@
       </c>
       <c r="E47">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F47" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <f t="shared" si="4"/>
-        <v>43869</v>
+        <v>44235</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F48" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <f t="shared" si="4"/>
-        <v>43870</v>
+        <v>44236</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
@@ -1431,17 +1431,17 @@
       </c>
       <c r="E49">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F49" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <f t="shared" si="4"/>
-        <v>43871</v>
+        <v>44237</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
@@ -1453,17 +1453,17 @@
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F50" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <f t="shared" si="4"/>
-        <v>43872</v>
+        <v>44238</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -1475,17 +1475,17 @@
       </c>
       <c r="E51">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F51" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <f t="shared" si="4"/>
-        <v>43873</v>
+        <v>44239</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
@@ -1497,17 +1497,17 @@
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F52" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <f t="shared" si="4"/>
-        <v>43874</v>
+        <v>44240</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
@@ -1519,17 +1519,17 @@
       </c>
       <c r="E53">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F53" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <f t="shared" si="4"/>
-        <v>43875</v>
+        <v>44241</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
@@ -1541,17 +1541,17 @@
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F54" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <f t="shared" si="4"/>
-        <v>43876</v>
+        <v>44242</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
@@ -1563,17 +1563,17 @@
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F55" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <f t="shared" si="4"/>
-        <v>43877</v>
+        <v>44243</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
@@ -1585,17 +1585,17 @@
       </c>
       <c r="E56">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F56" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <f t="shared" si="4"/>
-        <v>43878</v>
+        <v>44244</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
@@ -1607,17 +1607,17 @@
       </c>
       <c r="E57">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F57" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <f t="shared" si="4"/>
-        <v>43879</v>
+        <v>44245</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
@@ -1629,17 +1629,17 @@
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F58" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <f t="shared" si="4"/>
-        <v>43880</v>
+        <v>44246</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="E59">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F59" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <f t="shared" si="4"/>
-        <v>43881</v>
+        <v>44247</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="E60">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F60" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <f t="shared" si="4"/>
-        <v>43882</v>
+        <v>44248</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
@@ -1695,17 +1695,17 @@
       </c>
       <c r="E61">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F61" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <f t="shared" si="4"/>
-        <v>43883</v>
+        <v>44249</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
@@ -1717,17 +1717,17 @@
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F62" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <f t="shared" si="4"/>
-        <v>43884</v>
+        <v>44250</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
@@ -1739,17 +1739,17 @@
       </c>
       <c r="E63">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F63" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <f t="shared" si="4"/>
-        <v>43885</v>
+        <v>44251</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
@@ -1761,17 +1761,17 @@
       </c>
       <c r="E64">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F64" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <f t="shared" si="4"/>
-        <v>43886</v>
+        <v>44252</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
@@ -1783,17 +1783,17 @@
       </c>
       <c r="E65">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F65" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <f t="shared" si="4"/>
-        <v>43887</v>
+        <v>44253</v>
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
@@ -1805,17 +1805,17 @@
       </c>
       <c r="E66">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F66" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <f t="shared" si="4"/>
-        <v>43888</v>
+        <v>44254</v>
       </c>
       <c r="C67">
         <f t="shared" si="0"/>
@@ -1827,17 +1827,17 @@
       </c>
       <c r="E67">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F67" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <f t="shared" si="4"/>
-        <v>43889</v>
+        <v>44255</v>
       </c>
       <c r="C68">
         <f t="shared" si="0"/>
@@ -1849,39 +1849,39 @@
       </c>
       <c r="E68">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F68" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <f t="shared" si="4"/>
-        <v>43890</v>
+        <v>44256</v>
       </c>
       <c r="C69">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F69" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <f t="shared" si="4"/>
-        <v>43891</v>
+        <v>44257</v>
       </c>
       <c r="C70">
         <f t="shared" si="0"/>
@@ -1889,21 +1889,21 @@
       </c>
       <c r="D70">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F70" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <f t="shared" si="4"/>
-        <v>43892</v>
+        <v>44258</v>
       </c>
       <c r="C71">
         <f t="shared" si="0"/>
@@ -1911,21 +1911,21 @@
       </c>
       <c r="D71">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E71">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F71" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <f t="shared" si="4"/>
-        <v>43893</v>
+        <v>44259</v>
       </c>
       <c r="C72">
         <f t="shared" si="0"/>
@@ -1933,21 +1933,21 @@
       </c>
       <c r="D72">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E72">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F72" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <f t="shared" si="4"/>
-        <v>43894</v>
+        <v>44260</v>
       </c>
       <c r="C73">
         <f t="shared" si="0"/>
@@ -1955,21 +1955,21 @@
       </c>
       <c r="D73">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E73">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F73" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <f t="shared" si="4"/>
-        <v>43895</v>
+        <v>44261</v>
       </c>
       <c r="C74">
         <f t="shared" si="0"/>
@@ -1977,21 +1977,21 @@
       </c>
       <c r="D74">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E74">
         <f t="shared" si="2"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F74" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <f t="shared" si="4"/>
-        <v>43896</v>
+        <v>44262</v>
       </c>
       <c r="C75">
         <f t="shared" ref="C75:C138" si="5">MONTH(B75)</f>
@@ -1999,21 +1999,21 @@
       </c>
       <c r="D75">
         <f t="shared" ref="D75:D138" si="6">DAY(B75)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E75">
         <f t="shared" ref="E75:E138" si="7">YEAR(B75)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F75" s="6" t="str">
         <f t="shared" ref="F75:F138" si="8">$I$3&amp;$I$4&amp;C75&amp;$I$5&amp;D75&amp;$I$6&amp;E75&amp;$I$7</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <f t="shared" ref="B76:B139" si="9">B75+1</f>
-        <v>43897</v>
+        <v>44263</v>
       </c>
       <c r="C76">
         <f t="shared" si="5"/>
@@ -2021,21 +2021,21 @@
       </c>
       <c r="D76">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E76">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F76" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <f t="shared" si="9"/>
-        <v>43898</v>
+        <v>44264</v>
       </c>
       <c r="C77">
         <f t="shared" si="5"/>
@@ -2043,21 +2043,21 @@
       </c>
       <c r="D77">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E77">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F77" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <f t="shared" si="9"/>
-        <v>43899</v>
+        <v>44265</v>
       </c>
       <c r="C78">
         <f t="shared" si="5"/>
@@ -2065,21 +2065,21 @@
       </c>
       <c r="D78">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F78" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <f t="shared" si="9"/>
-        <v>43900</v>
+        <v>44266</v>
       </c>
       <c r="C79">
         <f t="shared" si="5"/>
@@ -2087,21 +2087,21 @@
       </c>
       <c r="D79">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F79" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <f t="shared" si="9"/>
-        <v>43901</v>
+        <v>44267</v>
       </c>
       <c r="C80">
         <f t="shared" si="5"/>
@@ -2109,21 +2109,21 @@
       </c>
       <c r="D80">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E80">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F80" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <f t="shared" si="9"/>
-        <v>43902</v>
+        <v>44268</v>
       </c>
       <c r="C81">
         <f t="shared" si="5"/>
@@ -2131,21 +2131,21 @@
       </c>
       <c r="D81">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E81">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F81" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <f t="shared" si="9"/>
-        <v>43903</v>
+        <v>44269</v>
       </c>
       <c r="C82">
         <f t="shared" si="5"/>
@@ -2153,21 +2153,21 @@
       </c>
       <c r="D82">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E82">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F82" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <f t="shared" si="9"/>
-        <v>43904</v>
+        <v>44270</v>
       </c>
       <c r="C83">
         <f t="shared" si="5"/>
@@ -2175,21 +2175,21 @@
       </c>
       <c r="D83">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E83">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F83" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <f t="shared" si="9"/>
-        <v>43905</v>
+        <v>44271</v>
       </c>
       <c r="C84">
         <f t="shared" si="5"/>
@@ -2197,21 +2197,21 @@
       </c>
       <c r="D84">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E84">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F84" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <f t="shared" si="9"/>
-        <v>43906</v>
+        <v>44272</v>
       </c>
       <c r="C85">
         <f t="shared" si="5"/>
@@ -2219,21 +2219,21 @@
       </c>
       <c r="D85">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E85">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F85" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <f t="shared" si="9"/>
-        <v>43907</v>
+        <v>44273</v>
       </c>
       <c r="C86">
         <f t="shared" si="5"/>
@@ -2241,21 +2241,21 @@
       </c>
       <c r="D86">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E86">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F86" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <f t="shared" si="9"/>
-        <v>43908</v>
+        <v>44274</v>
       </c>
       <c r="C87">
         <f t="shared" si="5"/>
@@ -2263,21 +2263,21 @@
       </c>
       <c r="D87">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E87">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F87" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <f t="shared" si="9"/>
-        <v>43909</v>
+        <v>44275</v>
       </c>
       <c r="C88">
         <f t="shared" si="5"/>
@@ -2285,21 +2285,21 @@
       </c>
       <c r="D88">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E88">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F88" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <f t="shared" si="9"/>
-        <v>43910</v>
+        <v>44276</v>
       </c>
       <c r="C89">
         <f t="shared" si="5"/>
@@ -2307,21 +2307,21 @@
       </c>
       <c r="D89">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E89">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F89" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <f t="shared" si="9"/>
-        <v>43911</v>
+        <v>44277</v>
       </c>
       <c r="C90">
         <f t="shared" si="5"/>
@@ -2329,21 +2329,21 @@
       </c>
       <c r="D90">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E90">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F90" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <f t="shared" si="9"/>
-        <v>43912</v>
+        <v>44278</v>
       </c>
       <c r="C91">
         <f t="shared" si="5"/>
@@ -2351,21 +2351,21 @@
       </c>
       <c r="D91">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E91">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F91" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <f t="shared" si="9"/>
-        <v>43913</v>
+        <v>44279</v>
       </c>
       <c r="C92">
         <f t="shared" si="5"/>
@@ -2373,21 +2373,21 @@
       </c>
       <c r="D92">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E92">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F92" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <f t="shared" si="9"/>
-        <v>43914</v>
+        <v>44280</v>
       </c>
       <c r="C93">
         <f t="shared" si="5"/>
@@ -2395,21 +2395,21 @@
       </c>
       <c r="D93">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E93">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F93" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <f t="shared" si="9"/>
-        <v>43915</v>
+        <v>44281</v>
       </c>
       <c r="C94">
         <f t="shared" si="5"/>
@@ -2417,21 +2417,21 @@
       </c>
       <c r="D94">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E94">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F94" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <f t="shared" si="9"/>
-        <v>43916</v>
+        <v>44282</v>
       </c>
       <c r="C95">
         <f t="shared" si="5"/>
@@ -2439,21 +2439,21 @@
       </c>
       <c r="D95">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E95">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F95" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <f t="shared" si="9"/>
-        <v>43917</v>
+        <v>44283</v>
       </c>
       <c r="C96">
         <f t="shared" si="5"/>
@@ -2461,21 +2461,21 @@
       </c>
       <c r="D96">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E96">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F96" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <f t="shared" si="9"/>
-        <v>43918</v>
+        <v>44284</v>
       </c>
       <c r="C97">
         <f t="shared" si="5"/>
@@ -2483,21 +2483,21 @@
       </c>
       <c r="D97">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E97">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F97" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <f t="shared" si="9"/>
-        <v>43919</v>
+        <v>44285</v>
       </c>
       <c r="C98">
         <f t="shared" si="5"/>
@@ -2505,21 +2505,21 @@
       </c>
       <c r="D98">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E98">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F98" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <f t="shared" si="9"/>
-        <v>43920</v>
+        <v>44286</v>
       </c>
       <c r="C99">
         <f t="shared" si="5"/>
@@ -2527,43 +2527,43 @@
       </c>
       <c r="D99">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E99">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F99" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=31&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <f t="shared" si="9"/>
-        <v>43921</v>
+        <v>44287</v>
       </c>
       <c r="C100">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E100">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F100" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=31&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <f t="shared" si="9"/>
-        <v>43922</v>
+        <v>44288</v>
       </c>
       <c r="C101">
         <f t="shared" si="5"/>
@@ -2571,21 +2571,21 @@
       </c>
       <c r="D101">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F101" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <f t="shared" si="9"/>
-        <v>43923</v>
+        <v>44289</v>
       </c>
       <c r="C102">
         <f t="shared" si="5"/>
@@ -2593,21 +2593,21 @@
       </c>
       <c r="D102">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E102">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F102" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <f t="shared" si="9"/>
-        <v>43924</v>
+        <v>44290</v>
       </c>
       <c r="C103">
         <f t="shared" si="5"/>
@@ -2615,21 +2615,21 @@
       </c>
       <c r="D103">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E103">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F103" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <f t="shared" si="9"/>
-        <v>43925</v>
+        <v>44291</v>
       </c>
       <c r="C104">
         <f t="shared" si="5"/>
@@ -2637,21 +2637,21 @@
       </c>
       <c r="D104">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E104">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F104" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <f t="shared" si="9"/>
-        <v>43926</v>
+        <v>44292</v>
       </c>
       <c r="C105">
         <f t="shared" si="5"/>
@@ -2659,21 +2659,21 @@
       </c>
       <c r="D105">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E105">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F105" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <f t="shared" si="9"/>
-        <v>43927</v>
+        <v>44293</v>
       </c>
       <c r="C106">
         <f t="shared" si="5"/>
@@ -2681,21 +2681,21 @@
       </c>
       <c r="D106">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E106">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F106" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <f t="shared" si="9"/>
-        <v>43928</v>
+        <v>44294</v>
       </c>
       <c r="C107">
         <f t="shared" si="5"/>
@@ -2703,21 +2703,21 @@
       </c>
       <c r="D107">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E107">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F107" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <f t="shared" si="9"/>
-        <v>43929</v>
+        <v>44295</v>
       </c>
       <c r="C108">
         <f t="shared" si="5"/>
@@ -2725,21 +2725,21 @@
       </c>
       <c r="D108">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E108">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F108" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <f t="shared" si="9"/>
-        <v>43930</v>
+        <v>44296</v>
       </c>
       <c r="C109">
         <f t="shared" si="5"/>
@@ -2747,21 +2747,21 @@
       </c>
       <c r="D109">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F109" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <f t="shared" si="9"/>
-        <v>43931</v>
+        <v>44297</v>
       </c>
       <c r="C110">
         <f t="shared" si="5"/>
@@ -2769,21 +2769,21 @@
       </c>
       <c r="D110">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F110" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <f t="shared" si="9"/>
-        <v>43932</v>
+        <v>44298</v>
       </c>
       <c r="C111">
         <f t="shared" si="5"/>
@@ -2791,21 +2791,21 @@
       </c>
       <c r="D111">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E111">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F111" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <f t="shared" si="9"/>
-        <v>43933</v>
+        <v>44299</v>
       </c>
       <c r="C112">
         <f t="shared" si="5"/>
@@ -2813,21 +2813,21 @@
       </c>
       <c r="D112">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E112">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F112" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <f t="shared" si="9"/>
-        <v>43934</v>
+        <v>44300</v>
       </c>
       <c r="C113">
         <f t="shared" si="5"/>
@@ -2835,21 +2835,21 @@
       </c>
       <c r="D113">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E113">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F113" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <f t="shared" si="9"/>
-        <v>43935</v>
+        <v>44301</v>
       </c>
       <c r="C114">
         <f t="shared" si="5"/>
@@ -2857,21 +2857,21 @@
       </c>
       <c r="D114">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E114">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F114" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <f t="shared" si="9"/>
-        <v>43936</v>
+        <v>44302</v>
       </c>
       <c r="C115">
         <f t="shared" si="5"/>
@@ -2879,21 +2879,21 @@
       </c>
       <c r="D115">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E115">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F115" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <f t="shared" si="9"/>
-        <v>43937</v>
+        <v>44303</v>
       </c>
       <c r="C116">
         <f t="shared" si="5"/>
@@ -2901,21 +2901,21 @@
       </c>
       <c r="D116">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E116">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F116" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <f t="shared" si="9"/>
-        <v>43938</v>
+        <v>44304</v>
       </c>
       <c r="C117">
         <f t="shared" si="5"/>
@@ -2923,21 +2923,21 @@
       </c>
       <c r="D117">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E117">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F117" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <f t="shared" si="9"/>
-        <v>43939</v>
+        <v>44305</v>
       </c>
       <c r="C118">
         <f t="shared" si="5"/>
@@ -2945,21 +2945,21 @@
       </c>
       <c r="D118">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E118">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F118" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <f t="shared" si="9"/>
-        <v>43940</v>
+        <v>44306</v>
       </c>
       <c r="C119">
         <f t="shared" si="5"/>
@@ -2967,21 +2967,21 @@
       </c>
       <c r="D119">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E119">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F119" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <f t="shared" si="9"/>
-        <v>43941</v>
+        <v>44307</v>
       </c>
       <c r="C120">
         <f t="shared" si="5"/>
@@ -2989,21 +2989,21 @@
       </c>
       <c r="D120">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E120">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F120" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <f t="shared" si="9"/>
-        <v>43942</v>
+        <v>44308</v>
       </c>
       <c r="C121">
         <f t="shared" si="5"/>
@@ -3011,21 +3011,21 @@
       </c>
       <c r="D121">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E121">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F121" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <f t="shared" si="9"/>
-        <v>43943</v>
+        <v>44309</v>
       </c>
       <c r="C122">
         <f t="shared" si="5"/>
@@ -3033,21 +3033,21 @@
       </c>
       <c r="D122">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E122">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F122" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <f t="shared" si="9"/>
-        <v>43944</v>
+        <v>44310</v>
       </c>
       <c r="C123">
         <f t="shared" si="5"/>
@@ -3055,21 +3055,21 @@
       </c>
       <c r="D123">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E123">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F123" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <f t="shared" si="9"/>
-        <v>43945</v>
+        <v>44311</v>
       </c>
       <c r="C124">
         <f t="shared" si="5"/>
@@ -3077,21 +3077,21 @@
       </c>
       <c r="D124">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E124">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F124" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <f t="shared" si="9"/>
-        <v>43946</v>
+        <v>44312</v>
       </c>
       <c r="C125">
         <f t="shared" si="5"/>
@@ -3099,21 +3099,21 @@
       </c>
       <c r="D125">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E125">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F125" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <f t="shared" si="9"/>
-        <v>43947</v>
+        <v>44313</v>
       </c>
       <c r="C126">
         <f t="shared" si="5"/>
@@ -3121,21 +3121,21 @@
       </c>
       <c r="D126">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E126">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F126" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <f t="shared" si="9"/>
-        <v>43948</v>
+        <v>44314</v>
       </c>
       <c r="C127">
         <f t="shared" si="5"/>
@@ -3143,21 +3143,21 @@
       </c>
       <c r="D127">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E127">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F127" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <f t="shared" si="9"/>
-        <v>43949</v>
+        <v>44315</v>
       </c>
       <c r="C128">
         <f t="shared" si="5"/>
@@ -3165,21 +3165,21 @@
       </c>
       <c r="D128">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E128">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F128" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <f t="shared" si="9"/>
-        <v>43950</v>
+        <v>44316</v>
       </c>
       <c r="C129">
         <f t="shared" si="5"/>
@@ -3187,43 +3187,43 @@
       </c>
       <c r="D129">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E129">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F129" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <f t="shared" si="9"/>
-        <v>43951</v>
+        <v>44317</v>
       </c>
       <c r="C130">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D130">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E130">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F130" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <f t="shared" si="9"/>
-        <v>43952</v>
+        <v>44318</v>
       </c>
       <c r="C131">
         <f t="shared" si="5"/>
@@ -3231,21 +3231,21 @@
       </c>
       <c r="D131">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E131">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F131" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <f t="shared" si="9"/>
-        <v>43953</v>
+        <v>44319</v>
       </c>
       <c r="C132">
         <f t="shared" si="5"/>
@@ -3253,21 +3253,21 @@
       </c>
       <c r="D132">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E132">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F132" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <f t="shared" si="9"/>
-        <v>43954</v>
+        <v>44320</v>
       </c>
       <c r="C133">
         <f t="shared" si="5"/>
@@ -3275,21 +3275,21 @@
       </c>
       <c r="D133">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E133">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F133" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <f t="shared" si="9"/>
-        <v>43955</v>
+        <v>44321</v>
       </c>
       <c r="C134">
         <f t="shared" si="5"/>
@@ -3297,21 +3297,21 @@
       </c>
       <c r="D134">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E134">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F134" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <f t="shared" si="9"/>
-        <v>43956</v>
+        <v>44322</v>
       </c>
       <c r="C135">
         <f t="shared" si="5"/>
@@ -3319,21 +3319,21 @@
       </c>
       <c r="D135">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E135">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F135" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <f t="shared" si="9"/>
-        <v>43957</v>
+        <v>44323</v>
       </c>
       <c r="C136">
         <f t="shared" si="5"/>
@@ -3341,21 +3341,21 @@
       </c>
       <c r="D136">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E136">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F136" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <f t="shared" si="9"/>
-        <v>43958</v>
+        <v>44324</v>
       </c>
       <c r="C137">
         <f t="shared" si="5"/>
@@ -3363,21 +3363,21 @@
       </c>
       <c r="D137">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E137">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F137" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <f t="shared" si="9"/>
-        <v>43959</v>
+        <v>44325</v>
       </c>
       <c r="C138">
         <f t="shared" si="5"/>
@@ -3385,21 +3385,21 @@
       </c>
       <c r="D138">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E138">
         <f t="shared" si="7"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F138" s="6" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
         <f t="shared" si="9"/>
-        <v>43960</v>
+        <v>44326</v>
       </c>
       <c r="C139">
         <f t="shared" ref="C139:C202" si="10">MONTH(B139)</f>
@@ -3407,21 +3407,21 @@
       </c>
       <c r="D139">
         <f t="shared" ref="D139:D202" si="11">DAY(B139)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139">
         <f t="shared" ref="E139:E202" si="12">YEAR(B139)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F139" s="6" t="str">
         <f t="shared" ref="F139:F202" si="13">$I$3&amp;$I$4&amp;C139&amp;$I$5&amp;D139&amp;$I$6&amp;E139&amp;$I$7</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <f t="shared" ref="B140:B203" si="14">B139+1</f>
-        <v>43961</v>
+        <v>44327</v>
       </c>
       <c r="C140">
         <f t="shared" si="10"/>
@@ -3429,21 +3429,21 @@
       </c>
       <c r="D140">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F140" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <f t="shared" si="14"/>
-        <v>43962</v>
+        <v>44328</v>
       </c>
       <c r="C141">
         <f t="shared" si="10"/>
@@ -3451,21 +3451,21 @@
       </c>
       <c r="D141">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E141">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F141" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <f t="shared" si="14"/>
-        <v>43963</v>
+        <v>44329</v>
       </c>
       <c r="C142">
         <f t="shared" si="10"/>
@@ -3473,21 +3473,21 @@
       </c>
       <c r="D142">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E142">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F142" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <f t="shared" si="14"/>
-        <v>43964</v>
+        <v>44330</v>
       </c>
       <c r="C143">
         <f t="shared" si="10"/>
@@ -3495,21 +3495,21 @@
       </c>
       <c r="D143">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E143">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F143" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <f t="shared" si="14"/>
-        <v>43965</v>
+        <v>44331</v>
       </c>
       <c r="C144">
         <f t="shared" si="10"/>
@@ -3517,21 +3517,21 @@
       </c>
       <c r="D144">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E144">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F144" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <f t="shared" si="14"/>
-        <v>43966</v>
+        <v>44332</v>
       </c>
       <c r="C145">
         <f t="shared" si="10"/>
@@ -3539,21 +3539,21 @@
       </c>
       <c r="D145">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E145">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F145" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <f t="shared" si="14"/>
-        <v>43967</v>
+        <v>44333</v>
       </c>
       <c r="C146">
         <f t="shared" si="10"/>
@@ -3561,21 +3561,21 @@
       </c>
       <c r="D146">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E146">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F146" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <f t="shared" si="14"/>
-        <v>43968</v>
+        <v>44334</v>
       </c>
       <c r="C147">
         <f t="shared" si="10"/>
@@ -3583,21 +3583,21 @@
       </c>
       <c r="D147">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E147">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F147" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <f t="shared" si="14"/>
-        <v>43969</v>
+        <v>44335</v>
       </c>
       <c r="C148">
         <f t="shared" si="10"/>
@@ -3605,21 +3605,21 @@
       </c>
       <c r="D148">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E148">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F148" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <f t="shared" si="14"/>
-        <v>43970</v>
+        <v>44336</v>
       </c>
       <c r="C149">
         <f t="shared" si="10"/>
@@ -3627,21 +3627,21 @@
       </c>
       <c r="D149">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E149">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F149" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <f t="shared" si="14"/>
-        <v>43971</v>
+        <v>44337</v>
       </c>
       <c r="C150">
         <f t="shared" si="10"/>
@@ -3649,21 +3649,21 @@
       </c>
       <c r="D150">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E150">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F150" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <f t="shared" si="14"/>
-        <v>43972</v>
+        <v>44338</v>
       </c>
       <c r="C151">
         <f t="shared" si="10"/>
@@ -3671,21 +3671,21 @@
       </c>
       <c r="D151">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E151">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F151" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <f t="shared" si="14"/>
-        <v>43973</v>
+        <v>44339</v>
       </c>
       <c r="C152">
         <f t="shared" si="10"/>
@@ -3693,21 +3693,21 @@
       </c>
       <c r="D152">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E152">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F152" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <f t="shared" si="14"/>
-        <v>43974</v>
+        <v>44340</v>
       </c>
       <c r="C153">
         <f t="shared" si="10"/>
@@ -3715,21 +3715,21 @@
       </c>
       <c r="D153">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E153">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F153" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <f t="shared" si="14"/>
-        <v>43975</v>
+        <v>44341</v>
       </c>
       <c r="C154">
         <f t="shared" si="10"/>
@@ -3737,21 +3737,21 @@
       </c>
       <c r="D154">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E154">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F154" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <f t="shared" si="14"/>
-        <v>43976</v>
+        <v>44342</v>
       </c>
       <c r="C155">
         <f t="shared" si="10"/>
@@ -3759,21 +3759,21 @@
       </c>
       <c r="D155">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E155">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F155" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <f t="shared" si="14"/>
-        <v>43977</v>
+        <v>44343</v>
       </c>
       <c r="C156">
         <f t="shared" si="10"/>
@@ -3781,21 +3781,21 @@
       </c>
       <c r="D156">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E156">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F156" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <f t="shared" si="14"/>
-        <v>43978</v>
+        <v>44344</v>
       </c>
       <c r="C157">
         <f t="shared" si="10"/>
@@ -3803,21 +3803,21 @@
       </c>
       <c r="D157">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E157">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F157" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <f t="shared" si="14"/>
-        <v>43979</v>
+        <v>44345</v>
       </c>
       <c r="C158">
         <f t="shared" si="10"/>
@@ -3825,21 +3825,21 @@
       </c>
       <c r="D158">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E158">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F158" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <f t="shared" si="14"/>
-        <v>43980</v>
+        <v>44346</v>
       </c>
       <c r="C159">
         <f t="shared" si="10"/>
@@ -3847,21 +3847,21 @@
       </c>
       <c r="D159">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E159">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F159" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <f t="shared" si="14"/>
-        <v>43981</v>
+        <v>44347</v>
       </c>
       <c r="C160">
         <f t="shared" si="10"/>
@@ -3869,43 +3869,43 @@
       </c>
       <c r="D160">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E160">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F160" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=31&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <f t="shared" si="14"/>
-        <v>43982</v>
+        <v>44348</v>
       </c>
       <c r="C161">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D161">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E161">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F161" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=31&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <f t="shared" si="14"/>
-        <v>43983</v>
+        <v>44349</v>
       </c>
       <c r="C162">
         <f t="shared" si="10"/>
@@ -3913,21 +3913,21 @@
       </c>
       <c r="D162">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E162">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F162" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <f t="shared" si="14"/>
-        <v>43984</v>
+        <v>44350</v>
       </c>
       <c r="C163">
         <f t="shared" si="10"/>
@@ -3935,21 +3935,21 @@
       </c>
       <c r="D163">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E163">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F163" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="1">
         <f t="shared" si="14"/>
-        <v>43985</v>
+        <v>44351</v>
       </c>
       <c r="C164">
         <f t="shared" si="10"/>
@@ -3957,21 +3957,21 @@
       </c>
       <c r="D164">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E164">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F164" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <f t="shared" si="14"/>
-        <v>43986</v>
+        <v>44352</v>
       </c>
       <c r="C165">
         <f t="shared" si="10"/>
@@ -3979,21 +3979,21 @@
       </c>
       <c r="D165">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E165">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F165" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <f t="shared" si="14"/>
-        <v>43987</v>
+        <v>44353</v>
       </c>
       <c r="C166">
         <f t="shared" si="10"/>
@@ -4001,21 +4001,21 @@
       </c>
       <c r="D166">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E166">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F166" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <f t="shared" si="14"/>
-        <v>43988</v>
+        <v>44354</v>
       </c>
       <c r="C167">
         <f t="shared" si="10"/>
@@ -4023,21 +4023,21 @@
       </c>
       <c r="D167">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E167">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F167" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <f t="shared" si="14"/>
-        <v>43989</v>
+        <v>44355</v>
       </c>
       <c r="C168">
         <f t="shared" si="10"/>
@@ -4045,21 +4045,21 @@
       </c>
       <c r="D168">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E168">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F168" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <f t="shared" si="14"/>
-        <v>43990</v>
+        <v>44356</v>
       </c>
       <c r="C169">
         <f t="shared" si="10"/>
@@ -4067,21 +4067,21 @@
       </c>
       <c r="D169">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E169">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F169" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <f t="shared" si="14"/>
-        <v>43991</v>
+        <v>44357</v>
       </c>
       <c r="C170">
         <f t="shared" si="10"/>
@@ -4089,21 +4089,21 @@
       </c>
       <c r="D170">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F170" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <f t="shared" si="14"/>
-        <v>43992</v>
+        <v>44358</v>
       </c>
       <c r="C171">
         <f t="shared" si="10"/>
@@ -4111,21 +4111,21 @@
       </c>
       <c r="D171">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F171" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <f t="shared" si="14"/>
-        <v>43993</v>
+        <v>44359</v>
       </c>
       <c r="C172">
         <f t="shared" si="10"/>
@@ -4133,21 +4133,21 @@
       </c>
       <c r="D172">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E172">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F172" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <f t="shared" si="14"/>
-        <v>43994</v>
+        <v>44360</v>
       </c>
       <c r="C173">
         <f t="shared" si="10"/>
@@ -4155,21 +4155,21 @@
       </c>
       <c r="D173">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E173">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F173" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <f t="shared" si="14"/>
-        <v>43995</v>
+        <v>44361</v>
       </c>
       <c r="C174">
         <f t="shared" si="10"/>
@@ -4177,21 +4177,21 @@
       </c>
       <c r="D174">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E174">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F174" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <f t="shared" si="14"/>
-        <v>43996</v>
+        <v>44362</v>
       </c>
       <c r="C175">
         <f t="shared" si="10"/>
@@ -4199,21 +4199,21 @@
       </c>
       <c r="D175">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E175">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F175" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <f t="shared" si="14"/>
-        <v>43997</v>
+        <v>44363</v>
       </c>
       <c r="C176">
         <f t="shared" si="10"/>
@@ -4221,21 +4221,21 @@
       </c>
       <c r="D176">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E176">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F176" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <f t="shared" si="14"/>
-        <v>43998</v>
+        <v>44364</v>
       </c>
       <c r="C177">
         <f t="shared" si="10"/>
@@ -4243,21 +4243,21 @@
       </c>
       <c r="D177">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E177">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F177" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <f t="shared" si="14"/>
-        <v>43999</v>
+        <v>44365</v>
       </c>
       <c r="C178">
         <f t="shared" si="10"/>
@@ -4265,21 +4265,21 @@
       </c>
       <c r="D178">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E178">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F178" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <f t="shared" si="14"/>
-        <v>44000</v>
+        <v>44366</v>
       </c>
       <c r="C179">
         <f t="shared" si="10"/>
@@ -4287,21 +4287,21 @@
       </c>
       <c r="D179">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E179">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F179" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <f t="shared" si="14"/>
-        <v>44001</v>
+        <v>44367</v>
       </c>
       <c r="C180">
         <f t="shared" si="10"/>
@@ -4309,21 +4309,21 @@
       </c>
       <c r="D180">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E180">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F180" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <f t="shared" si="14"/>
-        <v>44002</v>
+        <v>44368</v>
       </c>
       <c r="C181">
         <f t="shared" si="10"/>
@@ -4331,21 +4331,21 @@
       </c>
       <c r="D181">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E181">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F181" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <f t="shared" si="14"/>
-        <v>44003</v>
+        <v>44369</v>
       </c>
       <c r="C182">
         <f t="shared" si="10"/>
@@ -4353,21 +4353,21 @@
       </c>
       <c r="D182">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E182">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F182" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <f t="shared" si="14"/>
-        <v>44004</v>
+        <v>44370</v>
       </c>
       <c r="C183">
         <f t="shared" si="10"/>
@@ -4375,21 +4375,21 @@
       </c>
       <c r="D183">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E183">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F183" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <f t="shared" si="14"/>
-        <v>44005</v>
+        <v>44371</v>
       </c>
       <c r="C184">
         <f t="shared" si="10"/>
@@ -4397,21 +4397,21 @@
       </c>
       <c r="D184">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E184">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F184" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <f t="shared" si="14"/>
-        <v>44006</v>
+        <v>44372</v>
       </c>
       <c r="C185">
         <f t="shared" si="10"/>
@@ -4419,21 +4419,21 @@
       </c>
       <c r="D185">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E185">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F185" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <f t="shared" si="14"/>
-        <v>44007</v>
+        <v>44373</v>
       </c>
       <c r="C186">
         <f t="shared" si="10"/>
@@ -4441,21 +4441,21 @@
       </c>
       <c r="D186">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E186">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F186" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <f t="shared" si="14"/>
-        <v>44008</v>
+        <v>44374</v>
       </c>
       <c r="C187">
         <f t="shared" si="10"/>
@@ -4463,21 +4463,21 @@
       </c>
       <c r="D187">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E187">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F187" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <f t="shared" si="14"/>
-        <v>44009</v>
+        <v>44375</v>
       </c>
       <c r="C188">
         <f t="shared" si="10"/>
@@ -4485,21 +4485,21 @@
       </c>
       <c r="D188">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E188">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F188" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <f t="shared" si="14"/>
-        <v>44010</v>
+        <v>44376</v>
       </c>
       <c r="C189">
         <f t="shared" si="10"/>
@@ -4507,21 +4507,21 @@
       </c>
       <c r="D189">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E189">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F189" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <f t="shared" si="14"/>
-        <v>44011</v>
+        <v>44377</v>
       </c>
       <c r="C190">
         <f t="shared" si="10"/>
@@ -4529,43 +4529,43 @@
       </c>
       <c r="D190">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E190">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F190" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <f t="shared" si="14"/>
-        <v>44012</v>
+        <v>44378</v>
       </c>
       <c r="C191">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D191">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E191">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F191" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <f t="shared" si="14"/>
-        <v>44013</v>
+        <v>44379</v>
       </c>
       <c r="C192">
         <f t="shared" si="10"/>
@@ -4573,21 +4573,21 @@
       </c>
       <c r="D192">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E192">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F192" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <f t="shared" si="14"/>
-        <v>44014</v>
+        <v>44380</v>
       </c>
       <c r="C193">
         <f t="shared" si="10"/>
@@ -4595,21 +4595,21 @@
       </c>
       <c r="D193">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E193">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F193" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <f t="shared" si="14"/>
-        <v>44015</v>
+        <v>44381</v>
       </c>
       <c r="C194">
         <f t="shared" si="10"/>
@@ -4617,21 +4617,21 @@
       </c>
       <c r="D194">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E194">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F194" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <f t="shared" si="14"/>
-        <v>44016</v>
+        <v>44382</v>
       </c>
       <c r="C195">
         <f t="shared" si="10"/>
@@ -4639,21 +4639,21 @@
       </c>
       <c r="D195">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E195">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F195" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <f t="shared" si="14"/>
-        <v>44017</v>
+        <v>44383</v>
       </c>
       <c r="C196">
         <f t="shared" si="10"/>
@@ -4661,21 +4661,21 @@
       </c>
       <c r="D196">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E196">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F196" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <f t="shared" si="14"/>
-        <v>44018</v>
+        <v>44384</v>
       </c>
       <c r="C197">
         <f t="shared" si="10"/>
@@ -4683,21 +4683,21 @@
       </c>
       <c r="D197">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E197">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F197" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <f t="shared" si="14"/>
-        <v>44019</v>
+        <v>44385</v>
       </c>
       <c r="C198">
         <f t="shared" si="10"/>
@@ -4705,21 +4705,21 @@
       </c>
       <c r="D198">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E198">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F198" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <f t="shared" si="14"/>
-        <v>44020</v>
+        <v>44386</v>
       </c>
       <c r="C199">
         <f t="shared" si="10"/>
@@ -4727,21 +4727,21 @@
       </c>
       <c r="D199">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E199">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F199" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <f t="shared" si="14"/>
-        <v>44021</v>
+        <v>44387</v>
       </c>
       <c r="C200">
         <f t="shared" si="10"/>
@@ -4749,21 +4749,21 @@
       </c>
       <c r="D200">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F200" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <f t="shared" si="14"/>
-        <v>44022</v>
+        <v>44388</v>
       </c>
       <c r="C201">
         <f t="shared" si="10"/>
@@ -4771,21 +4771,21 @@
       </c>
       <c r="D201">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F201" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <f t="shared" si="14"/>
-        <v>44023</v>
+        <v>44389</v>
       </c>
       <c r="C202">
         <f t="shared" si="10"/>
@@ -4793,21 +4793,21 @@
       </c>
       <c r="D202">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E202">
         <f t="shared" si="12"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F202" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <f t="shared" si="14"/>
-        <v>44024</v>
+        <v>44390</v>
       </c>
       <c r="C203">
         <f t="shared" ref="C203:C266" si="15">MONTH(B203)</f>
@@ -4815,21 +4815,21 @@
       </c>
       <c r="D203">
         <f t="shared" ref="D203:D266" si="16">DAY(B203)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E203">
         <f t="shared" ref="E203:E266" si="17">YEAR(B203)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F203" s="6" t="str">
         <f t="shared" ref="F203:F266" si="18">$I$3&amp;$I$4&amp;C203&amp;$I$5&amp;D203&amp;$I$6&amp;E203&amp;$I$7</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <f t="shared" ref="B204:B267" si="19">B203+1</f>
-        <v>44025</v>
+        <v>44391</v>
       </c>
       <c r="C204">
         <f t="shared" si="15"/>
@@ -4837,21 +4837,21 @@
       </c>
       <c r="D204">
         <f t="shared" si="16"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E204">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F204" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <f t="shared" si="19"/>
-        <v>44026</v>
+        <v>44392</v>
       </c>
       <c r="C205">
         <f t="shared" si="15"/>
@@ -4859,21 +4859,21 @@
       </c>
       <c r="D205">
         <f t="shared" si="16"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E205">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F205" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <f t="shared" si="19"/>
-        <v>44027</v>
+        <v>44393</v>
       </c>
       <c r="C206">
         <f t="shared" si="15"/>
@@ -4881,21 +4881,21 @@
       </c>
       <c r="D206">
         <f t="shared" si="16"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E206">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F206" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <f t="shared" si="19"/>
-        <v>44028</v>
+        <v>44394</v>
       </c>
       <c r="C207">
         <f t="shared" si="15"/>
@@ -4903,21 +4903,21 @@
       </c>
       <c r="D207">
         <f t="shared" si="16"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E207">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F207" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <f t="shared" si="19"/>
-        <v>44029</v>
+        <v>44395</v>
       </c>
       <c r="C208">
         <f t="shared" si="15"/>
@@ -4925,21 +4925,21 @@
       </c>
       <c r="D208">
         <f t="shared" si="16"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E208">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F208" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <f t="shared" si="19"/>
-        <v>44030</v>
+        <v>44396</v>
       </c>
       <c r="C209">
         <f t="shared" si="15"/>
@@ -4947,21 +4947,21 @@
       </c>
       <c r="D209">
         <f t="shared" si="16"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E209">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F209" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <f t="shared" si="19"/>
-        <v>44031</v>
+        <v>44397</v>
       </c>
       <c r="C210">
         <f t="shared" si="15"/>
@@ -4969,21 +4969,21 @@
       </c>
       <c r="D210">
         <f t="shared" si="16"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E210">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F210" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <f t="shared" si="19"/>
-        <v>44032</v>
+        <v>44398</v>
       </c>
       <c r="C211">
         <f t="shared" si="15"/>
@@ -4991,21 +4991,21 @@
       </c>
       <c r="D211">
         <f t="shared" si="16"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E211">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F211" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <f t="shared" si="19"/>
-        <v>44033</v>
+        <v>44399</v>
       </c>
       <c r="C212">
         <f t="shared" si="15"/>
@@ -5013,21 +5013,21 @@
       </c>
       <c r="D212">
         <f t="shared" si="16"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E212">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F212" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <f t="shared" si="19"/>
-        <v>44034</v>
+        <v>44400</v>
       </c>
       <c r="C213">
         <f t="shared" si="15"/>
@@ -5035,21 +5035,21 @@
       </c>
       <c r="D213">
         <f t="shared" si="16"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E213">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F213" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <f t="shared" si="19"/>
-        <v>44035</v>
+        <v>44401</v>
       </c>
       <c r="C214">
         <f t="shared" si="15"/>
@@ -5057,21 +5057,21 @@
       </c>
       <c r="D214">
         <f t="shared" si="16"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E214">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F214" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <f t="shared" si="19"/>
-        <v>44036</v>
+        <v>44402</v>
       </c>
       <c r="C215">
         <f t="shared" si="15"/>
@@ -5079,21 +5079,21 @@
       </c>
       <c r="D215">
         <f t="shared" si="16"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E215">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F215" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <f t="shared" si="19"/>
-        <v>44037</v>
+        <v>44403</v>
       </c>
       <c r="C216">
         <f t="shared" si="15"/>
@@ -5101,21 +5101,21 @@
       </c>
       <c r="D216">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E216">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F216" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <f t="shared" si="19"/>
-        <v>44038</v>
+        <v>44404</v>
       </c>
       <c r="C217">
         <f t="shared" si="15"/>
@@ -5123,21 +5123,21 @@
       </c>
       <c r="D217">
         <f t="shared" si="16"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E217">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F217" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <f t="shared" si="19"/>
-        <v>44039</v>
+        <v>44405</v>
       </c>
       <c r="C218">
         <f t="shared" si="15"/>
@@ -5145,21 +5145,21 @@
       </c>
       <c r="D218">
         <f t="shared" si="16"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E218">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F218" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <f t="shared" si="19"/>
-        <v>44040</v>
+        <v>44406</v>
       </c>
       <c r="C219">
         <f t="shared" si="15"/>
@@ -5167,21 +5167,21 @@
       </c>
       <c r="D219">
         <f t="shared" si="16"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E219">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F219" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <f t="shared" si="19"/>
-        <v>44041</v>
+        <v>44407</v>
       </c>
       <c r="C220">
         <f t="shared" si="15"/>
@@ -5189,21 +5189,21 @@
       </c>
       <c r="D220">
         <f t="shared" si="16"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E220">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F220" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <f t="shared" si="19"/>
-        <v>44042</v>
+        <v>44408</v>
       </c>
       <c r="C221">
         <f t="shared" si="15"/>
@@ -5211,43 +5211,43 @@
       </c>
       <c r="D221">
         <f t="shared" si="16"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E221">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F221" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=31&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <f t="shared" si="19"/>
-        <v>44043</v>
+        <v>44409</v>
       </c>
       <c r="C222">
         <f t="shared" si="15"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D222">
         <f t="shared" si="16"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E222">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F222" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=31&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <f t="shared" si="19"/>
-        <v>44044</v>
+        <v>44410</v>
       </c>
       <c r="C223">
         <f t="shared" si="15"/>
@@ -5255,21 +5255,21 @@
       </c>
       <c r="D223">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E223">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F223" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <f t="shared" si="19"/>
-        <v>44045</v>
+        <v>44411</v>
       </c>
       <c r="C224">
         <f t="shared" si="15"/>
@@ -5277,21 +5277,21 @@
       </c>
       <c r="D224">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E224">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F224" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <f t="shared" si="19"/>
-        <v>44046</v>
+        <v>44412</v>
       </c>
       <c r="C225">
         <f t="shared" si="15"/>
@@ -5299,21 +5299,21 @@
       </c>
       <c r="D225">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E225">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F225" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <f t="shared" si="19"/>
-        <v>44047</v>
+        <v>44413</v>
       </c>
       <c r="C226">
         <f t="shared" si="15"/>
@@ -5321,21 +5321,21 @@
       </c>
       <c r="D226">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E226">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F226" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <f t="shared" si="19"/>
-        <v>44048</v>
+        <v>44414</v>
       </c>
       <c r="C227">
         <f t="shared" si="15"/>
@@ -5343,21 +5343,21 @@
       </c>
       <c r="D227">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E227">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F227" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <f t="shared" si="19"/>
-        <v>44049</v>
+        <v>44415</v>
       </c>
       <c r="C228">
         <f t="shared" si="15"/>
@@ -5365,21 +5365,21 @@
       </c>
       <c r="D228">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E228">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F228" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <f t="shared" si="19"/>
-        <v>44050</v>
+        <v>44416</v>
       </c>
       <c r="C229">
         <f t="shared" si="15"/>
@@ -5387,21 +5387,21 @@
       </c>
       <c r="D229">
         <f t="shared" si="16"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E229">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F229" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <f t="shared" si="19"/>
-        <v>44051</v>
+        <v>44417</v>
       </c>
       <c r="C230">
         <f t="shared" si="15"/>
@@ -5409,21 +5409,21 @@
       </c>
       <c r="D230">
         <f t="shared" si="16"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E230">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F230" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <f t="shared" si="19"/>
-        <v>44052</v>
+        <v>44418</v>
       </c>
       <c r="C231">
         <f t="shared" si="15"/>
@@ -5431,21 +5431,21 @@
       </c>
       <c r="D231">
         <f t="shared" si="16"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E231">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F231" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <f t="shared" si="19"/>
-        <v>44053</v>
+        <v>44419</v>
       </c>
       <c r="C232">
         <f t="shared" si="15"/>
@@ -5453,21 +5453,21 @@
       </c>
       <c r="D232">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E232">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F232" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <f t="shared" si="19"/>
-        <v>44054</v>
+        <v>44420</v>
       </c>
       <c r="C233">
         <f t="shared" si="15"/>
@@ -5475,21 +5475,21 @@
       </c>
       <c r="D233">
         <f t="shared" si="16"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E233">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F233" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <f t="shared" si="19"/>
-        <v>44055</v>
+        <v>44421</v>
       </c>
       <c r="C234">
         <f t="shared" si="15"/>
@@ -5497,21 +5497,21 @@
       </c>
       <c r="D234">
         <f t="shared" si="16"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E234">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F234" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <f t="shared" si="19"/>
-        <v>44056</v>
+        <v>44422</v>
       </c>
       <c r="C235">
         <f t="shared" si="15"/>
@@ -5519,21 +5519,21 @@
       </c>
       <c r="D235">
         <f t="shared" si="16"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E235">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F235" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <f t="shared" si="19"/>
-        <v>44057</v>
+        <v>44423</v>
       </c>
       <c r="C236">
         <f t="shared" si="15"/>
@@ -5541,21 +5541,21 @@
       </c>
       <c r="D236">
         <f t="shared" si="16"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E236">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F236" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <f t="shared" si="19"/>
-        <v>44058</v>
+        <v>44424</v>
       </c>
       <c r="C237">
         <f t="shared" si="15"/>
@@ -5563,21 +5563,21 @@
       </c>
       <c r="D237">
         <f t="shared" si="16"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E237">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F237" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <f t="shared" si="19"/>
-        <v>44059</v>
+        <v>44425</v>
       </c>
       <c r="C238">
         <f t="shared" si="15"/>
@@ -5585,21 +5585,21 @@
       </c>
       <c r="D238">
         <f t="shared" si="16"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E238">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F238" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <f t="shared" si="19"/>
-        <v>44060</v>
+        <v>44426</v>
       </c>
       <c r="C239">
         <f t="shared" si="15"/>
@@ -5607,21 +5607,21 @@
       </c>
       <c r="D239">
         <f t="shared" si="16"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E239">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F239" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <f t="shared" si="19"/>
-        <v>44061</v>
+        <v>44427</v>
       </c>
       <c r="C240">
         <f t="shared" si="15"/>
@@ -5629,21 +5629,21 @@
       </c>
       <c r="D240">
         <f t="shared" si="16"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E240">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F240" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <f t="shared" si="19"/>
-        <v>44062</v>
+        <v>44428</v>
       </c>
       <c r="C241">
         <f t="shared" si="15"/>
@@ -5651,21 +5651,21 @@
       </c>
       <c r="D241">
         <f t="shared" si="16"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E241">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F241" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <f t="shared" si="19"/>
-        <v>44063</v>
+        <v>44429</v>
       </c>
       <c r="C242">
         <f t="shared" si="15"/>
@@ -5673,21 +5673,21 @@
       </c>
       <c r="D242">
         <f t="shared" si="16"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E242">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F242" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <f t="shared" si="19"/>
-        <v>44064</v>
+        <v>44430</v>
       </c>
       <c r="C243">
         <f t="shared" si="15"/>
@@ -5695,21 +5695,21 @@
       </c>
       <c r="D243">
         <f t="shared" si="16"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E243">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F243" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <f t="shared" si="19"/>
-        <v>44065</v>
+        <v>44431</v>
       </c>
       <c r="C244">
         <f t="shared" si="15"/>
@@ -5717,21 +5717,21 @@
       </c>
       <c r="D244">
         <f t="shared" si="16"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E244">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F244" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <f t="shared" si="19"/>
-        <v>44066</v>
+        <v>44432</v>
       </c>
       <c r="C245">
         <f t="shared" si="15"/>
@@ -5739,21 +5739,21 @@
       </c>
       <c r="D245">
         <f t="shared" si="16"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E245">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F245" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <f t="shared" si="19"/>
-        <v>44067</v>
+        <v>44433</v>
       </c>
       <c r="C246">
         <f t="shared" si="15"/>
@@ -5761,21 +5761,21 @@
       </c>
       <c r="D246">
         <f t="shared" si="16"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E246">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F246" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <f t="shared" si="19"/>
-        <v>44068</v>
+        <v>44434</v>
       </c>
       <c r="C247">
         <f t="shared" si="15"/>
@@ -5783,21 +5783,21 @@
       </c>
       <c r="D247">
         <f t="shared" si="16"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E247">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F247" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <f t="shared" si="19"/>
-        <v>44069</v>
+        <v>44435</v>
       </c>
       <c r="C248">
         <f t="shared" si="15"/>
@@ -5805,21 +5805,21 @@
       </c>
       <c r="D248">
         <f t="shared" si="16"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E248">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F248" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <f t="shared" si="19"/>
-        <v>44070</v>
+        <v>44436</v>
       </c>
       <c r="C249">
         <f t="shared" si="15"/>
@@ -5827,21 +5827,21 @@
       </c>
       <c r="D249">
         <f t="shared" si="16"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E249">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F249" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <f t="shared" si="19"/>
-        <v>44071</v>
+        <v>44437</v>
       </c>
       <c r="C250">
         <f t="shared" si="15"/>
@@ -5849,21 +5849,21 @@
       </c>
       <c r="D250">
         <f t="shared" si="16"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E250">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F250" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <f t="shared" si="19"/>
-        <v>44072</v>
+        <v>44438</v>
       </c>
       <c r="C251">
         <f t="shared" si="15"/>
@@ -5871,21 +5871,21 @@
       </c>
       <c r="D251">
         <f t="shared" si="16"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E251">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F251" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <f t="shared" si="19"/>
-        <v>44073</v>
+        <v>44439</v>
       </c>
       <c r="C252">
         <f t="shared" si="15"/>
@@ -5893,43 +5893,43 @@
       </c>
       <c r="D252">
         <f t="shared" si="16"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E252">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F252" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=31&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <f t="shared" si="19"/>
-        <v>44074</v>
+        <v>44440</v>
       </c>
       <c r="C253">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D253">
         <f t="shared" si="16"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E253">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F253" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=31&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <f t="shared" si="19"/>
-        <v>44075</v>
+        <v>44441</v>
       </c>
       <c r="C254">
         <f t="shared" si="15"/>
@@ -5937,21 +5937,21 @@
       </c>
       <c r="D254">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E254">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F254" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <f t="shared" si="19"/>
-        <v>44076</v>
+        <v>44442</v>
       </c>
       <c r="C255">
         <f t="shared" si="15"/>
@@ -5959,21 +5959,21 @@
       </c>
       <c r="D255">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E255">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F255" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <f t="shared" si="19"/>
-        <v>44077</v>
+        <v>44443</v>
       </c>
       <c r="C256">
         <f t="shared" si="15"/>
@@ -5981,21 +5981,21 @@
       </c>
       <c r="D256">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E256">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F256" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B257" s="1">
         <f t="shared" si="19"/>
-        <v>44078</v>
+        <v>44444</v>
       </c>
       <c r="C257">
         <f t="shared" si="15"/>
@@ -6003,21 +6003,21 @@
       </c>
       <c r="D257">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E257">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F257" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B258" s="1">
         <f t="shared" si="19"/>
-        <v>44079</v>
+        <v>44445</v>
       </c>
       <c r="C258">
         <f t="shared" si="15"/>
@@ -6025,21 +6025,21 @@
       </c>
       <c r="D258">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E258">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F258" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B259" s="1">
         <f t="shared" si="19"/>
-        <v>44080</v>
+        <v>44446</v>
       </c>
       <c r="C259">
         <f t="shared" si="15"/>
@@ -6047,21 +6047,21 @@
       </c>
       <c r="D259">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E259">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F259" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B260" s="1">
         <f t="shared" si="19"/>
-        <v>44081</v>
+        <v>44447</v>
       </c>
       <c r="C260">
         <f t="shared" si="15"/>
@@ -6069,21 +6069,21 @@
       </c>
       <c r="D260">
         <f t="shared" si="16"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E260">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F260" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B261" s="1">
         <f t="shared" si="19"/>
-        <v>44082</v>
+        <v>44448</v>
       </c>
       <c r="C261">
         <f t="shared" si="15"/>
@@ -6091,21 +6091,21 @@
       </c>
       <c r="D261">
         <f t="shared" si="16"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E261">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F261" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B262" s="1">
         <f t="shared" si="19"/>
-        <v>44083</v>
+        <v>44449</v>
       </c>
       <c r="C262">
         <f t="shared" si="15"/>
@@ -6113,21 +6113,21 @@
       </c>
       <c r="D262">
         <f t="shared" si="16"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E262">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F262" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B263" s="1">
         <f t="shared" si="19"/>
-        <v>44084</v>
+        <v>44450</v>
       </c>
       <c r="C263">
         <f t="shared" si="15"/>
@@ -6135,21 +6135,21 @@
       </c>
       <c r="D263">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E263">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F263" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B264" s="1">
         <f t="shared" si="19"/>
-        <v>44085</v>
+        <v>44451</v>
       </c>
       <c r="C264">
         <f t="shared" si="15"/>
@@ -6157,21 +6157,21 @@
       </c>
       <c r="D264">
         <f t="shared" si="16"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E264">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F264" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B265" s="1">
         <f t="shared" si="19"/>
-        <v>44086</v>
+        <v>44452</v>
       </c>
       <c r="C265">
         <f t="shared" si="15"/>
@@ -6179,21 +6179,21 @@
       </c>
       <c r="D265">
         <f t="shared" si="16"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E265">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F265" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B266" s="1">
         <f t="shared" si="19"/>
-        <v>44087</v>
+        <v>44453</v>
       </c>
       <c r="C266">
         <f t="shared" si="15"/>
@@ -6201,21 +6201,21 @@
       </c>
       <c r="D266">
         <f t="shared" si="16"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E266">
         <f t="shared" si="17"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F266" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="267" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B267" s="1">
         <f t="shared" si="19"/>
-        <v>44088</v>
+        <v>44454</v>
       </c>
       <c r="C267">
         <f t="shared" ref="C267:C330" si="20">MONTH(B267)</f>
@@ -6223,21 +6223,21 @@
       </c>
       <c r="D267">
         <f t="shared" ref="D267:D330" si="21">DAY(B267)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E267">
         <f t="shared" ref="E267:E330" si="22">YEAR(B267)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F267" s="6" t="str">
         <f t="shared" ref="F267:F330" si="23">$I$3&amp;$I$4&amp;C267&amp;$I$5&amp;D267&amp;$I$6&amp;E267&amp;$I$7</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="268" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B268" s="1">
         <f t="shared" ref="B268:B331" si="24">B267+1</f>
-        <v>44089</v>
+        <v>44455</v>
       </c>
       <c r="C268">
         <f t="shared" si="20"/>
@@ -6245,21 +6245,21 @@
       </c>
       <c r="D268">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E268">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F268" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="269" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B269" s="1">
         <f t="shared" si="24"/>
-        <v>44090</v>
+        <v>44456</v>
       </c>
       <c r="C269">
         <f t="shared" si="20"/>
@@ -6267,21 +6267,21 @@
       </c>
       <c r="D269">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E269">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F269" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="270" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B270" s="1">
         <f t="shared" si="24"/>
-        <v>44091</v>
+        <v>44457</v>
       </c>
       <c r="C270">
         <f t="shared" si="20"/>
@@ -6289,21 +6289,21 @@
       </c>
       <c r="D270">
         <f t="shared" si="21"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E270">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F270" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="271" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B271" s="1">
         <f t="shared" si="24"/>
-        <v>44092</v>
+        <v>44458</v>
       </c>
       <c r="C271">
         <f t="shared" si="20"/>
@@ -6311,21 +6311,21 @@
       </c>
       <c r="D271">
         <f t="shared" si="21"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E271">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F271" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B272" s="1">
         <f t="shared" si="24"/>
-        <v>44093</v>
+        <v>44459</v>
       </c>
       <c r="C272">
         <f t="shared" si="20"/>
@@ -6333,21 +6333,21 @@
       </c>
       <c r="D272">
         <f t="shared" si="21"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E272">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F272" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B273" s="1">
         <f t="shared" si="24"/>
-        <v>44094</v>
+        <v>44460</v>
       </c>
       <c r="C273">
         <f t="shared" si="20"/>
@@ -6355,21 +6355,21 @@
       </c>
       <c r="D273">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E273">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F273" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B274" s="1">
         <f t="shared" si="24"/>
-        <v>44095</v>
+        <v>44461</v>
       </c>
       <c r="C274">
         <f t="shared" si="20"/>
@@ -6377,21 +6377,21 @@
       </c>
       <c r="D274">
         <f t="shared" si="21"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E274">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F274" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B275" s="1">
         <f t="shared" si="24"/>
-        <v>44096</v>
+        <v>44462</v>
       </c>
       <c r="C275">
         <f t="shared" si="20"/>
@@ -6399,21 +6399,21 @@
       </c>
       <c r="D275">
         <f t="shared" si="21"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E275">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F275" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B276" s="1">
         <f t="shared" si="24"/>
-        <v>44097</v>
+        <v>44463</v>
       </c>
       <c r="C276">
         <f t="shared" si="20"/>
@@ -6421,21 +6421,21 @@
       </c>
       <c r="D276">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E276">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F276" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B277" s="1">
         <f t="shared" si="24"/>
-        <v>44098</v>
+        <v>44464</v>
       </c>
       <c r="C277">
         <f t="shared" si="20"/>
@@ -6443,21 +6443,21 @@
       </c>
       <c r="D277">
         <f t="shared" si="21"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E277">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F277" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="278" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B278" s="1">
         <f t="shared" si="24"/>
-        <v>44099</v>
+        <v>44465</v>
       </c>
       <c r="C278">
         <f t="shared" si="20"/>
@@ -6465,21 +6465,21 @@
       </c>
       <c r="D278">
         <f t="shared" si="21"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E278">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F278" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="279" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B279" s="1">
         <f t="shared" si="24"/>
-        <v>44100</v>
+        <v>44466</v>
       </c>
       <c r="C279">
         <f t="shared" si="20"/>
@@ -6487,21 +6487,21 @@
       </c>
       <c r="D279">
         <f t="shared" si="21"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E279">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F279" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="280" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B280" s="1">
         <f t="shared" si="24"/>
-        <v>44101</v>
+        <v>44467</v>
       </c>
       <c r="C280">
         <f t="shared" si="20"/>
@@ -6509,21 +6509,21 @@
       </c>
       <c r="D280">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E280">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F280" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B281" s="1">
         <f t="shared" si="24"/>
-        <v>44102</v>
+        <v>44468</v>
       </c>
       <c r="C281">
         <f t="shared" si="20"/>
@@ -6531,21 +6531,21 @@
       </c>
       <c r="D281">
         <f t="shared" si="21"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E281">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F281" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B282" s="1">
         <f t="shared" si="24"/>
-        <v>44103</v>
+        <v>44469</v>
       </c>
       <c r="C282">
         <f t="shared" si="20"/>
@@ -6553,43 +6553,43 @@
       </c>
       <c r="D282">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E282">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F282" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B283" s="1">
         <f t="shared" si="24"/>
-        <v>44104</v>
+        <v>44470</v>
       </c>
       <c r="C283">
         <f t="shared" si="20"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D283">
         <f t="shared" si="21"/>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E283">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F283" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B284" s="1">
         <f t="shared" si="24"/>
-        <v>44105</v>
+        <v>44471</v>
       </c>
       <c r="C284">
         <f t="shared" si="20"/>
@@ -6597,21 +6597,21 @@
       </c>
       <c r="D284">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E284">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F284" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B285" s="1">
         <f t="shared" si="24"/>
-        <v>44106</v>
+        <v>44472</v>
       </c>
       <c r="C285">
         <f t="shared" si="20"/>
@@ -6619,21 +6619,21 @@
       </c>
       <c r="D285">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E285">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F285" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B286" s="1">
         <f t="shared" si="24"/>
-        <v>44107</v>
+        <v>44473</v>
       </c>
       <c r="C286">
         <f t="shared" si="20"/>
@@ -6641,21 +6641,21 @@
       </c>
       <c r="D286">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E286">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F286" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B287" s="1">
         <f t="shared" si="24"/>
-        <v>44108</v>
+        <v>44474</v>
       </c>
       <c r="C287">
         <f t="shared" si="20"/>
@@ -6663,21 +6663,21 @@
       </c>
       <c r="D287">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E287">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F287" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="288" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B288" s="1">
         <f t="shared" si="24"/>
-        <v>44109</v>
+        <v>44475</v>
       </c>
       <c r="C288">
         <f t="shared" si="20"/>
@@ -6685,21 +6685,21 @@
       </c>
       <c r="D288">
         <f t="shared" si="21"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E288">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F288" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B289" s="1">
         <f t="shared" si="24"/>
-        <v>44110</v>
+        <v>44476</v>
       </c>
       <c r="C289">
         <f t="shared" si="20"/>
@@ -6707,21 +6707,21 @@
       </c>
       <c r="D289">
         <f t="shared" si="21"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E289">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F289" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="290" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B290" s="1">
         <f t="shared" si="24"/>
-        <v>44111</v>
+        <v>44477</v>
       </c>
       <c r="C290">
         <f t="shared" si="20"/>
@@ -6729,21 +6729,21 @@
       </c>
       <c r="D290">
         <f t="shared" si="21"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E290">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F290" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="291" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B291" s="1">
         <f t="shared" si="24"/>
-        <v>44112</v>
+        <v>44478</v>
       </c>
       <c r="C291">
         <f t="shared" si="20"/>
@@ -6751,21 +6751,21 @@
       </c>
       <c r="D291">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E291">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F291" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B292" s="1">
         <f t="shared" si="24"/>
-        <v>44113</v>
+        <v>44479</v>
       </c>
       <c r="C292">
         <f t="shared" si="20"/>
@@ -6773,21 +6773,21 @@
       </c>
       <c r="D292">
         <f t="shared" si="21"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E292">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F292" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B293" s="1">
         <f t="shared" si="24"/>
-        <v>44114</v>
+        <v>44480</v>
       </c>
       <c r="C293">
         <f t="shared" si="20"/>
@@ -6795,21 +6795,21 @@
       </c>
       <c r="D293">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E293">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F293" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B294" s="1">
         <f t="shared" si="24"/>
-        <v>44115</v>
+        <v>44481</v>
       </c>
       <c r="C294">
         <f t="shared" si="20"/>
@@ -6817,21 +6817,21 @@
       </c>
       <c r="D294">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E294">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F294" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B295" s="1">
         <f t="shared" si="24"/>
-        <v>44116</v>
+        <v>44482</v>
       </c>
       <c r="C295">
         <f t="shared" si="20"/>
@@ -6839,21 +6839,21 @@
       </c>
       <c r="D295">
         <f t="shared" si="21"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E295">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F295" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B296" s="1">
         <f t="shared" si="24"/>
-        <v>44117</v>
+        <v>44483</v>
       </c>
       <c r="C296">
         <f t="shared" si="20"/>
@@ -6861,21 +6861,21 @@
       </c>
       <c r="D296">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E296">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F296" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B297" s="1">
         <f t="shared" si="24"/>
-        <v>44118</v>
+        <v>44484</v>
       </c>
       <c r="C297">
         <f t="shared" si="20"/>
@@ -6883,21 +6883,21 @@
       </c>
       <c r="D297">
         <f t="shared" si="21"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E297">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F297" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="298" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B298" s="1">
         <f t="shared" si="24"/>
-        <v>44119</v>
+        <v>44485</v>
       </c>
       <c r="C298">
         <f t="shared" si="20"/>
@@ -6905,21 +6905,21 @@
       </c>
       <c r="D298">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E298">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F298" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B299" s="1">
         <f t="shared" si="24"/>
-        <v>44120</v>
+        <v>44486</v>
       </c>
       <c r="C299">
         <f t="shared" si="20"/>
@@ -6927,21 +6927,21 @@
       </c>
       <c r="D299">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E299">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F299" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B300" s="1">
         <f t="shared" si="24"/>
-        <v>44121</v>
+        <v>44487</v>
       </c>
       <c r="C300">
         <f t="shared" si="20"/>
@@ -6949,21 +6949,21 @@
       </c>
       <c r="D300">
         <f t="shared" si="21"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E300">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F300" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B301" s="1">
         <f t="shared" si="24"/>
-        <v>44122</v>
+        <v>44488</v>
       </c>
       <c r="C301">
         <f t="shared" si="20"/>
@@ -6971,21 +6971,21 @@
       </c>
       <c r="D301">
         <f t="shared" si="21"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E301">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F301" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="302" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B302" s="1">
         <f t="shared" si="24"/>
-        <v>44123</v>
+        <v>44489</v>
       </c>
       <c r="C302">
         <f t="shared" si="20"/>
@@ -6993,21 +6993,21 @@
       </c>
       <c r="D302">
         <f t="shared" si="21"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E302">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F302" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B303" s="1">
         <f t="shared" si="24"/>
-        <v>44124</v>
+        <v>44490</v>
       </c>
       <c r="C303">
         <f t="shared" si="20"/>
@@ -7015,21 +7015,21 @@
       </c>
       <c r="D303">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E303">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F303" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B304" s="1">
         <f t="shared" si="24"/>
-        <v>44125</v>
+        <v>44491</v>
       </c>
       <c r="C304">
         <f t="shared" si="20"/>
@@ -7037,21 +7037,21 @@
       </c>
       <c r="D304">
         <f t="shared" si="21"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E304">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F304" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B305" s="1">
         <f t="shared" si="24"/>
-        <v>44126</v>
+        <v>44492</v>
       </c>
       <c r="C305">
         <f t="shared" si="20"/>
@@ -7059,21 +7059,21 @@
       </c>
       <c r="D305">
         <f t="shared" si="21"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E305">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F305" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="306" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B306" s="1">
         <f t="shared" si="24"/>
-        <v>44127</v>
+        <v>44493</v>
       </c>
       <c r="C306">
         <f t="shared" si="20"/>
@@ -7081,21 +7081,21 @@
       </c>
       <c r="D306">
         <f t="shared" si="21"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E306">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F306" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="307" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B307" s="1">
         <f t="shared" si="24"/>
-        <v>44128</v>
+        <v>44494</v>
       </c>
       <c r="C307">
         <f t="shared" si="20"/>
@@ -7103,21 +7103,21 @@
       </c>
       <c r="D307">
         <f t="shared" si="21"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E307">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F307" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B308" s="1">
         <f t="shared" si="24"/>
-        <v>44129</v>
+        <v>44495</v>
       </c>
       <c r="C308">
         <f t="shared" si="20"/>
@@ -7125,21 +7125,21 @@
       </c>
       <c r="D308">
         <f t="shared" si="21"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E308">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F308" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="309" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B309" s="1">
         <f t="shared" si="24"/>
-        <v>44130</v>
+        <v>44496</v>
       </c>
       <c r="C309">
         <f t="shared" si="20"/>
@@ -7147,21 +7147,21 @@
       </c>
       <c r="D309">
         <f t="shared" si="21"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E309">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F309" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B310" s="1">
         <f t="shared" si="24"/>
-        <v>44131</v>
+        <v>44497</v>
       </c>
       <c r="C310">
         <f t="shared" si="20"/>
@@ -7169,21 +7169,21 @@
       </c>
       <c r="D310">
         <f t="shared" si="21"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E310">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F310" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="311" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B311" s="1">
         <f t="shared" si="24"/>
-        <v>44132</v>
+        <v>44498</v>
       </c>
       <c r="C311">
         <f t="shared" si="20"/>
@@ -7191,21 +7191,21 @@
       </c>
       <c r="D311">
         <f t="shared" si="21"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E311">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F311" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="312" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B312" s="1">
         <f t="shared" si="24"/>
-        <v>44133</v>
+        <v>44499</v>
       </c>
       <c r="C312">
         <f t="shared" si="20"/>
@@ -7213,21 +7213,21 @@
       </c>
       <c r="D312">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E312">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F312" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="313" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B313" s="1">
         <f t="shared" si="24"/>
-        <v>44134</v>
+        <v>44500</v>
       </c>
       <c r="C313">
         <f t="shared" si="20"/>
@@ -7235,43 +7235,43 @@
       </c>
       <c r="D313">
         <f t="shared" si="21"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E313">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F313" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=31&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="314" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B314" s="1">
         <f t="shared" si="24"/>
-        <v>44135</v>
+        <v>44501</v>
       </c>
       <c r="C314">
         <f t="shared" si="20"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D314">
         <f t="shared" si="21"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E314">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F314" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=31&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="315" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B315" s="1">
         <f t="shared" si="24"/>
-        <v>44136</v>
+        <v>44502</v>
       </c>
       <c r="C315">
         <f t="shared" si="20"/>
@@ -7279,21 +7279,21 @@
       </c>
       <c r="D315">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E315">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F315" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="316" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B316" s="1">
         <f t="shared" si="24"/>
-        <v>44137</v>
+        <v>44503</v>
       </c>
       <c r="C316">
         <f t="shared" si="20"/>
@@ -7301,21 +7301,21 @@
       </c>
       <c r="D316">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E316">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F316" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B317" s="1">
         <f t="shared" si="24"/>
-        <v>44138</v>
+        <v>44504</v>
       </c>
       <c r="C317">
         <f t="shared" si="20"/>
@@ -7323,21 +7323,21 @@
       </c>
       <c r="D317">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E317">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F317" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="318" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B318" s="1">
         <f t="shared" si="24"/>
-        <v>44139</v>
+        <v>44505</v>
       </c>
       <c r="C318">
         <f t="shared" si="20"/>
@@ -7345,21 +7345,21 @@
       </c>
       <c r="D318">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E318">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F318" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="319" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B319" s="1">
         <f t="shared" si="24"/>
-        <v>44140</v>
+        <v>44506</v>
       </c>
       <c r="C319">
         <f t="shared" si="20"/>
@@ -7367,21 +7367,21 @@
       </c>
       <c r="D319">
         <f t="shared" si="21"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E319">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F319" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="320" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B320" s="1">
         <f t="shared" si="24"/>
-        <v>44141</v>
+        <v>44507</v>
       </c>
       <c r="C320">
         <f t="shared" si="20"/>
@@ -7389,21 +7389,21 @@
       </c>
       <c r="D320">
         <f t="shared" si="21"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E320">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F320" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="321" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B321" s="1">
         <f t="shared" si="24"/>
-        <v>44142</v>
+        <v>44508</v>
       </c>
       <c r="C321">
         <f t="shared" si="20"/>
@@ -7411,21 +7411,21 @@
       </c>
       <c r="D321">
         <f t="shared" si="21"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E321">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F321" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="322" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B322" s="1">
         <f t="shared" si="24"/>
-        <v>44143</v>
+        <v>44509</v>
       </c>
       <c r="C322">
         <f t="shared" si="20"/>
@@ -7433,21 +7433,21 @@
       </c>
       <c r="D322">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E322">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F322" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="323" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B323" s="1">
         <f t="shared" si="24"/>
-        <v>44144</v>
+        <v>44510</v>
       </c>
       <c r="C323">
         <f t="shared" si="20"/>
@@ -7455,21 +7455,21 @@
       </c>
       <c r="D323">
         <f t="shared" si="21"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E323">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F323" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="324" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B324" s="1">
         <f t="shared" si="24"/>
-        <v>44145</v>
+        <v>44511</v>
       </c>
       <c r="C324">
         <f t="shared" si="20"/>
@@ -7477,21 +7477,21 @@
       </c>
       <c r="D324">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E324">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F324" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="325" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B325" s="1">
         <f t="shared" si="24"/>
-        <v>44146</v>
+        <v>44512</v>
       </c>
       <c r="C325">
         <f t="shared" si="20"/>
@@ -7499,21 +7499,21 @@
       </c>
       <c r="D325">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E325">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F325" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="326" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B326" s="1">
         <f t="shared" si="24"/>
-        <v>44147</v>
+        <v>44513</v>
       </c>
       <c r="C326">
         <f t="shared" si="20"/>
@@ -7521,21 +7521,21 @@
       </c>
       <c r="D326">
         <f t="shared" si="21"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E326">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F326" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="327" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B327" s="1">
         <f t="shared" si="24"/>
-        <v>44148</v>
+        <v>44514</v>
       </c>
       <c r="C327">
         <f t="shared" si="20"/>
@@ -7543,21 +7543,21 @@
       </c>
       <c r="D327">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E327">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F327" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="328" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B328" s="1">
         <f t="shared" si="24"/>
-        <v>44149</v>
+        <v>44515</v>
       </c>
       <c r="C328">
         <f t="shared" si="20"/>
@@ -7565,21 +7565,21 @@
       </c>
       <c r="D328">
         <f t="shared" si="21"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E328">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F328" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="329" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B329" s="1">
         <f t="shared" si="24"/>
-        <v>44150</v>
+        <v>44516</v>
       </c>
       <c r="C329">
         <f t="shared" si="20"/>
@@ -7587,21 +7587,21 @@
       </c>
       <c r="D329">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E329">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F329" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="330" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B330" s="1">
         <f t="shared" si="24"/>
-        <v>44151</v>
+        <v>44517</v>
       </c>
       <c r="C330">
         <f t="shared" si="20"/>
@@ -7609,21 +7609,21 @@
       </c>
       <c r="D330">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E330">
         <f t="shared" si="22"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F330" s="6" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="331" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B331" s="1">
         <f t="shared" si="24"/>
-        <v>44152</v>
+        <v>44518</v>
       </c>
       <c r="C331">
         <f t="shared" ref="C331:C374" si="25">MONTH(B331)</f>
@@ -7631,21 +7631,21 @@
       </c>
       <c r="D331">
         <f t="shared" ref="D331:D374" si="26">DAY(B331)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E331">
         <f t="shared" ref="E331:E374" si="27">YEAR(B331)</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F331" s="6" t="str">
         <f t="shared" ref="F331:F374" si="28">$I$3&amp;$I$4&amp;C331&amp;$I$5&amp;D331&amp;$I$6&amp;E331&amp;$I$7</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="332" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B332" s="1">
         <f t="shared" ref="B332:B374" si="29">B331+1</f>
-        <v>44153</v>
+        <v>44519</v>
       </c>
       <c r="C332">
         <f t="shared" si="25"/>
@@ -7653,21 +7653,21 @@
       </c>
       <c r="D332">
         <f t="shared" si="26"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E332">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F332" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="333" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B333" s="1">
         <f t="shared" si="29"/>
-        <v>44154</v>
+        <v>44520</v>
       </c>
       <c r="C333">
         <f t="shared" si="25"/>
@@ -7675,21 +7675,21 @@
       </c>
       <c r="D333">
         <f t="shared" si="26"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E333">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F333" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="334" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B334" s="1">
         <f t="shared" si="29"/>
-        <v>44155</v>
+        <v>44521</v>
       </c>
       <c r="C334">
         <f t="shared" si="25"/>
@@ -7697,21 +7697,21 @@
       </c>
       <c r="D334">
         <f t="shared" si="26"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E334">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F334" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="335" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B335" s="1">
         <f t="shared" si="29"/>
-        <v>44156</v>
+        <v>44522</v>
       </c>
       <c r="C335">
         <f t="shared" si="25"/>
@@ -7719,21 +7719,21 @@
       </c>
       <c r="D335">
         <f t="shared" si="26"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E335">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F335" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="336" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B336" s="1">
         <f t="shared" si="29"/>
-        <v>44157</v>
+        <v>44523</v>
       </c>
       <c r="C336">
         <f t="shared" si="25"/>
@@ -7741,21 +7741,21 @@
       </c>
       <c r="D336">
         <f t="shared" si="26"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E336">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F336" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B337" s="1">
         <f t="shared" si="29"/>
-        <v>44158</v>
+        <v>44524</v>
       </c>
       <c r="C337">
         <f t="shared" si="25"/>
@@ -7763,21 +7763,21 @@
       </c>
       <c r="D337">
         <f t="shared" si="26"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E337">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F337" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="338" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B338" s="1">
         <f t="shared" si="29"/>
-        <v>44159</v>
+        <v>44525</v>
       </c>
       <c r="C338">
         <f t="shared" si="25"/>
@@ -7785,21 +7785,21 @@
       </c>
       <c r="D338">
         <f t="shared" si="26"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E338">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F338" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B339" s="1">
         <f t="shared" si="29"/>
-        <v>44160</v>
+        <v>44526</v>
       </c>
       <c r="C339">
         <f t="shared" si="25"/>
@@ -7807,21 +7807,21 @@
       </c>
       <c r="D339">
         <f t="shared" si="26"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E339">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F339" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B340" s="1">
         <f t="shared" si="29"/>
-        <v>44161</v>
+        <v>44527</v>
       </c>
       <c r="C340">
         <f t="shared" si="25"/>
@@ -7829,21 +7829,21 @@
       </c>
       <c r="D340">
         <f t="shared" si="26"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E340">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F340" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="341" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B341" s="1">
         <f t="shared" si="29"/>
-        <v>44162</v>
+        <v>44528</v>
       </c>
       <c r="C341">
         <f t="shared" si="25"/>
@@ -7851,21 +7851,21 @@
       </c>
       <c r="D341">
         <f t="shared" si="26"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E341">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F341" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="342" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B342" s="1">
         <f t="shared" si="29"/>
-        <v>44163</v>
+        <v>44529</v>
       </c>
       <c r="C342">
         <f t="shared" si="25"/>
@@ -7873,21 +7873,21 @@
       </c>
       <c r="D342">
         <f t="shared" si="26"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E342">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F342" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="343" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B343" s="1">
         <f t="shared" si="29"/>
-        <v>44164</v>
+        <v>44530</v>
       </c>
       <c r="C343">
         <f t="shared" si="25"/>
@@ -7895,43 +7895,43 @@
       </c>
       <c r="D343">
         <f t="shared" si="26"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E343">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F343" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="344" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B344" s="1">
         <f t="shared" si="29"/>
-        <v>44165</v>
+        <v>44531</v>
       </c>
       <c r="C344">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D344">
         <f t="shared" si="26"/>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E344">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F344" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B345" s="1">
         <f t="shared" si="29"/>
-        <v>44166</v>
+        <v>44532</v>
       </c>
       <c r="C345">
         <f t="shared" si="25"/>
@@ -7939,21 +7939,21 @@
       </c>
       <c r="D345">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E345">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F345" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=1&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B346" s="1">
         <f t="shared" si="29"/>
-        <v>44167</v>
+        <v>44533</v>
       </c>
       <c r="C346">
         <f t="shared" si="25"/>
@@ -7961,21 +7961,21 @@
       </c>
       <c r="D346">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E346">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F346" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=2&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B347" s="1">
         <f t="shared" si="29"/>
-        <v>44168</v>
+        <v>44534</v>
       </c>
       <c r="C347">
         <f t="shared" si="25"/>
@@ -7983,21 +7983,21 @@
       </c>
       <c r="D347">
         <f t="shared" si="26"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E347">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F347" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=3&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B348" s="1">
         <f t="shared" si="29"/>
-        <v>44169</v>
+        <v>44535</v>
       </c>
       <c r="C348">
         <f t="shared" si="25"/>
@@ -8005,21 +8005,21 @@
       </c>
       <c r="D348">
         <f t="shared" si="26"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E348">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F348" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=4&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B349" s="1">
         <f t="shared" si="29"/>
-        <v>44170</v>
+        <v>44536</v>
       </c>
       <c r="C349">
         <f t="shared" si="25"/>
@@ -8027,21 +8027,21 @@
       </c>
       <c r="D349">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E349">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F349" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=5&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="350" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B350" s="1">
         <f t="shared" si="29"/>
-        <v>44171</v>
+        <v>44537</v>
       </c>
       <c r="C350">
         <f t="shared" si="25"/>
@@ -8049,21 +8049,21 @@
       </c>
       <c r="D350">
         <f t="shared" si="26"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E350">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F350" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=6&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="351" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B351" s="1">
         <f t="shared" si="29"/>
-        <v>44172</v>
+        <v>44538</v>
       </c>
       <c r="C351">
         <f t="shared" si="25"/>
@@ -8071,21 +8071,21 @@
       </c>
       <c r="D351">
         <f t="shared" si="26"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E351">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F351" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=7&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B352" s="1">
         <f t="shared" si="29"/>
-        <v>44173</v>
+        <v>44539</v>
       </c>
       <c r="C352">
         <f t="shared" si="25"/>
@@ -8093,21 +8093,21 @@
       </c>
       <c r="D352">
         <f t="shared" si="26"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E352">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F352" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=8&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="353" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B353" s="1">
         <f t="shared" si="29"/>
-        <v>44174</v>
+        <v>44540</v>
       </c>
       <c r="C353">
         <f t="shared" si="25"/>
@@ -8115,21 +8115,21 @@
       </c>
       <c r="D353">
         <f t="shared" si="26"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E353">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F353" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=9&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B354" s="1">
         <f t="shared" si="29"/>
-        <v>44175</v>
+        <v>44541</v>
       </c>
       <c r="C354">
         <f t="shared" si="25"/>
@@ -8137,21 +8137,21 @@
       </c>
       <c r="D354">
         <f t="shared" si="26"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E354">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F354" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=10&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="355" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B355" s="1">
         <f t="shared" si="29"/>
-        <v>44176</v>
+        <v>44542</v>
       </c>
       <c r="C355">
         <f t="shared" si="25"/>
@@ -8159,21 +8159,21 @@
       </c>
       <c r="D355">
         <f t="shared" si="26"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E355">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F355" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=11&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B356" s="1">
         <f t="shared" si="29"/>
-        <v>44177</v>
+        <v>44543</v>
       </c>
       <c r="C356">
         <f t="shared" si="25"/>
@@ -8181,21 +8181,21 @@
       </c>
       <c r="D356">
         <f t="shared" si="26"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E356">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F356" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=12&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B357" s="1">
         <f t="shared" si="29"/>
-        <v>44178</v>
+        <v>44544</v>
       </c>
       <c r="C357">
         <f t="shared" si="25"/>
@@ -8203,21 +8203,21 @@
       </c>
       <c r="D357">
         <f t="shared" si="26"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E357">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F357" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=13&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="358" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B358" s="1">
         <f t="shared" si="29"/>
-        <v>44179</v>
+        <v>44545</v>
       </c>
       <c r="C358">
         <f t="shared" si="25"/>
@@ -8225,21 +8225,21 @@
       </c>
       <c r="D358">
         <f t="shared" si="26"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E358">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F358" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=14&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="359" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B359" s="1">
         <f t="shared" si="29"/>
-        <v>44180</v>
+        <v>44546</v>
       </c>
       <c r="C359">
         <f t="shared" si="25"/>
@@ -8247,21 +8247,21 @@
       </c>
       <c r="D359">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E359">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F359" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=15&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="360" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B360" s="1">
         <f t="shared" si="29"/>
-        <v>44181</v>
+        <v>44547</v>
       </c>
       <c r="C360">
         <f t="shared" si="25"/>
@@ -8269,21 +8269,21 @@
       </c>
       <c r="D360">
         <f t="shared" si="26"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E360">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F360" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=16&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="361" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B361" s="1">
         <f t="shared" si="29"/>
-        <v>44182</v>
+        <v>44548</v>
       </c>
       <c r="C361">
         <f t="shared" si="25"/>
@@ -8291,21 +8291,21 @@
       </c>
       <c r="D361">
         <f t="shared" si="26"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E361">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F361" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=17&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="362" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B362" s="1">
         <f t="shared" si="29"/>
-        <v>44183</v>
+        <v>44549</v>
       </c>
       <c r="C362">
         <f t="shared" si="25"/>
@@ -8313,21 +8313,21 @@
       </c>
       <c r="D362">
         <f t="shared" si="26"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E362">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F362" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=18&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="363" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B363" s="1">
         <f t="shared" si="29"/>
-        <v>44184</v>
+        <v>44550</v>
       </c>
       <c r="C363">
         <f t="shared" si="25"/>
@@ -8335,21 +8335,21 @@
       </c>
       <c r="D363">
         <f t="shared" si="26"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E363">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F363" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=19&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B364" s="1">
         <f t="shared" si="29"/>
-        <v>44185</v>
+        <v>44551</v>
       </c>
       <c r="C364">
         <f t="shared" si="25"/>
@@ -8357,21 +8357,21 @@
       </c>
       <c r="D364">
         <f t="shared" si="26"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E364">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F364" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=20&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B365" s="1">
         <f t="shared" si="29"/>
-        <v>44186</v>
+        <v>44552</v>
       </c>
       <c r="C365">
         <f t="shared" si="25"/>
@@ -8379,21 +8379,21 @@
       </c>
       <c r="D365">
         <f t="shared" si="26"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E365">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F365" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=21&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B366" s="1">
         <f t="shared" si="29"/>
-        <v>44187</v>
+        <v>44553</v>
       </c>
       <c r="C366">
         <f t="shared" si="25"/>
@@ -8401,21 +8401,21 @@
       </c>
       <c r="D366">
         <f t="shared" si="26"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E366">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F366" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=22&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B367" s="1">
         <f t="shared" si="29"/>
-        <v>44188</v>
+        <v>44554</v>
       </c>
       <c r="C367">
         <f t="shared" si="25"/>
@@ -8423,21 +8423,21 @@
       </c>
       <c r="D367">
         <f t="shared" si="26"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E367">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F367" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=23&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B368" s="1">
         <f t="shared" si="29"/>
-        <v>44189</v>
+        <v>44555</v>
       </c>
       <c r="C368">
         <f t="shared" si="25"/>
@@ -8445,21 +8445,21 @@
       </c>
       <c r="D368">
         <f t="shared" si="26"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E368">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F368" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=24&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="369" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B369" s="1">
         <f t="shared" si="29"/>
-        <v>44190</v>
+        <v>44556</v>
       </c>
       <c r="C369">
         <f t="shared" si="25"/>
@@ -8467,21 +8467,21 @@
       </c>
       <c r="D369">
         <f t="shared" si="26"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E369">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F369" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=25&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="370" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B370" s="1">
         <f t="shared" si="29"/>
-        <v>44191</v>
+        <v>44557</v>
       </c>
       <c r="C370">
         <f t="shared" si="25"/>
@@ -8489,21 +8489,21 @@
       </c>
       <c r="D370">
         <f t="shared" si="26"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E370">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F370" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=26&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="371" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B371" s="1">
         <f t="shared" si="29"/>
-        <v>44192</v>
+        <v>44558</v>
       </c>
       <c r="C371">
         <f t="shared" si="25"/>
@@ -8511,21 +8511,21 @@
       </c>
       <c r="D371">
         <f t="shared" si="26"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E371">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F371" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=27&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B372" s="1">
         <f t="shared" si="29"/>
-        <v>44193</v>
+        <v>44559</v>
       </c>
       <c r="C372">
         <f t="shared" si="25"/>
@@ -8533,21 +8533,21 @@
       </c>
       <c r="D372">
         <f t="shared" si="26"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E372">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F372" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=28&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B373" s="1">
         <f t="shared" si="29"/>
-        <v>44194</v>
+        <v>44560</v>
       </c>
       <c r="C373">
         <f t="shared" si="25"/>
@@ -8555,21 +8555,21 @@
       </c>
       <c r="D373">
         <f t="shared" si="26"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E373">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F373" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=29&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B374" s="1">
         <f t="shared" si="29"/>
-        <v>44195</v>
+        <v>44561</v>
       </c>
       <c r="C374">
         <f t="shared" si="25"/>
@@ -8577,37 +8577,37 @@
       </c>
       <c r="D374">
         <f t="shared" si="26"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E374">
         <f t="shared" si="27"/>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F374" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=30&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=31&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="375" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B375" s="1">
+      <c r="B375" s="1" t="str">
         <f>IF(B374=DATE(C2,12,31),"",B374+1)</f>
-        <v>44196</v>
-      </c>
-      <c r="C375">
+        <v/>
+      </c>
+      <c r="C375" t="str">
         <f>IF(B375="","",MONTH(B375))</f>
-        <v>12</v>
-      </c>
-      <c r="D375">
+        <v/>
+      </c>
+      <c r="D375" t="str">
         <f>IF(B375="","",DAY(B375))</f>
-        <v>31</v>
-      </c>
-      <c r="E375">
+        <v/>
+      </c>
+      <c r="E375" t="str">
         <f>IF(B375="","",YEAR(B375))</f>
-        <v>2020</v>
+        <v/>
       </c>
       <c r="F375" t="str">
         <f>IF(B375="","",$I$3&amp;$I$4&amp;C375&amp;$I$5&amp;D375&amp;$I$6&amp;E375&amp;$I$7)</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=31&amp;yr=2020&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/excel/generateDayLinks.xlsx
+++ b/excel/generateDayLinks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\karisch\projects\horseData\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackk\Projects\horseData\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8791A760-47C4-47F4-9C6B-37B823C3BE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8533F6-1B1E-4E6C-8C01-91BF1F69CEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27707CA5-E18E-4601-88CB-DF04115F391D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27707CA5-E18E-4601-88CB-DF04115F391D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -162,14 +154,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -487,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676633BA-22C4-4443-B279-E335ADF9F563}">
   <dimension ref="B1:I375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="F177" sqref="F177"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -560,7 +551,7 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f>DATE(C2,1,1)</f>
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="C10">
         <f>MONTH(B10)</f>
@@ -572,17 +563,17 @@
       </c>
       <c r="E10">
         <f>YEAR(B10)</f>
-        <v>2021</v>
-      </c>
-      <c r="F10" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F10" t="str">
         <f>$I$3&amp;$I$4&amp;C10&amp;$I$5&amp;D10&amp;$I$6&amp;E10&amp;$I$7</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=1&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f>B10+1</f>
-        <v>44198</v>
+        <v>44563</v>
       </c>
       <c r="C11">
         <f t="shared" ref="C11:C74" si="0">MONTH(B11)</f>
@@ -594,17 +585,17 @@
       </c>
       <c r="E11">
         <f t="shared" ref="E11:E74" si="2">YEAR(B11)</f>
-        <v>2021</v>
-      </c>
-      <c r="F11" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F11" t="str">
         <f t="shared" ref="F11:F74" si="3">$I$3&amp;$I$4&amp;C11&amp;$I$5&amp;D11&amp;$I$6&amp;E11&amp;$I$7</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=2&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" ref="B12:B75" si="4">B11+1</f>
-        <v>44199</v>
+        <v>44564</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -616,18 +607,18 @@
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F12" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F12" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=3&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" si="4"/>
-        <v>44200</v>
+        <v>44565</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -639,17 +630,17 @@
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F13" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F13" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=4&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f t="shared" si="4"/>
-        <v>44201</v>
+        <v>44566</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -661,17 +652,17 @@
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F14" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F14" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=5&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" si="4"/>
-        <v>44202</v>
+        <v>44567</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -683,17 +674,17 @@
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F15" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F15" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=6&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f t="shared" si="4"/>
-        <v>44203</v>
+        <v>44568</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -705,17 +696,17 @@
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F16" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F16" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=7&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f t="shared" si="4"/>
-        <v>44204</v>
+        <v>44569</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -727,17 +718,17 @@
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F17" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F17" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=8&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f t="shared" si="4"/>
-        <v>44205</v>
+        <v>44570</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -749,17 +740,17 @@
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F18" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F18" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=9&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f t="shared" si="4"/>
-        <v>44206</v>
+        <v>44571</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -771,17 +762,17 @@
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F19" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F19" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=10&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" si="4"/>
-        <v>44207</v>
+        <v>44572</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -793,17 +784,17 @@
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F20" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F20" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=11&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" si="4"/>
-        <v>44208</v>
+        <v>44573</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -815,17 +806,17 @@
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F21" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F21" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=12&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" si="4"/>
-        <v>44209</v>
+        <v>44574</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -837,17 +828,17 @@
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F22" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F22" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=13&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" si="4"/>
-        <v>44210</v>
+        <v>44575</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -859,17 +850,17 @@
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F23" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F23" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=14&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" si="4"/>
-        <v>44211</v>
+        <v>44576</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -881,17 +872,17 @@
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F24" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F24" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=15&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" si="4"/>
-        <v>44212</v>
+        <v>44577</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -903,17 +894,17 @@
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F25" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F25" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=16&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f t="shared" si="4"/>
-        <v>44213</v>
+        <v>44578</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -925,17 +916,17 @@
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F26" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F26" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=17&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f t="shared" si="4"/>
-        <v>44214</v>
+        <v>44579</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -947,17 +938,17 @@
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F27" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F27" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=18&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f t="shared" si="4"/>
-        <v>44215</v>
+        <v>44580</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -969,17 +960,17 @@
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F28" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F28" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=19&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f t="shared" si="4"/>
-        <v>44216</v>
+        <v>44581</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -991,17 +982,17 @@
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F29" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F29" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=20&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f t="shared" si="4"/>
-        <v>44217</v>
+        <v>44582</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -1013,17 +1004,17 @@
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F30" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F30" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=21&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f t="shared" si="4"/>
-        <v>44218</v>
+        <v>44583</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -1035,17 +1026,17 @@
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F31" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F31" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=22&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f t="shared" si="4"/>
-        <v>44219</v>
+        <v>44584</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -1057,17 +1048,17 @@
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F32" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F32" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=23&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f t="shared" si="4"/>
-        <v>44220</v>
+        <v>44585</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -1079,17 +1070,17 @@
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F33" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F33" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=24&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f t="shared" si="4"/>
-        <v>44221</v>
+        <v>44586</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -1101,17 +1092,17 @@
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F34" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F34" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=25&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f t="shared" si="4"/>
-        <v>44222</v>
+        <v>44587</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -1123,17 +1114,17 @@
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F35" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F35" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=26&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f t="shared" si="4"/>
-        <v>44223</v>
+        <v>44588</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -1145,17 +1136,17 @@
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F36" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F36" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=27&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f t="shared" si="4"/>
-        <v>44224</v>
+        <v>44589</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
@@ -1167,17 +1158,17 @@
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F37" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F37" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=28&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <f t="shared" si="4"/>
-        <v>44225</v>
+        <v>44590</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
@@ -1189,17 +1180,17 @@
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F38" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F38" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=29&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <f t="shared" si="4"/>
-        <v>44226</v>
+        <v>44591</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
@@ -1211,17 +1202,17 @@
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F39" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F39" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=30&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <f t="shared" si="4"/>
-        <v>44227</v>
+        <v>44592</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
@@ -1233,17 +1224,17 @@
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F40" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F40" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=31&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=1&amp;da=31&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <f t="shared" si="4"/>
-        <v>44228</v>
+        <v>44593</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
@@ -1255,17 +1246,17 @@
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F41" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F41" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=1&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <f t="shared" si="4"/>
-        <v>44229</v>
+        <v>44594</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
@@ -1277,17 +1268,17 @@
       </c>
       <c r="E42">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F42" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F42" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=2&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <f t="shared" si="4"/>
-        <v>44230</v>
+        <v>44595</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
@@ -1299,17 +1290,17 @@
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F43" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F43" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=3&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <f t="shared" si="4"/>
-        <v>44231</v>
+        <v>44596</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
@@ -1321,17 +1312,17 @@
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F44" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F44" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=4&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <f t="shared" si="4"/>
-        <v>44232</v>
+        <v>44597</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
@@ -1343,17 +1334,17 @@
       </c>
       <c r="E45">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F45" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F45" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=5&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <f t="shared" si="4"/>
-        <v>44233</v>
+        <v>44598</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
@@ -1365,17 +1356,17 @@
       </c>
       <c r="E46">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F46" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F46" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=6&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <f t="shared" si="4"/>
-        <v>44234</v>
+        <v>44599</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
@@ -1387,17 +1378,17 @@
       </c>
       <c r="E47">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F47" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F47" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=7&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <f t="shared" si="4"/>
-        <v>44235</v>
+        <v>44600</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
@@ -1409,17 +1400,17 @@
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F48" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F48" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=8&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <f t="shared" si="4"/>
-        <v>44236</v>
+        <v>44601</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
@@ -1431,17 +1422,17 @@
       </c>
       <c r="E49">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F49" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F49" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=9&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <f t="shared" si="4"/>
-        <v>44237</v>
+        <v>44602</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
@@ -1453,17 +1444,17 @@
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F50" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F50" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=10&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <f t="shared" si="4"/>
-        <v>44238</v>
+        <v>44603</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -1475,17 +1466,17 @@
       </c>
       <c r="E51">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F51" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F51" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=11&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <f t="shared" si="4"/>
-        <v>44239</v>
+        <v>44604</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
@@ -1497,17 +1488,17 @@
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F52" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F52" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=12&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <f t="shared" si="4"/>
-        <v>44240</v>
+        <v>44605</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
@@ -1519,17 +1510,17 @@
       </c>
       <c r="E53">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F53" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F53" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=13&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <f t="shared" si="4"/>
-        <v>44241</v>
+        <v>44606</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
@@ -1541,17 +1532,17 @@
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F54" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F54" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=14&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <f t="shared" si="4"/>
-        <v>44242</v>
+        <v>44607</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
@@ -1563,17 +1554,17 @@
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F55" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F55" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=15&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <f t="shared" si="4"/>
-        <v>44243</v>
+        <v>44608</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
@@ -1585,17 +1576,17 @@
       </c>
       <c r="E56">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F56" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F56" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=16&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <f t="shared" si="4"/>
-        <v>44244</v>
+        <v>44609</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
@@ -1607,17 +1598,17 @@
       </c>
       <c r="E57">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F57" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F57" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=17&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <f t="shared" si="4"/>
-        <v>44245</v>
+        <v>44610</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
@@ -1629,17 +1620,17 @@
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F58" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F58" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=18&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <f t="shared" si="4"/>
-        <v>44246</v>
+        <v>44611</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
@@ -1651,17 +1642,17 @@
       </c>
       <c r="E59">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F59" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F59" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=19&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <f t="shared" si="4"/>
-        <v>44247</v>
+        <v>44612</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
@@ -1673,17 +1664,17 @@
       </c>
       <c r="E60">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F60" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F60" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=20&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <f t="shared" si="4"/>
-        <v>44248</v>
+        <v>44613</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
@@ -1695,17 +1686,17 @@
       </c>
       <c r="E61">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F61" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F61" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=21&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <f t="shared" si="4"/>
-        <v>44249</v>
+        <v>44614</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
@@ -1717,17 +1708,17 @@
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F62" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F62" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=22&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <f t="shared" si="4"/>
-        <v>44250</v>
+        <v>44615</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
@@ -1739,17 +1730,17 @@
       </c>
       <c r="E63">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F63" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F63" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=23&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <f t="shared" si="4"/>
-        <v>44251</v>
+        <v>44616</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
@@ -1761,17 +1752,17 @@
       </c>
       <c r="E64">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F64" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F64" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=24&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <f t="shared" si="4"/>
-        <v>44252</v>
+        <v>44617</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
@@ -1783,17 +1774,17 @@
       </c>
       <c r="E65">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F65" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F65" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=25&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <f t="shared" si="4"/>
-        <v>44253</v>
+        <v>44618</v>
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
@@ -1805,17 +1796,17 @@
       </c>
       <c r="E66">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F66" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F66" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=26&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <f t="shared" si="4"/>
-        <v>44254</v>
+        <v>44619</v>
       </c>
       <c r="C67">
         <f t="shared" si="0"/>
@@ -1827,17 +1818,17 @@
       </c>
       <c r="E67">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F67" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F67" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=27&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <f t="shared" si="4"/>
-        <v>44255</v>
+        <v>44620</v>
       </c>
       <c r="C68">
         <f t="shared" si="0"/>
@@ -1849,17 +1840,17 @@
       </c>
       <c r="E68">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F68" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F68" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=2&amp;da=28&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <f t="shared" si="4"/>
-        <v>44256</v>
+        <v>44621</v>
       </c>
       <c r="C69">
         <f t="shared" si="0"/>
@@ -1871,17 +1862,17 @@
       </c>
       <c r="E69">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F69" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F69" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=1&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <f t="shared" si="4"/>
-        <v>44257</v>
+        <v>44622</v>
       </c>
       <c r="C70">
         <f t="shared" si="0"/>
@@ -1893,17 +1884,17 @@
       </c>
       <c r="E70">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F70" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F70" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=2&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <f t="shared" si="4"/>
-        <v>44258</v>
+        <v>44623</v>
       </c>
       <c r="C71">
         <f t="shared" si="0"/>
@@ -1915,17 +1906,17 @@
       </c>
       <c r="E71">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F71" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F71" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=3&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <f t="shared" si="4"/>
-        <v>44259</v>
+        <v>44624</v>
       </c>
       <c r="C72">
         <f t="shared" si="0"/>
@@ -1937,17 +1928,17 @@
       </c>
       <c r="E72">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F72" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F72" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=4&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <f t="shared" si="4"/>
-        <v>44260</v>
+        <v>44625</v>
       </c>
       <c r="C73">
         <f t="shared" si="0"/>
@@ -1959,17 +1950,17 @@
       </c>
       <c r="E73">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F73" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F73" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=5&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <f t="shared" si="4"/>
-        <v>44261</v>
+        <v>44626</v>
       </c>
       <c r="C74">
         <f t="shared" si="0"/>
@@ -1981,17 +1972,17 @@
       </c>
       <c r="E74">
         <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="F74" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F74" t="str">
         <f t="shared" si="3"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=6&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <f t="shared" si="4"/>
-        <v>44262</v>
+        <v>44627</v>
       </c>
       <c r="C75">
         <f t="shared" ref="C75:C138" si="5">MONTH(B75)</f>
@@ -2003,17 +1994,17 @@
       </c>
       <c r="E75">
         <f t="shared" ref="E75:E138" si="7">YEAR(B75)</f>
-        <v>2021</v>
-      </c>
-      <c r="F75" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F75" t="str">
         <f t="shared" ref="F75:F138" si="8">$I$3&amp;$I$4&amp;C75&amp;$I$5&amp;D75&amp;$I$6&amp;E75&amp;$I$7</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=7&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <f t="shared" ref="B76:B139" si="9">B75+1</f>
-        <v>44263</v>
+        <v>44628</v>
       </c>
       <c r="C76">
         <f t="shared" si="5"/>
@@ -2025,17 +2016,17 @@
       </c>
       <c r="E76">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F76" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F76" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=8&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <f t="shared" si="9"/>
-        <v>44264</v>
+        <v>44629</v>
       </c>
       <c r="C77">
         <f t="shared" si="5"/>
@@ -2047,17 +2038,17 @@
       </c>
       <c r="E77">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F77" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F77" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=9&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <f t="shared" si="9"/>
-        <v>44265</v>
+        <v>44630</v>
       </c>
       <c r="C78">
         <f t="shared" si="5"/>
@@ -2069,17 +2060,17 @@
       </c>
       <c r="E78">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F78" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F78" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=10&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <f t="shared" si="9"/>
-        <v>44266</v>
+        <v>44631</v>
       </c>
       <c r="C79">
         <f t="shared" si="5"/>
@@ -2091,17 +2082,17 @@
       </c>
       <c r="E79">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F79" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F79" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=11&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <f t="shared" si="9"/>
-        <v>44267</v>
+        <v>44632</v>
       </c>
       <c r="C80">
         <f t="shared" si="5"/>
@@ -2113,17 +2104,17 @@
       </c>
       <c r="E80">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F80" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F80" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=12&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <f t="shared" si="9"/>
-        <v>44268</v>
+        <v>44633</v>
       </c>
       <c r="C81">
         <f t="shared" si="5"/>
@@ -2135,17 +2126,17 @@
       </c>
       <c r="E81">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F81" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F81" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=13&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <f t="shared" si="9"/>
-        <v>44269</v>
+        <v>44634</v>
       </c>
       <c r="C82">
         <f t="shared" si="5"/>
@@ -2157,17 +2148,17 @@
       </c>
       <c r="E82">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F82" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F82" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=14&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <f t="shared" si="9"/>
-        <v>44270</v>
+        <v>44635</v>
       </c>
       <c r="C83">
         <f t="shared" si="5"/>
@@ -2179,17 +2170,17 @@
       </c>
       <c r="E83">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F83" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F83" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=15&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <f t="shared" si="9"/>
-        <v>44271</v>
+        <v>44636</v>
       </c>
       <c r="C84">
         <f t="shared" si="5"/>
@@ -2201,17 +2192,17 @@
       </c>
       <c r="E84">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F84" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F84" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=16&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <f t="shared" si="9"/>
-        <v>44272</v>
+        <v>44637</v>
       </c>
       <c r="C85">
         <f t="shared" si="5"/>
@@ -2223,17 +2214,17 @@
       </c>
       <c r="E85">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F85" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F85" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=17&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <f t="shared" si="9"/>
-        <v>44273</v>
+        <v>44638</v>
       </c>
       <c r="C86">
         <f t="shared" si="5"/>
@@ -2245,17 +2236,17 @@
       </c>
       <c r="E86">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F86" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F86" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=18&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <f t="shared" si="9"/>
-        <v>44274</v>
+        <v>44639</v>
       </c>
       <c r="C87">
         <f t="shared" si="5"/>
@@ -2267,17 +2258,17 @@
       </c>
       <c r="E87">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F87" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F87" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=19&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <f t="shared" si="9"/>
-        <v>44275</v>
+        <v>44640</v>
       </c>
       <c r="C88">
         <f t="shared" si="5"/>
@@ -2289,17 +2280,17 @@
       </c>
       <c r="E88">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F88" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F88" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=20&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <f t="shared" si="9"/>
-        <v>44276</v>
+        <v>44641</v>
       </c>
       <c r="C89">
         <f t="shared" si="5"/>
@@ -2311,17 +2302,17 @@
       </c>
       <c r="E89">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F89" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F89" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=21&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <f t="shared" si="9"/>
-        <v>44277</v>
+        <v>44642</v>
       </c>
       <c r="C90">
         <f t="shared" si="5"/>
@@ -2333,17 +2324,17 @@
       </c>
       <c r="E90">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F90" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F90" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=22&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <f t="shared" si="9"/>
-        <v>44278</v>
+        <v>44643</v>
       </c>
       <c r="C91">
         <f t="shared" si="5"/>
@@ -2355,17 +2346,17 @@
       </c>
       <c r="E91">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F91" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F91" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=23&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <f t="shared" si="9"/>
-        <v>44279</v>
+        <v>44644</v>
       </c>
       <c r="C92">
         <f t="shared" si="5"/>
@@ -2377,17 +2368,17 @@
       </c>
       <c r="E92">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F92" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F92" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=24&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <f t="shared" si="9"/>
-        <v>44280</v>
+        <v>44645</v>
       </c>
       <c r="C93">
         <f t="shared" si="5"/>
@@ -2399,17 +2390,17 @@
       </c>
       <c r="E93">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F93" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F93" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=25&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <f t="shared" si="9"/>
-        <v>44281</v>
+        <v>44646</v>
       </c>
       <c r="C94">
         <f t="shared" si="5"/>
@@ -2421,17 +2412,17 @@
       </c>
       <c r="E94">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F94" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F94" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=26&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <f t="shared" si="9"/>
-        <v>44282</v>
+        <v>44647</v>
       </c>
       <c r="C95">
         <f t="shared" si="5"/>
@@ -2443,17 +2434,17 @@
       </c>
       <c r="E95">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F95" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F95" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=27&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <f t="shared" si="9"/>
-        <v>44283</v>
+        <v>44648</v>
       </c>
       <c r="C96">
         <f t="shared" si="5"/>
@@ -2465,17 +2456,17 @@
       </c>
       <c r="E96">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F96" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F96" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=28&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <f t="shared" si="9"/>
-        <v>44284</v>
+        <v>44649</v>
       </c>
       <c r="C97">
         <f t="shared" si="5"/>
@@ -2487,17 +2478,17 @@
       </c>
       <c r="E97">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F97" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F97" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=29&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <f t="shared" si="9"/>
-        <v>44285</v>
+        <v>44650</v>
       </c>
       <c r="C98">
         <f t="shared" si="5"/>
@@ -2509,17 +2500,17 @@
       </c>
       <c r="E98">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F98" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F98" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=30&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <f t="shared" si="9"/>
-        <v>44286</v>
+        <v>44651</v>
       </c>
       <c r="C99">
         <f t="shared" si="5"/>
@@ -2531,17 +2522,17 @@
       </c>
       <c r="E99">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F99" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F99" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=31&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=3&amp;da=31&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <f t="shared" si="9"/>
-        <v>44287</v>
+        <v>44652</v>
       </c>
       <c r="C100">
         <f t="shared" si="5"/>
@@ -2553,17 +2544,17 @@
       </c>
       <c r="E100">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F100" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F100" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=1&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <f t="shared" si="9"/>
-        <v>44288</v>
+        <v>44653</v>
       </c>
       <c r="C101">
         <f t="shared" si="5"/>
@@ -2575,17 +2566,17 @@
       </c>
       <c r="E101">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F101" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F101" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=2&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <f t="shared" si="9"/>
-        <v>44289</v>
+        <v>44654</v>
       </c>
       <c r="C102">
         <f t="shared" si="5"/>
@@ -2597,17 +2588,17 @@
       </c>
       <c r="E102">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F102" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F102" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=3&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <f t="shared" si="9"/>
-        <v>44290</v>
+        <v>44655</v>
       </c>
       <c r="C103">
         <f t="shared" si="5"/>
@@ -2619,17 +2610,17 @@
       </c>
       <c r="E103">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F103" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F103" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=4&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <f t="shared" si="9"/>
-        <v>44291</v>
+        <v>44656</v>
       </c>
       <c r="C104">
         <f t="shared" si="5"/>
@@ -2641,17 +2632,17 @@
       </c>
       <c r="E104">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F104" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F104" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=5&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <f t="shared" si="9"/>
-        <v>44292</v>
+        <v>44657</v>
       </c>
       <c r="C105">
         <f t="shared" si="5"/>
@@ -2663,17 +2654,17 @@
       </c>
       <c r="E105">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F105" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F105" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=6&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <f t="shared" si="9"/>
-        <v>44293</v>
+        <v>44658</v>
       </c>
       <c r="C106">
         <f t="shared" si="5"/>
@@ -2685,17 +2676,17 @@
       </c>
       <c r="E106">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F106" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F106" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=7&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <f t="shared" si="9"/>
-        <v>44294</v>
+        <v>44659</v>
       </c>
       <c r="C107">
         <f t="shared" si="5"/>
@@ -2707,17 +2698,17 @@
       </c>
       <c r="E107">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F107" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F107" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=8&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <f t="shared" si="9"/>
-        <v>44295</v>
+        <v>44660</v>
       </c>
       <c r="C108">
         <f t="shared" si="5"/>
@@ -2729,17 +2720,17 @@
       </c>
       <c r="E108">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F108" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F108" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=9&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <f t="shared" si="9"/>
-        <v>44296</v>
+        <v>44661</v>
       </c>
       <c r="C109">
         <f t="shared" si="5"/>
@@ -2751,17 +2742,17 @@
       </c>
       <c r="E109">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F109" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F109" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=10&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <f t="shared" si="9"/>
-        <v>44297</v>
+        <v>44662</v>
       </c>
       <c r="C110">
         <f t="shared" si="5"/>
@@ -2773,17 +2764,17 @@
       </c>
       <c r="E110">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F110" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F110" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=11&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <f t="shared" si="9"/>
-        <v>44298</v>
+        <v>44663</v>
       </c>
       <c r="C111">
         <f t="shared" si="5"/>
@@ -2795,17 +2786,17 @@
       </c>
       <c r="E111">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F111" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F111" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=12&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <f t="shared" si="9"/>
-        <v>44299</v>
+        <v>44664</v>
       </c>
       <c r="C112">
         <f t="shared" si="5"/>
@@ -2817,17 +2808,17 @@
       </c>
       <c r="E112">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F112" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F112" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=13&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <f t="shared" si="9"/>
-        <v>44300</v>
+        <v>44665</v>
       </c>
       <c r="C113">
         <f t="shared" si="5"/>
@@ -2839,17 +2830,17 @@
       </c>
       <c r="E113">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F113" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F113" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=14&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <f t="shared" si="9"/>
-        <v>44301</v>
+        <v>44666</v>
       </c>
       <c r="C114">
         <f t="shared" si="5"/>
@@ -2861,17 +2852,17 @@
       </c>
       <c r="E114">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F114" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F114" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=15&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <f t="shared" si="9"/>
-        <v>44302</v>
+        <v>44667</v>
       </c>
       <c r="C115">
         <f t="shared" si="5"/>
@@ -2883,17 +2874,17 @@
       </c>
       <c r="E115">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F115" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F115" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=16&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <f t="shared" si="9"/>
-        <v>44303</v>
+        <v>44668</v>
       </c>
       <c r="C116">
         <f t="shared" si="5"/>
@@ -2905,17 +2896,17 @@
       </c>
       <c r="E116">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F116" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F116" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=17&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <f t="shared" si="9"/>
-        <v>44304</v>
+        <v>44669</v>
       </c>
       <c r="C117">
         <f t="shared" si="5"/>
@@ -2927,17 +2918,17 @@
       </c>
       <c r="E117">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F117" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F117" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=18&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <f t="shared" si="9"/>
-        <v>44305</v>
+        <v>44670</v>
       </c>
       <c r="C118">
         <f t="shared" si="5"/>
@@ -2949,17 +2940,17 @@
       </c>
       <c r="E118">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F118" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F118" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=19&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <f t="shared" si="9"/>
-        <v>44306</v>
+        <v>44671</v>
       </c>
       <c r="C119">
         <f t="shared" si="5"/>
@@ -2971,17 +2962,17 @@
       </c>
       <c r="E119">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F119" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F119" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=20&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <f t="shared" si="9"/>
-        <v>44307</v>
+        <v>44672</v>
       </c>
       <c r="C120">
         <f t="shared" si="5"/>
@@ -2993,17 +2984,17 @@
       </c>
       <c r="E120">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F120" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F120" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=21&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <f t="shared" si="9"/>
-        <v>44308</v>
+        <v>44673</v>
       </c>
       <c r="C121">
         <f t="shared" si="5"/>
@@ -3015,17 +3006,17 @@
       </c>
       <c r="E121">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F121" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F121" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=22&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <f t="shared" si="9"/>
-        <v>44309</v>
+        <v>44674</v>
       </c>
       <c r="C122">
         <f t="shared" si="5"/>
@@ -3037,17 +3028,17 @@
       </c>
       <c r="E122">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F122" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F122" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=23&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <f t="shared" si="9"/>
-        <v>44310</v>
+        <v>44675</v>
       </c>
       <c r="C123">
         <f t="shared" si="5"/>
@@ -3059,17 +3050,17 @@
       </c>
       <c r="E123">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F123" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F123" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=24&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <f t="shared" si="9"/>
-        <v>44311</v>
+        <v>44676</v>
       </c>
       <c r="C124">
         <f t="shared" si="5"/>
@@ -3081,17 +3072,17 @@
       </c>
       <c r="E124">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F124" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F124" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=25&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <f t="shared" si="9"/>
-        <v>44312</v>
+        <v>44677</v>
       </c>
       <c r="C125">
         <f t="shared" si="5"/>
@@ -3103,17 +3094,17 @@
       </c>
       <c r="E125">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F125" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F125" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=26&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <f t="shared" si="9"/>
-        <v>44313</v>
+        <v>44678</v>
       </c>
       <c r="C126">
         <f t="shared" si="5"/>
@@ -3125,17 +3116,17 @@
       </c>
       <c r="E126">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F126" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F126" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=27&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <f t="shared" si="9"/>
-        <v>44314</v>
+        <v>44679</v>
       </c>
       <c r="C127">
         <f t="shared" si="5"/>
@@ -3147,17 +3138,17 @@
       </c>
       <c r="E127">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F127" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F127" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=28&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <f t="shared" si="9"/>
-        <v>44315</v>
+        <v>44680</v>
       </c>
       <c r="C128">
         <f t="shared" si="5"/>
@@ -3169,17 +3160,17 @@
       </c>
       <c r="E128">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F128" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F128" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=29&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <f t="shared" si="9"/>
-        <v>44316</v>
+        <v>44681</v>
       </c>
       <c r="C129">
         <f t="shared" si="5"/>
@@ -3191,17 +3182,17 @@
       </c>
       <c r="E129">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F129" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F129" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=4&amp;da=30&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <f t="shared" si="9"/>
-        <v>44317</v>
+        <v>44682</v>
       </c>
       <c r="C130">
         <f t="shared" si="5"/>
@@ -3213,17 +3204,17 @@
       </c>
       <c r="E130">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F130" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F130" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=1&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <f t="shared" si="9"/>
-        <v>44318</v>
+        <v>44683</v>
       </c>
       <c r="C131">
         <f t="shared" si="5"/>
@@ -3235,17 +3226,17 @@
       </c>
       <c r="E131">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F131" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F131" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=2&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <f t="shared" si="9"/>
-        <v>44319</v>
+        <v>44684</v>
       </c>
       <c r="C132">
         <f t="shared" si="5"/>
@@ -3257,17 +3248,17 @@
       </c>
       <c r="E132">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F132" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F132" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=3&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <f t="shared" si="9"/>
-        <v>44320</v>
+        <v>44685</v>
       </c>
       <c r="C133">
         <f t="shared" si="5"/>
@@ -3279,17 +3270,17 @@
       </c>
       <c r="E133">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F133" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F133" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=4&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <f t="shared" si="9"/>
-        <v>44321</v>
+        <v>44686</v>
       </c>
       <c r="C134">
         <f t="shared" si="5"/>
@@ -3301,17 +3292,17 @@
       </c>
       <c r="E134">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F134" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F134" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=5&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <f t="shared" si="9"/>
-        <v>44322</v>
+        <v>44687</v>
       </c>
       <c r="C135">
         <f t="shared" si="5"/>
@@ -3323,17 +3314,17 @@
       </c>
       <c r="E135">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F135" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F135" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=6&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <f t="shared" si="9"/>
-        <v>44323</v>
+        <v>44688</v>
       </c>
       <c r="C136">
         <f t="shared" si="5"/>
@@ -3345,17 +3336,17 @@
       </c>
       <c r="E136">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F136" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F136" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=7&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <f t="shared" si="9"/>
-        <v>44324</v>
+        <v>44689</v>
       </c>
       <c r="C137">
         <f t="shared" si="5"/>
@@ -3367,17 +3358,17 @@
       </c>
       <c r="E137">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F137" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F137" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=8&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <f t="shared" si="9"/>
-        <v>44325</v>
+        <v>44690</v>
       </c>
       <c r="C138">
         <f t="shared" si="5"/>
@@ -3389,17 +3380,17 @@
       </c>
       <c r="E138">
         <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="F138" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F138" t="str">
         <f t="shared" si="8"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=9&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
         <f t="shared" si="9"/>
-        <v>44326</v>
+        <v>44691</v>
       </c>
       <c r="C139">
         <f t="shared" ref="C139:C202" si="10">MONTH(B139)</f>
@@ -3411,17 +3402,17 @@
       </c>
       <c r="E139">
         <f t="shared" ref="E139:E202" si="12">YEAR(B139)</f>
-        <v>2021</v>
-      </c>
-      <c r="F139" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F139" t="str">
         <f t="shared" ref="F139:F202" si="13">$I$3&amp;$I$4&amp;C139&amp;$I$5&amp;D139&amp;$I$6&amp;E139&amp;$I$7</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=10&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <f t="shared" ref="B140:B203" si="14">B139+1</f>
-        <v>44327</v>
+        <v>44692</v>
       </c>
       <c r="C140">
         <f t="shared" si="10"/>
@@ -3433,17 +3424,17 @@
       </c>
       <c r="E140">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F140" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F140" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=11&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <f t="shared" si="14"/>
-        <v>44328</v>
+        <v>44693</v>
       </c>
       <c r="C141">
         <f t="shared" si="10"/>
@@ -3455,17 +3446,17 @@
       </c>
       <c r="E141">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F141" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F141" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=12&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <f t="shared" si="14"/>
-        <v>44329</v>
+        <v>44694</v>
       </c>
       <c r="C142">
         <f t="shared" si="10"/>
@@ -3477,17 +3468,17 @@
       </c>
       <c r="E142">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F142" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F142" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=13&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <f t="shared" si="14"/>
-        <v>44330</v>
+        <v>44695</v>
       </c>
       <c r="C143">
         <f t="shared" si="10"/>
@@ -3499,17 +3490,17 @@
       </c>
       <c r="E143">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F143" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F143" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=14&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <f t="shared" si="14"/>
-        <v>44331</v>
+        <v>44696</v>
       </c>
       <c r="C144">
         <f t="shared" si="10"/>
@@ -3521,17 +3512,17 @@
       </c>
       <c r="E144">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F144" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F144" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=15&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <f t="shared" si="14"/>
-        <v>44332</v>
+        <v>44697</v>
       </c>
       <c r="C145">
         <f t="shared" si="10"/>
@@ -3543,17 +3534,17 @@
       </c>
       <c r="E145">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F145" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F145" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=16&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <f t="shared" si="14"/>
-        <v>44333</v>
+        <v>44698</v>
       </c>
       <c r="C146">
         <f t="shared" si="10"/>
@@ -3565,17 +3556,17 @@
       </c>
       <c r="E146">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F146" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F146" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=17&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <f t="shared" si="14"/>
-        <v>44334</v>
+        <v>44699</v>
       </c>
       <c r="C147">
         <f t="shared" si="10"/>
@@ -3587,17 +3578,17 @@
       </c>
       <c r="E147">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F147" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F147" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=18&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <f t="shared" si="14"/>
-        <v>44335</v>
+        <v>44700</v>
       </c>
       <c r="C148">
         <f t="shared" si="10"/>
@@ -3609,17 +3600,17 @@
       </c>
       <c r="E148">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F148" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F148" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=19&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <f t="shared" si="14"/>
-        <v>44336</v>
+        <v>44701</v>
       </c>
       <c r="C149">
         <f t="shared" si="10"/>
@@ -3631,17 +3622,17 @@
       </c>
       <c r="E149">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F149" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F149" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=20&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <f t="shared" si="14"/>
-        <v>44337</v>
+        <v>44702</v>
       </c>
       <c r="C150">
         <f t="shared" si="10"/>
@@ -3653,17 +3644,17 @@
       </c>
       <c r="E150">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F150" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F150" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=21&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <f t="shared" si="14"/>
-        <v>44338</v>
+        <v>44703</v>
       </c>
       <c r="C151">
         <f t="shared" si="10"/>
@@ -3675,17 +3666,17 @@
       </c>
       <c r="E151">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F151" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F151" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=22&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <f t="shared" si="14"/>
-        <v>44339</v>
+        <v>44704</v>
       </c>
       <c r="C152">
         <f t="shared" si="10"/>
@@ -3697,17 +3688,17 @@
       </c>
       <c r="E152">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F152" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F152" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=23&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <f t="shared" si="14"/>
-        <v>44340</v>
+        <v>44705</v>
       </c>
       <c r="C153">
         <f t="shared" si="10"/>
@@ -3719,17 +3710,17 @@
       </c>
       <c r="E153">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F153" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F153" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=24&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <f t="shared" si="14"/>
-        <v>44341</v>
+        <v>44706</v>
       </c>
       <c r="C154">
         <f t="shared" si="10"/>
@@ -3741,17 +3732,17 @@
       </c>
       <c r="E154">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F154" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F154" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=25&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <f t="shared" si="14"/>
-        <v>44342</v>
+        <v>44707</v>
       </c>
       <c r="C155">
         <f t="shared" si="10"/>
@@ -3763,17 +3754,17 @@
       </c>
       <c r="E155">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F155" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F155" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=26&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <f t="shared" si="14"/>
-        <v>44343</v>
+        <v>44708</v>
       </c>
       <c r="C156">
         <f t="shared" si="10"/>
@@ -3785,17 +3776,17 @@
       </c>
       <c r="E156">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F156" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F156" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=27&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <f t="shared" si="14"/>
-        <v>44344</v>
+        <v>44709</v>
       </c>
       <c r="C157">
         <f t="shared" si="10"/>
@@ -3807,17 +3798,17 @@
       </c>
       <c r="E157">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F157" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F157" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=28&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <f t="shared" si="14"/>
-        <v>44345</v>
+        <v>44710</v>
       </c>
       <c r="C158">
         <f t="shared" si="10"/>
@@ -3829,17 +3820,17 @@
       </c>
       <c r="E158">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F158" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F158" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=29&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <f t="shared" si="14"/>
-        <v>44346</v>
+        <v>44711</v>
       </c>
       <c r="C159">
         <f t="shared" si="10"/>
@@ -3851,17 +3842,17 @@
       </c>
       <c r="E159">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F159" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F159" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=30&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <f t="shared" si="14"/>
-        <v>44347</v>
+        <v>44712</v>
       </c>
       <c r="C160">
         <f t="shared" si="10"/>
@@ -3873,17 +3864,17 @@
       </c>
       <c r="E160">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F160" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F160" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=31&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=5&amp;da=31&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <f t="shared" si="14"/>
-        <v>44348</v>
+        <v>44713</v>
       </c>
       <c r="C161">
         <f t="shared" si="10"/>
@@ -3895,17 +3886,17 @@
       </c>
       <c r="E161">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F161" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F161" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=1&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <f t="shared" si="14"/>
-        <v>44349</v>
+        <v>44714</v>
       </c>
       <c r="C162">
         <f t="shared" si="10"/>
@@ -3917,17 +3908,17 @@
       </c>
       <c r="E162">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F162" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F162" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=2&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <f t="shared" si="14"/>
-        <v>44350</v>
+        <v>44715</v>
       </c>
       <c r="C163">
         <f t="shared" si="10"/>
@@ -3939,17 +3930,17 @@
       </c>
       <c r="E163">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F163" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F163" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=3&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="1">
         <f t="shared" si="14"/>
-        <v>44351</v>
+        <v>44716</v>
       </c>
       <c r="C164">
         <f t="shared" si="10"/>
@@ -3961,17 +3952,17 @@
       </c>
       <c r="E164">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F164" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F164" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=4&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <f t="shared" si="14"/>
-        <v>44352</v>
+        <v>44717</v>
       </c>
       <c r="C165">
         <f t="shared" si="10"/>
@@ -3983,17 +3974,17 @@
       </c>
       <c r="E165">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F165" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F165" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=5&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <f t="shared" si="14"/>
-        <v>44353</v>
+        <v>44718</v>
       </c>
       <c r="C166">
         <f t="shared" si="10"/>
@@ -4005,17 +3996,17 @@
       </c>
       <c r="E166">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F166" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F166" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=6&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <f t="shared" si="14"/>
-        <v>44354</v>
+        <v>44719</v>
       </c>
       <c r="C167">
         <f t="shared" si="10"/>
@@ -4027,17 +4018,17 @@
       </c>
       <c r="E167">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F167" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F167" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=7&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <f t="shared" si="14"/>
-        <v>44355</v>
+        <v>44720</v>
       </c>
       <c r="C168">
         <f t="shared" si="10"/>
@@ -4049,17 +4040,17 @@
       </c>
       <c r="E168">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F168" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F168" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=8&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <f t="shared" si="14"/>
-        <v>44356</v>
+        <v>44721</v>
       </c>
       <c r="C169">
         <f t="shared" si="10"/>
@@ -4071,17 +4062,17 @@
       </c>
       <c r="E169">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F169" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F169" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=9&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <f t="shared" si="14"/>
-        <v>44357</v>
+        <v>44722</v>
       </c>
       <c r="C170">
         <f t="shared" si="10"/>
@@ -4093,17 +4084,17 @@
       </c>
       <c r="E170">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F170" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F170" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=10&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <f t="shared" si="14"/>
-        <v>44358</v>
+        <v>44723</v>
       </c>
       <c r="C171">
         <f t="shared" si="10"/>
@@ -4115,17 +4106,17 @@
       </c>
       <c r="E171">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F171" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F171" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=11&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <f t="shared" si="14"/>
-        <v>44359</v>
+        <v>44724</v>
       </c>
       <c r="C172">
         <f t="shared" si="10"/>
@@ -4137,17 +4128,17 @@
       </c>
       <c r="E172">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F172" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F172" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=12&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <f t="shared" si="14"/>
-        <v>44360</v>
+        <v>44725</v>
       </c>
       <c r="C173">
         <f t="shared" si="10"/>
@@ -4159,17 +4150,17 @@
       </c>
       <c r="E173">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F173" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F173" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=13&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <f t="shared" si="14"/>
-        <v>44361</v>
+        <v>44726</v>
       </c>
       <c r="C174">
         <f t="shared" si="10"/>
@@ -4181,17 +4172,17 @@
       </c>
       <c r="E174">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F174" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F174" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=14&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <f t="shared" si="14"/>
-        <v>44362</v>
+        <v>44727</v>
       </c>
       <c r="C175">
         <f t="shared" si="10"/>
@@ -4203,17 +4194,17 @@
       </c>
       <c r="E175">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F175" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F175" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=15&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <f t="shared" si="14"/>
-        <v>44363</v>
+        <v>44728</v>
       </c>
       <c r="C176">
         <f t="shared" si="10"/>
@@ -4225,17 +4216,17 @@
       </c>
       <c r="E176">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F176" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F176" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=16&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <f t="shared" si="14"/>
-        <v>44364</v>
+        <v>44729</v>
       </c>
       <c r="C177">
         <f t="shared" si="10"/>
@@ -4247,17 +4238,17 @@
       </c>
       <c r="E177">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F177" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F177" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=17&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <f t="shared" si="14"/>
-        <v>44365</v>
+        <v>44730</v>
       </c>
       <c r="C178">
         <f t="shared" si="10"/>
@@ -4269,17 +4260,17 @@
       </c>
       <c r="E178">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F178" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F178" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=18&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <f t="shared" si="14"/>
-        <v>44366</v>
+        <v>44731</v>
       </c>
       <c r="C179">
         <f t="shared" si="10"/>
@@ -4291,17 +4282,17 @@
       </c>
       <c r="E179">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F179" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F179" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=19&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <f t="shared" si="14"/>
-        <v>44367</v>
+        <v>44732</v>
       </c>
       <c r="C180">
         <f t="shared" si="10"/>
@@ -4313,17 +4304,17 @@
       </c>
       <c r="E180">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F180" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F180" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=20&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <f t="shared" si="14"/>
-        <v>44368</v>
+        <v>44733</v>
       </c>
       <c r="C181">
         <f t="shared" si="10"/>
@@ -4335,17 +4326,17 @@
       </c>
       <c r="E181">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F181" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F181" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=21&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <f t="shared" si="14"/>
-        <v>44369</v>
+        <v>44734</v>
       </c>
       <c r="C182">
         <f t="shared" si="10"/>
@@ -4357,17 +4348,17 @@
       </c>
       <c r="E182">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F182" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F182" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=22&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <f t="shared" si="14"/>
-        <v>44370</v>
+        <v>44735</v>
       </c>
       <c r="C183">
         <f t="shared" si="10"/>
@@ -4379,17 +4370,17 @@
       </c>
       <c r="E183">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F183" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F183" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=23&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <f t="shared" si="14"/>
-        <v>44371</v>
+        <v>44736</v>
       </c>
       <c r="C184">
         <f t="shared" si="10"/>
@@ -4401,17 +4392,17 @@
       </c>
       <c r="E184">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F184" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F184" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=24&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <f t="shared" si="14"/>
-        <v>44372</v>
+        <v>44737</v>
       </c>
       <c r="C185">
         <f t="shared" si="10"/>
@@ -4423,17 +4414,17 @@
       </c>
       <c r="E185">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F185" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F185" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=25&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <f t="shared" si="14"/>
-        <v>44373</v>
+        <v>44738</v>
       </c>
       <c r="C186">
         <f t="shared" si="10"/>
@@ -4445,17 +4436,17 @@
       </c>
       <c r="E186">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F186" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F186" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=26&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <f t="shared" si="14"/>
-        <v>44374</v>
+        <v>44739</v>
       </c>
       <c r="C187">
         <f t="shared" si="10"/>
@@ -4467,17 +4458,17 @@
       </c>
       <c r="E187">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F187" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F187" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=27&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <f t="shared" si="14"/>
-        <v>44375</v>
+        <v>44740</v>
       </c>
       <c r="C188">
         <f t="shared" si="10"/>
@@ -4489,17 +4480,17 @@
       </c>
       <c r="E188">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F188" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F188" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=28&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <f t="shared" si="14"/>
-        <v>44376</v>
+        <v>44741</v>
       </c>
       <c r="C189">
         <f t="shared" si="10"/>
@@ -4511,17 +4502,17 @@
       </c>
       <c r="E189">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F189" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F189" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=29&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <f t="shared" si="14"/>
-        <v>44377</v>
+        <v>44742</v>
       </c>
       <c r="C190">
         <f t="shared" si="10"/>
@@ -4533,17 +4524,17 @@
       </c>
       <c r="E190">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F190" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F190" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=6&amp;da=30&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <f t="shared" si="14"/>
-        <v>44378</v>
+        <v>44743</v>
       </c>
       <c r="C191">
         <f t="shared" si="10"/>
@@ -4555,17 +4546,17 @@
       </c>
       <c r="E191">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F191" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F191" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=1&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <f t="shared" si="14"/>
-        <v>44379</v>
+        <v>44744</v>
       </c>
       <c r="C192">
         <f t="shared" si="10"/>
@@ -4577,17 +4568,17 @@
       </c>
       <c r="E192">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F192" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F192" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=2&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <f t="shared" si="14"/>
-        <v>44380</v>
+        <v>44745</v>
       </c>
       <c r="C193">
         <f t="shared" si="10"/>
@@ -4599,17 +4590,17 @@
       </c>
       <c r="E193">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F193" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F193" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=3&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <f t="shared" si="14"/>
-        <v>44381</v>
+        <v>44746</v>
       </c>
       <c r="C194">
         <f t="shared" si="10"/>
@@ -4621,17 +4612,17 @@
       </c>
       <c r="E194">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F194" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F194" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=4&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <f t="shared" si="14"/>
-        <v>44382</v>
+        <v>44747</v>
       </c>
       <c r="C195">
         <f t="shared" si="10"/>
@@ -4643,17 +4634,17 @@
       </c>
       <c r="E195">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F195" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F195" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=5&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <f t="shared" si="14"/>
-        <v>44383</v>
+        <v>44748</v>
       </c>
       <c r="C196">
         <f t="shared" si="10"/>
@@ -4665,17 +4656,17 @@
       </c>
       <c r="E196">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F196" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F196" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=6&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <f t="shared" si="14"/>
-        <v>44384</v>
+        <v>44749</v>
       </c>
       <c r="C197">
         <f t="shared" si="10"/>
@@ -4687,17 +4678,17 @@
       </c>
       <c r="E197">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F197" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F197" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=7&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <f t="shared" si="14"/>
-        <v>44385</v>
+        <v>44750</v>
       </c>
       <c r="C198">
         <f t="shared" si="10"/>
@@ -4709,17 +4700,17 @@
       </c>
       <c r="E198">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F198" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F198" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=8&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <f t="shared" si="14"/>
-        <v>44386</v>
+        <v>44751</v>
       </c>
       <c r="C199">
         <f t="shared" si="10"/>
@@ -4731,17 +4722,17 @@
       </c>
       <c r="E199">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F199" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F199" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=9&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <f t="shared" si="14"/>
-        <v>44387</v>
+        <v>44752</v>
       </c>
       <c r="C200">
         <f t="shared" si="10"/>
@@ -4753,17 +4744,17 @@
       </c>
       <c r="E200">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F200" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F200" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=10&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <f t="shared" si="14"/>
-        <v>44388</v>
+        <v>44753</v>
       </c>
       <c r="C201">
         <f t="shared" si="10"/>
@@ -4775,17 +4766,17 @@
       </c>
       <c r="E201">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F201" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F201" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=11&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <f t="shared" si="14"/>
-        <v>44389</v>
+        <v>44754</v>
       </c>
       <c r="C202">
         <f t="shared" si="10"/>
@@ -4797,17 +4788,17 @@
       </c>
       <c r="E202">
         <f t="shared" si="12"/>
-        <v>2021</v>
-      </c>
-      <c r="F202" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F202" t="str">
         <f t="shared" si="13"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=12&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <f t="shared" si="14"/>
-        <v>44390</v>
+        <v>44755</v>
       </c>
       <c r="C203">
         <f t="shared" ref="C203:C266" si="15">MONTH(B203)</f>
@@ -4819,17 +4810,17 @@
       </c>
       <c r="E203">
         <f t="shared" ref="E203:E266" si="17">YEAR(B203)</f>
-        <v>2021</v>
-      </c>
-      <c r="F203" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F203" t="str">
         <f t="shared" ref="F203:F266" si="18">$I$3&amp;$I$4&amp;C203&amp;$I$5&amp;D203&amp;$I$6&amp;E203&amp;$I$7</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=13&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <f t="shared" ref="B204:B267" si="19">B203+1</f>
-        <v>44391</v>
+        <v>44756</v>
       </c>
       <c r="C204">
         <f t="shared" si="15"/>
@@ -4841,17 +4832,17 @@
       </c>
       <c r="E204">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F204" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F204" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=14&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <f t="shared" si="19"/>
-        <v>44392</v>
+        <v>44757</v>
       </c>
       <c r="C205">
         <f t="shared" si="15"/>
@@ -4863,17 +4854,17 @@
       </c>
       <c r="E205">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F205" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F205" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=15&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <f t="shared" si="19"/>
-        <v>44393</v>
+        <v>44758</v>
       </c>
       <c r="C206">
         <f t="shared" si="15"/>
@@ -4885,17 +4876,17 @@
       </c>
       <c r="E206">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F206" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F206" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=16&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <f t="shared" si="19"/>
-        <v>44394</v>
+        <v>44759</v>
       </c>
       <c r="C207">
         <f t="shared" si="15"/>
@@ -4907,17 +4898,17 @@
       </c>
       <c r="E207">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F207" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F207" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=17&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <f t="shared" si="19"/>
-        <v>44395</v>
+        <v>44760</v>
       </c>
       <c r="C208">
         <f t="shared" si="15"/>
@@ -4929,17 +4920,17 @@
       </c>
       <c r="E208">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F208" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F208" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=18&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <f t="shared" si="19"/>
-        <v>44396</v>
+        <v>44761</v>
       </c>
       <c r="C209">
         <f t="shared" si="15"/>
@@ -4951,17 +4942,17 @@
       </c>
       <c r="E209">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F209" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F209" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=19&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <f t="shared" si="19"/>
-        <v>44397</v>
+        <v>44762</v>
       </c>
       <c r="C210">
         <f t="shared" si="15"/>
@@ -4973,17 +4964,17 @@
       </c>
       <c r="E210">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F210" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F210" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=20&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <f t="shared" si="19"/>
-        <v>44398</v>
+        <v>44763</v>
       </c>
       <c r="C211">
         <f t="shared" si="15"/>
@@ -4995,17 +4986,17 @@
       </c>
       <c r="E211">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F211" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F211" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=21&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <f t="shared" si="19"/>
-        <v>44399</v>
+        <v>44764</v>
       </c>
       <c r="C212">
         <f t="shared" si="15"/>
@@ -5017,17 +5008,17 @@
       </c>
       <c r="E212">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F212" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F212" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=22&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <f t="shared" si="19"/>
-        <v>44400</v>
+        <v>44765</v>
       </c>
       <c r="C213">
         <f t="shared" si="15"/>
@@ -5039,17 +5030,17 @@
       </c>
       <c r="E213">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F213" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F213" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=23&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <f t="shared" si="19"/>
-        <v>44401</v>
+        <v>44766</v>
       </c>
       <c r="C214">
         <f t="shared" si="15"/>
@@ -5061,17 +5052,17 @@
       </c>
       <c r="E214">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F214" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F214" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=24&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <f t="shared" si="19"/>
-        <v>44402</v>
+        <v>44767</v>
       </c>
       <c r="C215">
         <f t="shared" si="15"/>
@@ -5083,17 +5074,17 @@
       </c>
       <c r="E215">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F215" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F215" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=25&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <f t="shared" si="19"/>
-        <v>44403</v>
+        <v>44768</v>
       </c>
       <c r="C216">
         <f t="shared" si="15"/>
@@ -5105,17 +5096,17 @@
       </c>
       <c r="E216">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F216" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F216" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=26&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <f t="shared" si="19"/>
-        <v>44404</v>
+        <v>44769</v>
       </c>
       <c r="C217">
         <f t="shared" si="15"/>
@@ -5127,17 +5118,17 @@
       </c>
       <c r="E217">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F217" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F217" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=27&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <f t="shared" si="19"/>
-        <v>44405</v>
+        <v>44770</v>
       </c>
       <c r="C218">
         <f t="shared" si="15"/>
@@ -5149,17 +5140,17 @@
       </c>
       <c r="E218">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F218" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F218" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=28&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <f t="shared" si="19"/>
-        <v>44406</v>
+        <v>44771</v>
       </c>
       <c r="C219">
         <f t="shared" si="15"/>
@@ -5171,17 +5162,17 @@
       </c>
       <c r="E219">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F219" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F219" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=29&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <f t="shared" si="19"/>
-        <v>44407</v>
+        <v>44772</v>
       </c>
       <c r="C220">
         <f t="shared" si="15"/>
@@ -5193,17 +5184,17 @@
       </c>
       <c r="E220">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F220" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F220" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=30&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <f t="shared" si="19"/>
-        <v>44408</v>
+        <v>44773</v>
       </c>
       <c r="C221">
         <f t="shared" si="15"/>
@@ -5215,17 +5206,17 @@
       </c>
       <c r="E221">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F221" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F221" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=31&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=7&amp;da=31&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <f t="shared" si="19"/>
-        <v>44409</v>
+        <v>44774</v>
       </c>
       <c r="C222">
         <f t="shared" si="15"/>
@@ -5237,17 +5228,17 @@
       </c>
       <c r="E222">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F222" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F222" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=1&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <f t="shared" si="19"/>
-        <v>44410</v>
+        <v>44775</v>
       </c>
       <c r="C223">
         <f t="shared" si="15"/>
@@ -5259,17 +5250,17 @@
       </c>
       <c r="E223">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F223" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F223" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=2&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <f t="shared" si="19"/>
-        <v>44411</v>
+        <v>44776</v>
       </c>
       <c r="C224">
         <f t="shared" si="15"/>
@@ -5281,17 +5272,17 @@
       </c>
       <c r="E224">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F224" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F224" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=3&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <f t="shared" si="19"/>
-        <v>44412</v>
+        <v>44777</v>
       </c>
       <c r="C225">
         <f t="shared" si="15"/>
@@ -5303,17 +5294,17 @@
       </c>
       <c r="E225">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F225" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F225" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=4&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <f t="shared" si="19"/>
-        <v>44413</v>
+        <v>44778</v>
       </c>
       <c r="C226">
         <f t="shared" si="15"/>
@@ -5325,17 +5316,17 @@
       </c>
       <c r="E226">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F226" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F226" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=5&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <f t="shared" si="19"/>
-        <v>44414</v>
+        <v>44779</v>
       </c>
       <c r="C227">
         <f t="shared" si="15"/>
@@ -5347,17 +5338,17 @@
       </c>
       <c r="E227">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F227" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F227" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=6&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <f t="shared" si="19"/>
-        <v>44415</v>
+        <v>44780</v>
       </c>
       <c r="C228">
         <f t="shared" si="15"/>
@@ -5369,17 +5360,17 @@
       </c>
       <c r="E228">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F228" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F228" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=7&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <f t="shared" si="19"/>
-        <v>44416</v>
+        <v>44781</v>
       </c>
       <c r="C229">
         <f t="shared" si="15"/>
@@ -5391,17 +5382,17 @@
       </c>
       <c r="E229">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F229" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F229" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=8&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <f t="shared" si="19"/>
-        <v>44417</v>
+        <v>44782</v>
       </c>
       <c r="C230">
         <f t="shared" si="15"/>
@@ -5413,17 +5404,17 @@
       </c>
       <c r="E230">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F230" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F230" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=9&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <f t="shared" si="19"/>
-        <v>44418</v>
+        <v>44783</v>
       </c>
       <c r="C231">
         <f t="shared" si="15"/>
@@ -5435,17 +5426,17 @@
       </c>
       <c r="E231">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F231" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F231" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=10&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <f t="shared" si="19"/>
-        <v>44419</v>
+        <v>44784</v>
       </c>
       <c r="C232">
         <f t="shared" si="15"/>
@@ -5457,17 +5448,17 @@
       </c>
       <c r="E232">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F232" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F232" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=11&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <f t="shared" si="19"/>
-        <v>44420</v>
+        <v>44785</v>
       </c>
       <c r="C233">
         <f t="shared" si="15"/>
@@ -5479,17 +5470,17 @@
       </c>
       <c r="E233">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F233" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F233" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=12&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <f t="shared" si="19"/>
-        <v>44421</v>
+        <v>44786</v>
       </c>
       <c r="C234">
         <f t="shared" si="15"/>
@@ -5501,17 +5492,17 @@
       </c>
       <c r="E234">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F234" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F234" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=13&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <f t="shared" si="19"/>
-        <v>44422</v>
+        <v>44787</v>
       </c>
       <c r="C235">
         <f t="shared" si="15"/>
@@ -5523,17 +5514,17 @@
       </c>
       <c r="E235">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F235" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F235" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=14&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <f t="shared" si="19"/>
-        <v>44423</v>
+        <v>44788</v>
       </c>
       <c r="C236">
         <f t="shared" si="15"/>
@@ -5545,17 +5536,17 @@
       </c>
       <c r="E236">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F236" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F236" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=15&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <f t="shared" si="19"/>
-        <v>44424</v>
+        <v>44789</v>
       </c>
       <c r="C237">
         <f t="shared" si="15"/>
@@ -5567,17 +5558,17 @@
       </c>
       <c r="E237">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F237" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F237" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=16&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <f t="shared" si="19"/>
-        <v>44425</v>
+        <v>44790</v>
       </c>
       <c r="C238">
         <f t="shared" si="15"/>
@@ -5589,17 +5580,17 @@
       </c>
       <c r="E238">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F238" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F238" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=17&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <f t="shared" si="19"/>
-        <v>44426</v>
+        <v>44791</v>
       </c>
       <c r="C239">
         <f t="shared" si="15"/>
@@ -5611,17 +5602,17 @@
       </c>
       <c r="E239">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F239" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F239" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=18&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <f t="shared" si="19"/>
-        <v>44427</v>
+        <v>44792</v>
       </c>
       <c r="C240">
         <f t="shared" si="15"/>
@@ -5633,17 +5624,17 @@
       </c>
       <c r="E240">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F240" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F240" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=19&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <f t="shared" si="19"/>
-        <v>44428</v>
+        <v>44793</v>
       </c>
       <c r="C241">
         <f t="shared" si="15"/>
@@ -5655,17 +5646,17 @@
       </c>
       <c r="E241">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F241" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F241" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=20&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <f t="shared" si="19"/>
-        <v>44429</v>
+        <v>44794</v>
       </c>
       <c r="C242">
         <f t="shared" si="15"/>
@@ -5677,17 +5668,17 @@
       </c>
       <c r="E242">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F242" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F242" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=21&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <f t="shared" si="19"/>
-        <v>44430</v>
+        <v>44795</v>
       </c>
       <c r="C243">
         <f t="shared" si="15"/>
@@ -5699,17 +5690,17 @@
       </c>
       <c r="E243">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F243" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F243" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=22&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <f t="shared" si="19"/>
-        <v>44431</v>
+        <v>44796</v>
       </c>
       <c r="C244">
         <f t="shared" si="15"/>
@@ -5721,17 +5712,17 @@
       </c>
       <c r="E244">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F244" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F244" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=23&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <f t="shared" si="19"/>
-        <v>44432</v>
+        <v>44797</v>
       </c>
       <c r="C245">
         <f t="shared" si="15"/>
@@ -5743,17 +5734,17 @@
       </c>
       <c r="E245">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F245" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F245" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=24&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <f t="shared" si="19"/>
-        <v>44433</v>
+        <v>44798</v>
       </c>
       <c r="C246">
         <f t="shared" si="15"/>
@@ -5765,17 +5756,17 @@
       </c>
       <c r="E246">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F246" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F246" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=25&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <f t="shared" si="19"/>
-        <v>44434</v>
+        <v>44799</v>
       </c>
       <c r="C247">
         <f t="shared" si="15"/>
@@ -5787,17 +5778,17 @@
       </c>
       <c r="E247">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F247" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F247" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=26&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <f t="shared" si="19"/>
-        <v>44435</v>
+        <v>44800</v>
       </c>
       <c r="C248">
         <f t="shared" si="15"/>
@@ -5809,17 +5800,17 @@
       </c>
       <c r="E248">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F248" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F248" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=27&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <f t="shared" si="19"/>
-        <v>44436</v>
+        <v>44801</v>
       </c>
       <c r="C249">
         <f t="shared" si="15"/>
@@ -5831,17 +5822,17 @@
       </c>
       <c r="E249">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F249" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F249" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=28&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <f t="shared" si="19"/>
-        <v>44437</v>
+        <v>44802</v>
       </c>
       <c r="C250">
         <f t="shared" si="15"/>
@@ -5853,17 +5844,17 @@
       </c>
       <c r="E250">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F250" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F250" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=29&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <f t="shared" si="19"/>
-        <v>44438</v>
+        <v>44803</v>
       </c>
       <c r="C251">
         <f t="shared" si="15"/>
@@ -5875,17 +5866,17 @@
       </c>
       <c r="E251">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F251" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F251" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=30&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <f t="shared" si="19"/>
-        <v>44439</v>
+        <v>44804</v>
       </c>
       <c r="C252">
         <f t="shared" si="15"/>
@@ -5897,17 +5888,17 @@
       </c>
       <c r="E252">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F252" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F252" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=31&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=8&amp;da=31&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <f t="shared" si="19"/>
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="C253">
         <f t="shared" si="15"/>
@@ -5919,17 +5910,17 @@
       </c>
       <c r="E253">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F253" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F253" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=1&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <f t="shared" si="19"/>
-        <v>44441</v>
+        <v>44806</v>
       </c>
       <c r="C254">
         <f t="shared" si="15"/>
@@ -5941,17 +5932,17 @@
       </c>
       <c r="E254">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F254" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F254" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=2&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <f t="shared" si="19"/>
-        <v>44442</v>
+        <v>44807</v>
       </c>
       <c r="C255">
         <f t="shared" si="15"/>
@@ -5963,17 +5954,17 @@
       </c>
       <c r="E255">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F255" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F255" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=3&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <f t="shared" si="19"/>
-        <v>44443</v>
+        <v>44808</v>
       </c>
       <c r="C256">
         <f t="shared" si="15"/>
@@ -5985,17 +5976,17 @@
       </c>
       <c r="E256">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F256" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F256" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=4&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B257" s="1">
         <f t="shared" si="19"/>
-        <v>44444</v>
+        <v>44809</v>
       </c>
       <c r="C257">
         <f t="shared" si="15"/>
@@ -6007,17 +5998,17 @@
       </c>
       <c r="E257">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F257" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F257" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=5&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B258" s="1">
         <f t="shared" si="19"/>
-        <v>44445</v>
+        <v>44810</v>
       </c>
       <c r="C258">
         <f t="shared" si="15"/>
@@ -6029,17 +6020,17 @@
       </c>
       <c r="E258">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F258" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F258" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=6&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B259" s="1">
         <f t="shared" si="19"/>
-        <v>44446</v>
+        <v>44811</v>
       </c>
       <c r="C259">
         <f t="shared" si="15"/>
@@ -6051,17 +6042,17 @@
       </c>
       <c r="E259">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F259" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F259" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=7&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B260" s="1">
         <f t="shared" si="19"/>
-        <v>44447</v>
+        <v>44812</v>
       </c>
       <c r="C260">
         <f t="shared" si="15"/>
@@ -6073,17 +6064,17 @@
       </c>
       <c r="E260">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F260" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F260" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=8&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B261" s="1">
         <f t="shared" si="19"/>
-        <v>44448</v>
+        <v>44813</v>
       </c>
       <c r="C261">
         <f t="shared" si="15"/>
@@ -6095,17 +6086,17 @@
       </c>
       <c r="E261">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F261" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F261" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=9&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B262" s="1">
         <f t="shared" si="19"/>
-        <v>44449</v>
+        <v>44814</v>
       </c>
       <c r="C262">
         <f t="shared" si="15"/>
@@ -6117,17 +6108,17 @@
       </c>
       <c r="E262">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F262" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F262" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=10&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B263" s="1">
         <f t="shared" si="19"/>
-        <v>44450</v>
+        <v>44815</v>
       </c>
       <c r="C263">
         <f t="shared" si="15"/>
@@ -6139,17 +6130,17 @@
       </c>
       <c r="E263">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F263" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F263" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=11&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B264" s="1">
         <f t="shared" si="19"/>
-        <v>44451</v>
+        <v>44816</v>
       </c>
       <c r="C264">
         <f t="shared" si="15"/>
@@ -6161,17 +6152,17 @@
       </c>
       <c r="E264">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F264" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F264" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=12&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B265" s="1">
         <f t="shared" si="19"/>
-        <v>44452</v>
+        <v>44817</v>
       </c>
       <c r="C265">
         <f t="shared" si="15"/>
@@ -6183,17 +6174,17 @@
       </c>
       <c r="E265">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F265" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F265" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=13&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B266" s="1">
         <f t="shared" si="19"/>
-        <v>44453</v>
+        <v>44818</v>
       </c>
       <c r="C266">
         <f t="shared" si="15"/>
@@ -6205,17 +6196,17 @@
       </c>
       <c r="E266">
         <f t="shared" si="17"/>
-        <v>2021</v>
-      </c>
-      <c r="F266" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F266" t="str">
         <f t="shared" si="18"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=14&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="267" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B267" s="1">
         <f t="shared" si="19"/>
-        <v>44454</v>
+        <v>44819</v>
       </c>
       <c r="C267">
         <f t="shared" ref="C267:C330" si="20">MONTH(B267)</f>
@@ -6227,17 +6218,17 @@
       </c>
       <c r="E267">
         <f t="shared" ref="E267:E330" si="22">YEAR(B267)</f>
-        <v>2021</v>
-      </c>
-      <c r="F267" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F267" t="str">
         <f t="shared" ref="F267:F330" si="23">$I$3&amp;$I$4&amp;C267&amp;$I$5&amp;D267&amp;$I$6&amp;E267&amp;$I$7</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=15&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="268" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B268" s="1">
         <f t="shared" ref="B268:B331" si="24">B267+1</f>
-        <v>44455</v>
+        <v>44820</v>
       </c>
       <c r="C268">
         <f t="shared" si="20"/>
@@ -6249,17 +6240,17 @@
       </c>
       <c r="E268">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F268" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F268" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=16&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="269" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B269" s="1">
         <f t="shared" si="24"/>
-        <v>44456</v>
+        <v>44821</v>
       </c>
       <c r="C269">
         <f t="shared" si="20"/>
@@ -6271,17 +6262,17 @@
       </c>
       <c r="E269">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F269" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F269" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=17&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="270" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B270" s="1">
         <f t="shared" si="24"/>
-        <v>44457</v>
+        <v>44822</v>
       </c>
       <c r="C270">
         <f t="shared" si="20"/>
@@ -6293,17 +6284,17 @@
       </c>
       <c r="E270">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F270" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F270" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=18&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="271" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B271" s="1">
         <f t="shared" si="24"/>
-        <v>44458</v>
+        <v>44823</v>
       </c>
       <c r="C271">
         <f t="shared" si="20"/>
@@ -6315,17 +6306,17 @@
       </c>
       <c r="E271">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F271" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F271" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=19&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B272" s="1">
         <f t="shared" si="24"/>
-        <v>44459</v>
+        <v>44824</v>
       </c>
       <c r="C272">
         <f t="shared" si="20"/>
@@ -6337,17 +6328,17 @@
       </c>
       <c r="E272">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F272" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F272" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=20&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B273" s="1">
         <f t="shared" si="24"/>
-        <v>44460</v>
+        <v>44825</v>
       </c>
       <c r="C273">
         <f t="shared" si="20"/>
@@ -6359,17 +6350,17 @@
       </c>
       <c r="E273">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F273" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F273" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=21&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B274" s="1">
         <f t="shared" si="24"/>
-        <v>44461</v>
+        <v>44826</v>
       </c>
       <c r="C274">
         <f t="shared" si="20"/>
@@ -6381,17 +6372,17 @@
       </c>
       <c r="E274">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F274" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F274" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=22&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B275" s="1">
         <f t="shared" si="24"/>
-        <v>44462</v>
+        <v>44827</v>
       </c>
       <c r="C275">
         <f t="shared" si="20"/>
@@ -6403,17 +6394,17 @@
       </c>
       <c r="E275">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F275" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F275" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=23&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B276" s="1">
         <f t="shared" si="24"/>
-        <v>44463</v>
+        <v>44828</v>
       </c>
       <c r="C276">
         <f t="shared" si="20"/>
@@ -6425,17 +6416,17 @@
       </c>
       <c r="E276">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F276" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F276" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=24&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B277" s="1">
         <f t="shared" si="24"/>
-        <v>44464</v>
+        <v>44829</v>
       </c>
       <c r="C277">
         <f t="shared" si="20"/>
@@ -6447,17 +6438,17 @@
       </c>
       <c r="E277">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F277" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F277" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=25&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="278" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B278" s="1">
         <f t="shared" si="24"/>
-        <v>44465</v>
+        <v>44830</v>
       </c>
       <c r="C278">
         <f t="shared" si="20"/>
@@ -6469,17 +6460,17 @@
       </c>
       <c r="E278">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F278" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F278" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=26&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="279" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B279" s="1">
         <f t="shared" si="24"/>
-        <v>44466</v>
+        <v>44831</v>
       </c>
       <c r="C279">
         <f t="shared" si="20"/>
@@ -6491,17 +6482,17 @@
       </c>
       <c r="E279">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F279" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F279" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=27&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="280" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B280" s="1">
         <f t="shared" si="24"/>
-        <v>44467</v>
+        <v>44832</v>
       </c>
       <c r="C280">
         <f t="shared" si="20"/>
@@ -6513,17 +6504,17 @@
       </c>
       <c r="E280">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F280" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F280" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=28&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B281" s="1">
         <f t="shared" si="24"/>
-        <v>44468</v>
+        <v>44833</v>
       </c>
       <c r="C281">
         <f t="shared" si="20"/>
@@ -6535,17 +6526,17 @@
       </c>
       <c r="E281">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F281" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F281" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=29&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B282" s="1">
         <f t="shared" si="24"/>
-        <v>44469</v>
+        <v>44834</v>
       </c>
       <c r="C282">
         <f t="shared" si="20"/>
@@ -6557,17 +6548,17 @@
       </c>
       <c r="E282">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F282" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F282" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=9&amp;da=30&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B283" s="1">
         <f t="shared" si="24"/>
-        <v>44470</v>
+        <v>44835</v>
       </c>
       <c r="C283">
         <f t="shared" si="20"/>
@@ -6579,17 +6570,17 @@
       </c>
       <c r="E283">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F283" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F283" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=1&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B284" s="1">
         <f t="shared" si="24"/>
-        <v>44471</v>
+        <v>44836</v>
       </c>
       <c r="C284">
         <f t="shared" si="20"/>
@@ -6601,17 +6592,17 @@
       </c>
       <c r="E284">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F284" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F284" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=2&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B285" s="1">
         <f t="shared" si="24"/>
-        <v>44472</v>
+        <v>44837</v>
       </c>
       <c r="C285">
         <f t="shared" si="20"/>
@@ -6623,17 +6614,17 @@
       </c>
       <c r="E285">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F285" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F285" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=3&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B286" s="1">
         <f t="shared" si="24"/>
-        <v>44473</v>
+        <v>44838</v>
       </c>
       <c r="C286">
         <f t="shared" si="20"/>
@@ -6645,17 +6636,17 @@
       </c>
       <c r="E286">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F286" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F286" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=4&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B287" s="1">
         <f t="shared" si="24"/>
-        <v>44474</v>
+        <v>44839</v>
       </c>
       <c r="C287">
         <f t="shared" si="20"/>
@@ -6667,17 +6658,17 @@
       </c>
       <c r="E287">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F287" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F287" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=5&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="288" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B288" s="1">
         <f t="shared" si="24"/>
-        <v>44475</v>
+        <v>44840</v>
       </c>
       <c r="C288">
         <f t="shared" si="20"/>
@@ -6689,17 +6680,17 @@
       </c>
       <c r="E288">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F288" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F288" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=6&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B289" s="1">
         <f t="shared" si="24"/>
-        <v>44476</v>
+        <v>44841</v>
       </c>
       <c r="C289">
         <f t="shared" si="20"/>
@@ -6711,17 +6702,17 @@
       </c>
       <c r="E289">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F289" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F289" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=7&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="290" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B290" s="1">
         <f t="shared" si="24"/>
-        <v>44477</v>
+        <v>44842</v>
       </c>
       <c r="C290">
         <f t="shared" si="20"/>
@@ -6733,17 +6724,17 @@
       </c>
       <c r="E290">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F290" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F290" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=8&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="291" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B291" s="1">
         <f t="shared" si="24"/>
-        <v>44478</v>
+        <v>44843</v>
       </c>
       <c r="C291">
         <f t="shared" si="20"/>
@@ -6755,17 +6746,17 @@
       </c>
       <c r="E291">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F291" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F291" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=9&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B292" s="1">
         <f t="shared" si="24"/>
-        <v>44479</v>
+        <v>44844</v>
       </c>
       <c r="C292">
         <f t="shared" si="20"/>
@@ -6777,17 +6768,17 @@
       </c>
       <c r="E292">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F292" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F292" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=10&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B293" s="1">
         <f t="shared" si="24"/>
-        <v>44480</v>
+        <v>44845</v>
       </c>
       <c r="C293">
         <f t="shared" si="20"/>
@@ -6799,17 +6790,17 @@
       </c>
       <c r="E293">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F293" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F293" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=11&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B294" s="1">
         <f t="shared" si="24"/>
-        <v>44481</v>
+        <v>44846</v>
       </c>
       <c r="C294">
         <f t="shared" si="20"/>
@@ -6821,17 +6812,17 @@
       </c>
       <c r="E294">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F294" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F294" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=12&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B295" s="1">
         <f t="shared" si="24"/>
-        <v>44482</v>
+        <v>44847</v>
       </c>
       <c r="C295">
         <f t="shared" si="20"/>
@@ -6843,17 +6834,17 @@
       </c>
       <c r="E295">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F295" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F295" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=13&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B296" s="1">
         <f t="shared" si="24"/>
-        <v>44483</v>
+        <v>44848</v>
       </c>
       <c r="C296">
         <f t="shared" si="20"/>
@@ -6865,17 +6856,17 @@
       </c>
       <c r="E296">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F296" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F296" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=14&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B297" s="1">
         <f t="shared" si="24"/>
-        <v>44484</v>
+        <v>44849</v>
       </c>
       <c r="C297">
         <f t="shared" si="20"/>
@@ -6887,17 +6878,17 @@
       </c>
       <c r="E297">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F297" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F297" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=15&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="298" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B298" s="1">
         <f t="shared" si="24"/>
-        <v>44485</v>
+        <v>44850</v>
       </c>
       <c r="C298">
         <f t="shared" si="20"/>
@@ -6909,17 +6900,17 @@
       </c>
       <c r="E298">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F298" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F298" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=16&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B299" s="1">
         <f t="shared" si="24"/>
-        <v>44486</v>
+        <v>44851</v>
       </c>
       <c r="C299">
         <f t="shared" si="20"/>
@@ -6931,17 +6922,17 @@
       </c>
       <c r="E299">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F299" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F299" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=17&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B300" s="1">
         <f t="shared" si="24"/>
-        <v>44487</v>
+        <v>44852</v>
       </c>
       <c r="C300">
         <f t="shared" si="20"/>
@@ -6953,17 +6944,17 @@
       </c>
       <c r="E300">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F300" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F300" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=18&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B301" s="1">
         <f t="shared" si="24"/>
-        <v>44488</v>
+        <v>44853</v>
       </c>
       <c r="C301">
         <f t="shared" si="20"/>
@@ -6975,17 +6966,17 @@
       </c>
       <c r="E301">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F301" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F301" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=19&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="302" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B302" s="1">
         <f t="shared" si="24"/>
-        <v>44489</v>
+        <v>44854</v>
       </c>
       <c r="C302">
         <f t="shared" si="20"/>
@@ -6997,17 +6988,17 @@
       </c>
       <c r="E302">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F302" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F302" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=20&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B303" s="1">
         <f t="shared" si="24"/>
-        <v>44490</v>
+        <v>44855</v>
       </c>
       <c r="C303">
         <f t="shared" si="20"/>
@@ -7019,17 +7010,17 @@
       </c>
       <c r="E303">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F303" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F303" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=21&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B304" s="1">
         <f t="shared" si="24"/>
-        <v>44491</v>
+        <v>44856</v>
       </c>
       <c r="C304">
         <f t="shared" si="20"/>
@@ -7041,17 +7032,17 @@
       </c>
       <c r="E304">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F304" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F304" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=22&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B305" s="1">
         <f t="shared" si="24"/>
-        <v>44492</v>
+        <v>44857</v>
       </c>
       <c r="C305">
         <f t="shared" si="20"/>
@@ -7063,17 +7054,17 @@
       </c>
       <c r="E305">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F305" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F305" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=23&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="306" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B306" s="1">
         <f t="shared" si="24"/>
-        <v>44493</v>
+        <v>44858</v>
       </c>
       <c r="C306">
         <f t="shared" si="20"/>
@@ -7085,17 +7076,17 @@
       </c>
       <c r="E306">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F306" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F306" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=24&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="307" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B307" s="1">
         <f t="shared" si="24"/>
-        <v>44494</v>
+        <v>44859</v>
       </c>
       <c r="C307">
         <f t="shared" si="20"/>
@@ -7107,17 +7098,17 @@
       </c>
       <c r="E307">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F307" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F307" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=25&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B308" s="1">
         <f t="shared" si="24"/>
-        <v>44495</v>
+        <v>44860</v>
       </c>
       <c r="C308">
         <f t="shared" si="20"/>
@@ -7129,17 +7120,17 @@
       </c>
       <c r="E308">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F308" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F308" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=26&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="309" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B309" s="1">
         <f t="shared" si="24"/>
-        <v>44496</v>
+        <v>44861</v>
       </c>
       <c r="C309">
         <f t="shared" si="20"/>
@@ -7151,17 +7142,17 @@
       </c>
       <c r="E309">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F309" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F309" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=27&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B310" s="1">
         <f t="shared" si="24"/>
-        <v>44497</v>
+        <v>44862</v>
       </c>
       <c r="C310">
         <f t="shared" si="20"/>
@@ -7173,17 +7164,17 @@
       </c>
       <c r="E310">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F310" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F310" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=28&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="311" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B311" s="1">
         <f t="shared" si="24"/>
-        <v>44498</v>
+        <v>44863</v>
       </c>
       <c r="C311">
         <f t="shared" si="20"/>
@@ -7195,17 +7186,17 @@
       </c>
       <c r="E311">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F311" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F311" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=29&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="312" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B312" s="1">
         <f t="shared" si="24"/>
-        <v>44499</v>
+        <v>44864</v>
       </c>
       <c r="C312">
         <f t="shared" si="20"/>
@@ -7217,17 +7208,17 @@
       </c>
       <c r="E312">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F312" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F312" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=30&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="313" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B313" s="1">
         <f t="shared" si="24"/>
-        <v>44500</v>
+        <v>44865</v>
       </c>
       <c r="C313">
         <f t="shared" si="20"/>
@@ -7239,17 +7230,17 @@
       </c>
       <c r="E313">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F313" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F313" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=31&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=10&amp;da=31&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="314" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B314" s="1">
         <f t="shared" si="24"/>
-        <v>44501</v>
+        <v>44866</v>
       </c>
       <c r="C314">
         <f t="shared" si="20"/>
@@ -7261,17 +7252,17 @@
       </c>
       <c r="E314">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F314" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F314" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=1&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="315" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B315" s="1">
         <f t="shared" si="24"/>
-        <v>44502</v>
+        <v>44867</v>
       </c>
       <c r="C315">
         <f t="shared" si="20"/>
@@ -7283,17 +7274,17 @@
       </c>
       <c r="E315">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F315" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F315" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=2&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="316" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B316" s="1">
         <f t="shared" si="24"/>
-        <v>44503</v>
+        <v>44868</v>
       </c>
       <c r="C316">
         <f t="shared" si="20"/>
@@ -7305,17 +7296,17 @@
       </c>
       <c r="E316">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F316" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F316" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=3&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B317" s="1">
         <f t="shared" si="24"/>
-        <v>44504</v>
+        <v>44869</v>
       </c>
       <c r="C317">
         <f t="shared" si="20"/>
@@ -7327,17 +7318,17 @@
       </c>
       <c r="E317">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F317" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F317" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=4&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="318" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B318" s="1">
         <f t="shared" si="24"/>
-        <v>44505</v>
+        <v>44870</v>
       </c>
       <c r="C318">
         <f t="shared" si="20"/>
@@ -7349,17 +7340,17 @@
       </c>
       <c r="E318">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F318" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F318" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=5&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="319" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B319" s="1">
         <f t="shared" si="24"/>
-        <v>44506</v>
+        <v>44871</v>
       </c>
       <c r="C319">
         <f t="shared" si="20"/>
@@ -7371,17 +7362,17 @@
       </c>
       <c r="E319">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F319" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F319" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=6&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="320" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B320" s="1">
         <f t="shared" si="24"/>
-        <v>44507</v>
+        <v>44872</v>
       </c>
       <c r="C320">
         <f t="shared" si="20"/>
@@ -7393,17 +7384,17 @@
       </c>
       <c r="E320">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F320" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F320" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=7&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="321" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B321" s="1">
         <f t="shared" si="24"/>
-        <v>44508</v>
+        <v>44873</v>
       </c>
       <c r="C321">
         <f t="shared" si="20"/>
@@ -7415,17 +7406,17 @@
       </c>
       <c r="E321">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F321" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F321" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=8&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="322" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B322" s="1">
         <f t="shared" si="24"/>
-        <v>44509</v>
+        <v>44874</v>
       </c>
       <c r="C322">
         <f t="shared" si="20"/>
@@ -7437,17 +7428,17 @@
       </c>
       <c r="E322">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F322" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F322" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=9&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="323" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B323" s="1">
         <f t="shared" si="24"/>
-        <v>44510</v>
+        <v>44875</v>
       </c>
       <c r="C323">
         <f t="shared" si="20"/>
@@ -7459,17 +7450,17 @@
       </c>
       <c r="E323">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F323" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F323" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=10&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="324" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B324" s="1">
         <f t="shared" si="24"/>
-        <v>44511</v>
+        <v>44876</v>
       </c>
       <c r="C324">
         <f t="shared" si="20"/>
@@ -7481,17 +7472,17 @@
       </c>
       <c r="E324">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F324" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F324" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=11&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="325" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B325" s="1">
         <f t="shared" si="24"/>
-        <v>44512</v>
+        <v>44877</v>
       </c>
       <c r="C325">
         <f t="shared" si="20"/>
@@ -7503,17 +7494,17 @@
       </c>
       <c r="E325">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F325" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F325" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=12&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="326" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B326" s="1">
         <f t="shared" si="24"/>
-        <v>44513</v>
+        <v>44878</v>
       </c>
       <c r="C326">
         <f t="shared" si="20"/>
@@ -7525,17 +7516,17 @@
       </c>
       <c r="E326">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F326" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F326" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=13&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="327" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B327" s="1">
         <f t="shared" si="24"/>
-        <v>44514</v>
+        <v>44879</v>
       </c>
       <c r="C327">
         <f t="shared" si="20"/>
@@ -7547,17 +7538,17 @@
       </c>
       <c r="E327">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F327" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F327" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=14&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="328" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B328" s="1">
         <f t="shared" si="24"/>
-        <v>44515</v>
+        <v>44880</v>
       </c>
       <c r="C328">
         <f t="shared" si="20"/>
@@ -7569,17 +7560,17 @@
       </c>
       <c r="E328">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F328" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F328" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=15&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="329" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B329" s="1">
         <f t="shared" si="24"/>
-        <v>44516</v>
+        <v>44881</v>
       </c>
       <c r="C329">
         <f t="shared" si="20"/>
@@ -7591,17 +7582,17 @@
       </c>
       <c r="E329">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F329" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F329" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=16&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="330" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B330" s="1">
         <f t="shared" si="24"/>
-        <v>44517</v>
+        <v>44882</v>
       </c>
       <c r="C330">
         <f t="shared" si="20"/>
@@ -7613,17 +7604,17 @@
       </c>
       <c r="E330">
         <f t="shared" si="22"/>
-        <v>2021</v>
-      </c>
-      <c r="F330" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F330" t="str">
         <f t="shared" si="23"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=17&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="331" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B331" s="1">
         <f t="shared" si="24"/>
-        <v>44518</v>
+        <v>44883</v>
       </c>
       <c r="C331">
         <f t="shared" ref="C331:C374" si="25">MONTH(B331)</f>
@@ -7635,17 +7626,17 @@
       </c>
       <c r="E331">
         <f t="shared" ref="E331:E374" si="27">YEAR(B331)</f>
-        <v>2021</v>
-      </c>
-      <c r="F331" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F331" t="str">
         <f t="shared" ref="F331:F374" si="28">$I$3&amp;$I$4&amp;C331&amp;$I$5&amp;D331&amp;$I$6&amp;E331&amp;$I$7</f>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=18&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="332" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B332" s="1">
         <f t="shared" ref="B332:B374" si="29">B331+1</f>
-        <v>44519</v>
+        <v>44884</v>
       </c>
       <c r="C332">
         <f t="shared" si="25"/>
@@ -7657,17 +7648,17 @@
       </c>
       <c r="E332">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F332" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F332" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=19&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="333" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B333" s="1">
         <f t="shared" si="29"/>
-        <v>44520</v>
+        <v>44885</v>
       </c>
       <c r="C333">
         <f t="shared" si="25"/>
@@ -7679,17 +7670,17 @@
       </c>
       <c r="E333">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F333" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F333" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=20&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="334" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B334" s="1">
         <f t="shared" si="29"/>
-        <v>44521</v>
+        <v>44886</v>
       </c>
       <c r="C334">
         <f t="shared" si="25"/>
@@ -7701,17 +7692,17 @@
       </c>
       <c r="E334">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F334" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F334" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=21&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="335" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B335" s="1">
         <f t="shared" si="29"/>
-        <v>44522</v>
+        <v>44887</v>
       </c>
       <c r="C335">
         <f t="shared" si="25"/>
@@ -7723,17 +7714,17 @@
       </c>
       <c r="E335">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F335" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F335" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=22&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="336" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B336" s="1">
         <f t="shared" si="29"/>
-        <v>44523</v>
+        <v>44888</v>
       </c>
       <c r="C336">
         <f t="shared" si="25"/>
@@ -7745,17 +7736,17 @@
       </c>
       <c r="E336">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F336" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F336" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=23&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B337" s="1">
         <f t="shared" si="29"/>
-        <v>44524</v>
+        <v>44889</v>
       </c>
       <c r="C337">
         <f t="shared" si="25"/>
@@ -7767,17 +7758,17 @@
       </c>
       <c r="E337">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F337" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F337" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=24&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="338" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B338" s="1">
         <f t="shared" si="29"/>
-        <v>44525</v>
+        <v>44890</v>
       </c>
       <c r="C338">
         <f t="shared" si="25"/>
@@ -7789,17 +7780,17 @@
       </c>
       <c r="E338">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F338" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F338" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=25&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B339" s="1">
         <f t="shared" si="29"/>
-        <v>44526</v>
+        <v>44891</v>
       </c>
       <c r="C339">
         <f t="shared" si="25"/>
@@ -7811,17 +7802,17 @@
       </c>
       <c r="E339">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F339" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F339" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=26&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B340" s="1">
         <f t="shared" si="29"/>
-        <v>44527</v>
+        <v>44892</v>
       </c>
       <c r="C340">
         <f t="shared" si="25"/>
@@ -7833,17 +7824,17 @@
       </c>
       <c r="E340">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F340" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F340" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=27&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="341" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B341" s="1">
         <f t="shared" si="29"/>
-        <v>44528</v>
+        <v>44893</v>
       </c>
       <c r="C341">
         <f t="shared" si="25"/>
@@ -7855,17 +7846,17 @@
       </c>
       <c r="E341">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F341" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F341" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=28&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="342" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B342" s="1">
         <f t="shared" si="29"/>
-        <v>44529</v>
+        <v>44894</v>
       </c>
       <c r="C342">
         <f t="shared" si="25"/>
@@ -7877,17 +7868,17 @@
       </c>
       <c r="E342">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F342" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F342" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=29&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="343" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B343" s="1">
         <f t="shared" si="29"/>
-        <v>44530</v>
+        <v>44895</v>
       </c>
       <c r="C343">
         <f t="shared" si="25"/>
@@ -7899,17 +7890,17 @@
       </c>
       <c r="E343">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F343" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F343" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=11&amp;da=30&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="344" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B344" s="1">
         <f t="shared" si="29"/>
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="C344">
         <f t="shared" si="25"/>
@@ -7921,17 +7912,17 @@
       </c>
       <c r="E344">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F344" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F344" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=1&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=1&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B345" s="1">
         <f t="shared" si="29"/>
-        <v>44532</v>
+        <v>44897</v>
       </c>
       <c r="C345">
         <f t="shared" si="25"/>
@@ -7943,17 +7934,17 @@
       </c>
       <c r="E345">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F345" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F345" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=2&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=2&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B346" s="1">
         <f t="shared" si="29"/>
-        <v>44533</v>
+        <v>44898</v>
       </c>
       <c r="C346">
         <f t="shared" si="25"/>
@@ -7965,17 +7956,17 @@
       </c>
       <c r="E346">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F346" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F346" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=3&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=3&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B347" s="1">
         <f t="shared" si="29"/>
-        <v>44534</v>
+        <v>44899</v>
       </c>
       <c r="C347">
         <f t="shared" si="25"/>
@@ -7987,17 +7978,17 @@
       </c>
       <c r="E347">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F347" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F347" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=4&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=4&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B348" s="1">
         <f t="shared" si="29"/>
-        <v>44535</v>
+        <v>44900</v>
       </c>
       <c r="C348">
         <f t="shared" si="25"/>
@@ -8009,17 +8000,17 @@
       </c>
       <c r="E348">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F348" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F348" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=5&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=5&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B349" s="1">
         <f t="shared" si="29"/>
-        <v>44536</v>
+        <v>44901</v>
       </c>
       <c r="C349">
         <f t="shared" si="25"/>
@@ -8031,17 +8022,17 @@
       </c>
       <c r="E349">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F349" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F349" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=6&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=6&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="350" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B350" s="1">
         <f t="shared" si="29"/>
-        <v>44537</v>
+        <v>44902</v>
       </c>
       <c r="C350">
         <f t="shared" si="25"/>
@@ -8053,17 +8044,17 @@
       </c>
       <c r="E350">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F350" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F350" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=7&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=7&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="351" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B351" s="1">
         <f t="shared" si="29"/>
-        <v>44538</v>
+        <v>44903</v>
       </c>
       <c r="C351">
         <f t="shared" si="25"/>
@@ -8075,17 +8066,17 @@
       </c>
       <c r="E351">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F351" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F351" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=8&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=8&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B352" s="1">
         <f t="shared" si="29"/>
-        <v>44539</v>
+        <v>44904</v>
       </c>
       <c r="C352">
         <f t="shared" si="25"/>
@@ -8097,17 +8088,17 @@
       </c>
       <c r="E352">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F352" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F352" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=9&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=9&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="353" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B353" s="1">
         <f t="shared" si="29"/>
-        <v>44540</v>
+        <v>44905</v>
       </c>
       <c r="C353">
         <f t="shared" si="25"/>
@@ -8119,17 +8110,17 @@
       </c>
       <c r="E353">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F353" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F353" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=10&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=10&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B354" s="1">
         <f t="shared" si="29"/>
-        <v>44541</v>
+        <v>44906</v>
       </c>
       <c r="C354">
         <f t="shared" si="25"/>
@@ -8141,17 +8132,17 @@
       </c>
       <c r="E354">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F354" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F354" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=11&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=11&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="355" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B355" s="1">
         <f t="shared" si="29"/>
-        <v>44542</v>
+        <v>44907</v>
       </c>
       <c r="C355">
         <f t="shared" si="25"/>
@@ -8163,17 +8154,17 @@
       </c>
       <c r="E355">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F355" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F355" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=12&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=12&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B356" s="1">
         <f t="shared" si="29"/>
-        <v>44543</v>
+        <v>44908</v>
       </c>
       <c r="C356">
         <f t="shared" si="25"/>
@@ -8185,17 +8176,17 @@
       </c>
       <c r="E356">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F356" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F356" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=13&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=13&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B357" s="1">
         <f t="shared" si="29"/>
-        <v>44544</v>
+        <v>44909</v>
       </c>
       <c r="C357">
         <f t="shared" si="25"/>
@@ -8207,17 +8198,17 @@
       </c>
       <c r="E357">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F357" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F357" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=14&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=14&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="358" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B358" s="1">
         <f t="shared" si="29"/>
-        <v>44545</v>
+        <v>44910</v>
       </c>
       <c r="C358">
         <f t="shared" si="25"/>
@@ -8229,17 +8220,17 @@
       </c>
       <c r="E358">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F358" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F358" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=15&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=15&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="359" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B359" s="1">
         <f t="shared" si="29"/>
-        <v>44546</v>
+        <v>44911</v>
       </c>
       <c r="C359">
         <f t="shared" si="25"/>
@@ -8251,17 +8242,17 @@
       </c>
       <c r="E359">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F359" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F359" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=16&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=16&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="360" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B360" s="1">
         <f t="shared" si="29"/>
-        <v>44547</v>
+        <v>44912</v>
       </c>
       <c r="C360">
         <f t="shared" si="25"/>
@@ -8273,17 +8264,17 @@
       </c>
       <c r="E360">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F360" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F360" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=17&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=17&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="361" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B361" s="1">
         <f t="shared" si="29"/>
-        <v>44548</v>
+        <v>44913</v>
       </c>
       <c r="C361">
         <f t="shared" si="25"/>
@@ -8295,17 +8286,17 @@
       </c>
       <c r="E361">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F361" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F361" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=18&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=18&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="362" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B362" s="1">
         <f t="shared" si="29"/>
-        <v>44549</v>
+        <v>44914</v>
       </c>
       <c r="C362">
         <f t="shared" si="25"/>
@@ -8317,17 +8308,17 @@
       </c>
       <c r="E362">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F362" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F362" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=19&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=19&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="363" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B363" s="1">
         <f t="shared" si="29"/>
-        <v>44550</v>
+        <v>44915</v>
       </c>
       <c r="C363">
         <f t="shared" si="25"/>
@@ -8339,17 +8330,17 @@
       </c>
       <c r="E363">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F363" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F363" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=20&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=20&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B364" s="1">
         <f t="shared" si="29"/>
-        <v>44551</v>
+        <v>44916</v>
       </c>
       <c r="C364">
         <f t="shared" si="25"/>
@@ -8361,17 +8352,17 @@
       </c>
       <c r="E364">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F364" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F364" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=21&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=21&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B365" s="1">
         <f t="shared" si="29"/>
-        <v>44552</v>
+        <v>44917</v>
       </c>
       <c r="C365">
         <f t="shared" si="25"/>
@@ -8383,17 +8374,17 @@
       </c>
       <c r="E365">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F365" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F365" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=22&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=22&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B366" s="1">
         <f t="shared" si="29"/>
-        <v>44553</v>
+        <v>44918</v>
       </c>
       <c r="C366">
         <f t="shared" si="25"/>
@@ -8405,17 +8396,17 @@
       </c>
       <c r="E366">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F366" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F366" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=23&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=23&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B367" s="1">
         <f t="shared" si="29"/>
-        <v>44554</v>
+        <v>44919</v>
       </c>
       <c r="C367">
         <f t="shared" si="25"/>
@@ -8427,17 +8418,17 @@
       </c>
       <c r="E367">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F367" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F367" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=24&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=24&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B368" s="1">
         <f t="shared" si="29"/>
-        <v>44555</v>
+        <v>44920</v>
       </c>
       <c r="C368">
         <f t="shared" si="25"/>
@@ -8449,17 +8440,17 @@
       </c>
       <c r="E368">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F368" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F368" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=25&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=25&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="369" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B369" s="1">
         <f t="shared" si="29"/>
-        <v>44556</v>
+        <v>44921</v>
       </c>
       <c r="C369">
         <f t="shared" si="25"/>
@@ -8471,17 +8462,17 @@
       </c>
       <c r="E369">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F369" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F369" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=26&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=26&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="370" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B370" s="1">
         <f t="shared" si="29"/>
-        <v>44557</v>
+        <v>44922</v>
       </c>
       <c r="C370">
         <f t="shared" si="25"/>
@@ -8493,17 +8484,17 @@
       </c>
       <c r="E370">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F370" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F370" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=27&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=27&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="371" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B371" s="1">
         <f t="shared" si="29"/>
-        <v>44558</v>
+        <v>44923</v>
       </c>
       <c r="C371">
         <f t="shared" si="25"/>
@@ -8515,17 +8506,17 @@
       </c>
       <c r="E371">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F371" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F371" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=28&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=28&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B372" s="1">
         <f t="shared" si="29"/>
-        <v>44559</v>
+        <v>44924</v>
       </c>
       <c r="C372">
         <f t="shared" si="25"/>
@@ -8537,17 +8528,17 @@
       </c>
       <c r="E372">
         <f t="shared" si="27"/>
-        <v>2021</v>
-      </c>
-      <c r="F372" s="6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="F372" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=29&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=29&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B373" s="1">
         <f t="shared" si="29"/>
-        <v>44560</v>
+        <v>44925</v>
       </c>
       <c r="C373">
         <f t="shared" si="25"/>
@@ -8559,17 +8550,17 @@
       </c>
       <c r="E373">
         <f t="shared" si="27"/>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F373" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=30&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=30&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B374" s="1">
         <f t="shared" si="29"/>
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="C374">
         <f t="shared" si="25"/>
@@ -8581,11 +8572,11 @@
       </c>
       <c r="E374">
         <f t="shared" si="27"/>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F374" t="str">
         <f t="shared" si="28"/>
-        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=31&amp;yr=2021&amp;trackco=ALL;ALL&amp;cl=Y</v>
+        <v>https://www.equibase.com/premium/eqpVchartBuy.cfm?mo=12&amp;da=31&amp;yr=2022&amp;trackco=ALL;ALL&amp;cl=Y</v>
       </c>
     </row>
     <row r="375" spans="2:6" x14ac:dyDescent="0.25">
